--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Desktop\Griffith Class\Software Technologies\Milestone1_Group44\Milestone1_Group44\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{623F0BBB-BB70-445D-8C1F-F3F002CF9BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B98604-15F5-4F9E-96AE-A2B44D56A1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32655" yWindow="0" windowWidth="25050" windowHeight="15585" xr2:uid="{1405363C-FCC9-496C-9EF9-6C492E575822}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1405363C-FCC9-496C-9EF9-6C492E575822}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1075,7 +1075,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-ID"/>
-            <a:t>1.1 Assign Project Manager</a:t>
+            <a:t>Assign Project Manager</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1318,79 +1318,6 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{D7F2D407-40E2-45EE-8220-E0770131F78C}">
-      <dgm:prSet phldrT="[Text]"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-ID"/>
-            <a:t>Create Procurement Plan</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{32054C3E-D430-41A6-8E60-2B2E95A64CE3}" type="parTrans" cxnId="{20037440-1DE4-4355-B4A0-240CF6242D67}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-ID"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{BF2DBC3F-8FE5-4258-A798-A8BE8356371B}" type="sibTrans" cxnId="{20037440-1DE4-4355-B4A0-240CF6242D67}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-ID"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{FE1F2F92-F83E-401E-ACB6-6F7F9A1A550F}">
-      <dgm:prSet phldrT="[Text]"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-ID" b="0" i="0"/>
-            <a:t>Estimate Activity Resources &amp; Cost</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-ID"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{2EAC0BFC-0593-4431-8A76-F003BCBF1A0C}" type="parTrans" cxnId="{8188C71C-D350-4E0D-8469-13C00EBF9F6D}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-ID"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{798F9D0F-BF6F-4CD9-8CBB-21BBDE708A5E}" type="sibTrans" cxnId="{8188C71C-D350-4E0D-8469-13C00EBF9F6D}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-ID"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
     <dgm:pt modelId="{F9044475-2B89-43C0-A6D8-749AC7CEDDD4}">
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr/>
@@ -1499,42 +1426,6 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{20B6F654-15BB-4AD0-9FDD-3BF22900071A}">
-      <dgm:prSet phldrT="[Text]"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-ID"/>
-            <a:t>Control Costs &amp; Resources</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{DBC8FEC7-DF57-42B7-8A15-6DB9614C8FA7}" type="parTrans" cxnId="{0234C591-EEC4-46CA-9E63-B9D4EE91D61C}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-ID"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{129BF958-3188-4BB4-9A62-8F6C7AFA20F5}" type="sibTrans" cxnId="{0234C591-EEC4-46CA-9E63-B9D4EE91D61C}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-ID"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
     <dgm:pt modelId="{2FA64668-6B15-40D0-9177-00FDA112C9BC}">
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr/>
@@ -1849,6 +1740,150 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B1255331-2891-442C-ACC5-B63667792577}" type="sibTrans" cxnId="{A5B26698-9FF6-4838-B32B-DF1D2DE8548C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D7F2D407-40E2-45EE-8220-E0770131F78C}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID"/>
+            <a:t>Software Design &amp; System Components</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BF2DBC3F-8FE5-4258-A798-A8BE8356371B}" type="sibTrans" cxnId="{20037440-1DE4-4355-B4A0-240CF6242D67}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{32054C3E-D430-41A6-8E60-2B2E95A64CE3}" type="parTrans" cxnId="{20037440-1DE4-4355-B4A0-240CF6242D67}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID"/>
+            <a:t>Design User Interface</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{51AC16F0-DA20-4DC3-84AE-32BE3B1DF6CB}" type="parTrans" cxnId="{AF9BB1ED-E534-4E80-BAC2-A648F0825604}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BF08DC65-AE5C-47A1-9EBA-109B6157B7C3}" type="sibTrans" cxnId="{AF9BB1ED-E534-4E80-BAC2-A648F0825604}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DEE449F7-DEAE-4DE2-9438-2B263BAF9764}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID"/>
+            <a:t>Project Background and Overview</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B21A2E2E-DD0D-4008-8CF7-17AD9071DF0E}" type="parTrans" cxnId="{E1114139-9D4E-45D4-ACE4-AD7D56C701C1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3B5CD869-AE65-471B-B98E-8FD5FC9E0245}" type="sibTrans" cxnId="{E1114139-9D4E-45D4-ACE4-AD7D56C701C1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B95E29F4-05A1-4062-9F04-83EA59720DD5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID"/>
+            <a:t>Create Use Case Diagram</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0675CFBD-CF16-4380-BB62-E10A10D67E14}" type="parTrans" cxnId="{82987FEE-913C-4527-B48C-04A6317740CF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{31E6D290-4ECE-4DE3-9113-C03B35B8EB68}" type="sibTrans" cxnId="{82987FEE-913C-4527-B48C-04A6317740CF}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1932,8 +1967,44 @@
       <dgm:prSet presAssocID="{15ED58BC-EAB0-452C-AF65-18D994EC87CE}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{29A5CE68-9A17-4FB4-AE57-22705D981F5A}" type="pres">
+      <dgm:prSet presAssocID="{B21A2E2E-DD0D-4008-8CF7-17AD9071DF0E}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7FDD5ADA-615F-455D-9817-65ADB17EB7F1}" type="pres">
+      <dgm:prSet presAssocID="{DEE449F7-DEAE-4DE2-9438-2B263BAF9764}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5A29285B-14CE-4E0E-A129-95D8E5520B9E}" type="pres">
+      <dgm:prSet presAssocID="{DEE449F7-DEAE-4DE2-9438-2B263BAF9764}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4D6CB506-1FAC-475E-A501-165D0169C82F}" type="pres">
+      <dgm:prSet presAssocID="{DEE449F7-DEAE-4DE2-9438-2B263BAF9764}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F949FE92-C53D-4769-9544-0EC98302E37D}" type="pres">
+      <dgm:prSet presAssocID="{DEE449F7-DEAE-4DE2-9438-2B263BAF9764}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A14A4D48-63E3-4803-A81B-B66491B18A23}" type="pres">
+      <dgm:prSet presAssocID="{DEE449F7-DEAE-4DE2-9438-2B263BAF9764}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6670C358-8069-4B82-8B55-5F8E90400AEA}" type="pres">
+      <dgm:prSet presAssocID="{DEE449F7-DEAE-4DE2-9438-2B263BAF9764}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{FDC01EBF-9D24-4E6F-AB9D-D3EEA705C0EA}" type="pres">
-      <dgm:prSet presAssocID="{8B40A1A7-B8E2-4749-ACF5-4CED71C4CE31}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{8B40A1A7-B8E2-4749-ACF5-4CED71C4CE31}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F022BA0C-5715-4FEA-BC56-F7C12AAD4153}" type="pres">
@@ -1949,7 +2020,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FB725D6A-3E91-4E22-833D-4F5634C72367}" type="pres">
-      <dgm:prSet presAssocID="{82D0E1FB-CD3B-4841-ABF0-12355EA98061}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="22">
+      <dgm:prSet presAssocID="{82D0E1FB-CD3B-4841-ABF0-12355EA98061}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="23">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1957,7 +2028,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FCCB3ADE-BFA3-47AF-9028-BEF9B89CE4FD}" type="pres">
-      <dgm:prSet presAssocID="{82D0E1FB-CD3B-4841-ABF0-12355EA98061}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{82D0E1FB-CD3B-4841-ABF0-12355EA98061}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7E3F3A4F-955D-49D7-B3A1-F4677F49493E}" type="pres">
@@ -1969,7 +2040,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6B0C47BA-4F2B-4405-9552-6E845A238B96}" type="pres">
-      <dgm:prSet presAssocID="{765B54D9-2C89-416E-AD2B-D9B1FD23EF9A}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{765B54D9-2C89-416E-AD2B-D9B1FD23EF9A}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DC9A51B8-0D30-46BB-92CB-2E14ED7BAC14}" type="pres">
@@ -1985,7 +2056,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5D4D05C5-677C-40D0-BE29-0A617215BED6}" type="pres">
-      <dgm:prSet presAssocID="{67FB556B-FE07-4831-967D-26BB62516C4F}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="22">
+      <dgm:prSet presAssocID="{67FB556B-FE07-4831-967D-26BB62516C4F}" presName="rootText" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="23">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1993,7 +2064,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9B91036A-72A1-4BF0-A934-A061127853C8}" type="pres">
-      <dgm:prSet presAssocID="{67FB556B-FE07-4831-967D-26BB62516C4F}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{67FB556B-FE07-4831-967D-26BB62516C4F}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E0B8748B-C327-428F-B924-839D6D3E20C4}" type="pres">
@@ -2005,7 +2076,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{EDB32C9D-E321-48A5-B2D5-0133547C33E8}" type="pres">
-      <dgm:prSet presAssocID="{BA85E40E-D685-47EA-81AF-21AF26AF269D}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{BA85E40E-D685-47EA-81AF-21AF26AF269D}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{31487D7C-BE86-471D-94AA-B044B7336604}" type="pres">
@@ -2021,7 +2092,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2A7CC2BA-0FC9-4CD9-BB35-A0667BC55DAF}" type="pres">
-      <dgm:prSet presAssocID="{707A3F11-402B-43F2-BE75-F7AF559AFB0B}" presName="rootText" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="22">
+      <dgm:prSet presAssocID="{707A3F11-402B-43F2-BE75-F7AF559AFB0B}" presName="rootText" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="23">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2029,7 +2100,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E770F2F7-0978-4E65-A42C-7BAF1246157C}" type="pres">
-      <dgm:prSet presAssocID="{707A3F11-402B-43F2-BE75-F7AF559AFB0B}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{707A3F11-402B-43F2-BE75-F7AF559AFB0B}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9BF2CD85-D248-4A43-B177-8DBB5631AD73}" type="pres">
@@ -2077,7 +2148,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4E14FB1C-6B3D-4833-9719-A987CA720A07}" type="pres">
-      <dgm:prSet presAssocID="{A744AF3E-56A1-4E25-9719-1B24D905F4CA}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{A744AF3E-56A1-4E25-9719-1B24D905F4CA}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F376B89F-7D44-4CA0-8073-7F5EBE5FC98E}" type="pres">
@@ -2093,7 +2164,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{AB3090E0-E841-4C14-8AD8-7F9172C970AA}" type="pres">
-      <dgm:prSet presAssocID="{218BEFF9-0CB1-4562-87AE-045B65703BEB}" presName="rootText" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="22">
+      <dgm:prSet presAssocID="{218BEFF9-0CB1-4562-87AE-045B65703BEB}" presName="rootText" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="23">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2101,7 +2172,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F329B41D-22CD-4343-B47A-9A688206E247}" type="pres">
-      <dgm:prSet presAssocID="{218BEFF9-0CB1-4562-87AE-045B65703BEB}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{218BEFF9-0CB1-4562-87AE-045B65703BEB}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BDD2624E-E33B-4AF8-ACDA-137CC4B3DA4B}" type="pres">
@@ -2112,8 +2183,44 @@
       <dgm:prSet presAssocID="{218BEFF9-0CB1-4562-87AE-045B65703BEB}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{8E272E94-DF17-4B6C-8BCE-6F9C71923A10}" type="pres">
+      <dgm:prSet presAssocID="{0675CFBD-CF16-4380-BB62-E10A10D67E14}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DE79F432-D502-4698-8127-47D638EA363C}" type="pres">
+      <dgm:prSet presAssocID="{B95E29F4-05A1-4062-9F04-83EA59720DD5}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{371BEA68-7FEE-4FBD-850E-D60B7E22DB51}" type="pres">
+      <dgm:prSet presAssocID="{B95E29F4-05A1-4062-9F04-83EA59720DD5}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C927A751-DF32-47D0-8B31-9E3DFC4C6030}" type="pres">
+      <dgm:prSet presAssocID="{B95E29F4-05A1-4062-9F04-83EA59720DD5}" presName="rootText" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D9417BE7-7CC8-4D8B-BAB1-FE318D2EC86F}" type="pres">
+      <dgm:prSet presAssocID="{B95E29F4-05A1-4062-9F04-83EA59720DD5}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CADCF956-9740-4CEE-AB99-F593C7DBF72C}" type="pres">
+      <dgm:prSet presAssocID="{B95E29F4-05A1-4062-9F04-83EA59720DD5}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8F854DA7-9F0A-4DAB-B59F-E44AFDCD762F}" type="pres">
+      <dgm:prSet presAssocID="{B95E29F4-05A1-4062-9F04-83EA59720DD5}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{2B2B1C63-60F4-404A-AB64-159DDC253014}" type="pres">
-      <dgm:prSet presAssocID="{E8B381F9-82E4-4BA1-BF98-549C47F1C41B}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{E8B381F9-82E4-4BA1-BF98-549C47F1C41B}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{EE1AADD1-75CE-4938-B4BF-474D980585BB}" type="pres">
@@ -2129,7 +2236,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3CB0A418-7204-44C6-8304-90026C31C1B2}" type="pres">
-      <dgm:prSet presAssocID="{59F323DE-3CDB-4E04-BEE0-E11126C13760}" presName="rootText" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="22">
+      <dgm:prSet presAssocID="{59F323DE-3CDB-4E04-BEE0-E11126C13760}" presName="rootText" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="23">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2137,7 +2244,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F1EBA6BB-C3FE-479D-A63D-A1D2C29A0DCC}" type="pres">
-      <dgm:prSet presAssocID="{59F323DE-3CDB-4E04-BEE0-E11126C13760}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{59F323DE-3CDB-4E04-BEE0-E11126C13760}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{862AB73F-0E78-441B-935D-80BFE3C9CF21}" type="pres">
@@ -2149,7 +2256,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7BED290C-5CD7-473D-B4D3-B9A4CCC743D0}" type="pres">
-      <dgm:prSet presAssocID="{BEE45820-0658-4EB4-859A-B4BAB6B3D358}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{BEE45820-0658-4EB4-859A-B4BAB6B3D358}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DDAF6DFE-953C-4E90-823D-060355D21504}" type="pres">
@@ -2165,7 +2272,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FEE9DB09-07A6-4CD6-A2CA-FDE3E71DFBAD}" type="pres">
-      <dgm:prSet presAssocID="{B7D0B726-8476-4698-BDB3-E17485501444}" presName="rootText" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="22">
+      <dgm:prSet presAssocID="{B7D0B726-8476-4698-BDB3-E17485501444}" presName="rootText" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="23" custLinFactNeighborY="-4485">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2173,7 +2280,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5968C7B2-359C-4F60-9B07-30F151F0C20A}" type="pres">
-      <dgm:prSet presAssocID="{B7D0B726-8476-4698-BDB3-E17485501444}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{B7D0B726-8476-4698-BDB3-E17485501444}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3C4C364D-6C0C-457B-9916-9D3648408D04}" type="pres">
@@ -2185,7 +2292,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DD07FEFD-0224-4DD6-9F63-1F11E2838841}" type="pres">
-      <dgm:prSet presAssocID="{32054C3E-D430-41A6-8E60-2B2E95A64CE3}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{32054C3E-D430-41A6-8E60-2B2E95A64CE3}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{53411DBB-0C9F-4C59-880F-5FD2CA8D5FA8}" type="pres">
@@ -2201,7 +2308,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4A68206F-0940-459D-AC3D-D850D9BC067B}" type="pres">
-      <dgm:prSet presAssocID="{D7F2D407-40E2-45EE-8220-E0770131F78C}" presName="rootText" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="22">
+      <dgm:prSet presAssocID="{D7F2D407-40E2-45EE-8220-E0770131F78C}" presName="rootText" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="23" custLinFactY="41266" custLinFactNeighborX="-3364" custLinFactNeighborY="100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2209,7 +2316,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8CF05AD2-8753-40BE-9143-9C258AE5ACBF}" type="pres">
-      <dgm:prSet presAssocID="{D7F2D407-40E2-45EE-8220-E0770131F78C}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{D7F2D407-40E2-45EE-8220-E0770131F78C}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1F72E7B2-76A3-4C99-B7E8-A5A9CD20B378}" type="pres">
@@ -2221,7 +2328,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{94290531-1910-468F-B0CE-97EF7D4A3A4B}" type="pres">
-      <dgm:prSet presAssocID="{56ADA179-3797-4DBD-9B08-F0A70020A727}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{56ADA179-3797-4DBD-9B08-F0A70020A727}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F2AD44E0-622F-4F4B-B6ED-B5C1D485E799}" type="pres">
@@ -2237,7 +2344,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{35466965-823D-4E6A-8DEE-89E5210F9072}" type="pres">
-      <dgm:prSet presAssocID="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}" presName="rootText" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="22">
+      <dgm:prSet presAssocID="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}" presName="rootText" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="23" custLinFactY="-47993" custLinFactNeighborX="-1122" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2245,7 +2352,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1BC3A466-ACC6-45DC-8A4C-1F6374D44F54}" type="pres">
-      <dgm:prSet presAssocID="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{59467145-FE1C-48D9-9700-E9990CE5102A}" type="pres">
@@ -2256,40 +2363,40 @@
       <dgm:prSet presAssocID="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{C1331485-7350-4FFA-A66A-569F30D4A4D4}" type="pres">
-      <dgm:prSet presAssocID="{2EAC0BFC-0593-4431-8A76-F003BCBF1A0C}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="22"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{6C969F03-E5D2-4961-A292-2861721D4C9A}" type="pres">
-      <dgm:prSet presAssocID="{FE1F2F92-F83E-401E-ACB6-6F7F9A1A550F}" presName="hierRoot2" presStyleCnt="0">
+    <dgm:pt modelId="{6FF38E61-B3E2-4F0A-90A3-D62057C9CAEA}" type="pres">
+      <dgm:prSet presAssocID="{51AC16F0-DA20-4DC3-84AE-32BE3B1DF6CB}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="10" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1FA747E4-138F-465D-B3BA-21CF7D108E78}" type="pres">
+      <dgm:prSet presAssocID="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" presName="hierRoot2" presStyleCnt="0">
         <dgm:presLayoutVars>
           <dgm:hierBranch val="init"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{445F1CBA-1F04-4430-9E6F-DF18FFDD2F6A}" type="pres">
-      <dgm:prSet presAssocID="{FE1F2F92-F83E-401E-ACB6-6F7F9A1A550F}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{A4BC8AF7-9B53-4091-8065-BAEB087BCDE3}" type="pres">
-      <dgm:prSet presAssocID="{FE1F2F92-F83E-401E-ACB6-6F7F9A1A550F}" presName="rootText" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="22">
+    <dgm:pt modelId="{3A06AA8A-F435-4DA1-A1A9-0B03FEE9E49A}" type="pres">
+      <dgm:prSet presAssocID="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{620D5145-C15D-4E2D-8449-BC224938536A}" type="pres">
+      <dgm:prSet presAssocID="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" presName="rootText" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="23">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{ACD2CBD4-E8DA-4CAA-82E4-BA8375720AD8}" type="pres">
-      <dgm:prSet presAssocID="{FE1F2F92-F83E-401E-ACB6-6F7F9A1A550F}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="22"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{8C6274BB-92CF-4290-9663-A1A87847F6C2}" type="pres">
-      <dgm:prSet presAssocID="{FE1F2F92-F83E-401E-ACB6-6F7F9A1A550F}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{DF55952F-3B4E-4889-A0C8-112C37B43D26}" type="pres">
-      <dgm:prSet presAssocID="{FE1F2F92-F83E-401E-ACB6-6F7F9A1A550F}" presName="hierChild5" presStyleCnt="0"/>
+    <dgm:pt modelId="{E5174C63-306D-4CB3-BE44-C639AB96C012}" type="pres">
+      <dgm:prSet presAssocID="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{660853D3-CA1A-4446-819B-7F2B542E2ECC}" type="pres">
+      <dgm:prSet presAssocID="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2A3FED38-7322-466D-B283-D014DD75DC8F}" type="pres">
+      <dgm:prSet presAssocID="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CE6DF0BD-55D5-424F-9A6B-9704DB21498F}" type="pres">
@@ -2329,7 +2436,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{12739CD6-508A-4932-98E6-F8F497FDF41F}" type="pres">
-      <dgm:prSet presAssocID="{6340EEB0-4083-4786-A333-40A13E1FFD3F}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{6340EEB0-4083-4786-A333-40A13E1FFD3F}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="11" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3A7FE035-F106-4CFA-87F2-6EFA45356F70}" type="pres">
@@ -2345,7 +2452,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8B1BA511-364D-4E6C-A362-1B7745DC4F3E}" type="pres">
-      <dgm:prSet presAssocID="{0E232663-3D1B-4AA7-ADC6-363BDD7A8678}" presName="rootText" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="22">
+      <dgm:prSet presAssocID="{0E232663-3D1B-4AA7-ADC6-363BDD7A8678}" presName="rootText" presStyleLbl="node3" presStyleIdx="11" presStyleCnt="23">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2353,7 +2460,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4947493B-5DC5-401D-A622-E5DF6467E3A2}" type="pres">
-      <dgm:prSet presAssocID="{0E232663-3D1B-4AA7-ADC6-363BDD7A8678}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{0E232663-3D1B-4AA7-ADC6-363BDD7A8678}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="11" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9C62A280-F340-4778-A527-C6BD69F0F028}" type="pres">
@@ -2365,7 +2472,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D5D24E6B-AC13-40E2-9BE5-422B65ED839C}" type="pres">
-      <dgm:prSet presAssocID="{33F0195F-C936-46DB-B379-21EA376BAF58}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="10" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{33F0195F-C936-46DB-B379-21EA376BAF58}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="12" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{048A4C55-76F4-4253-860D-344FF4112822}" type="pres">
@@ -2381,7 +2488,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{08BBE401-FFBE-4432-8F5B-6C1F8499C2B5}" type="pres">
-      <dgm:prSet presAssocID="{8ADEFEEA-973C-4DC7-9477-98F23BB04400}" presName="rootText" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="22">
+      <dgm:prSet presAssocID="{8ADEFEEA-973C-4DC7-9477-98F23BB04400}" presName="rootText" presStyleLbl="node3" presStyleIdx="12" presStyleCnt="23">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2389,7 +2496,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CF7D5BCC-EEBE-4280-978D-DC8A2ACE9BB4}" type="pres">
-      <dgm:prSet presAssocID="{8ADEFEEA-973C-4DC7-9477-98F23BB04400}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{8ADEFEEA-973C-4DC7-9477-98F23BB04400}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="12" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{847EAC92-4E15-47A7-871A-699CCCDA4D76}" type="pres">
@@ -2401,7 +2508,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{27166336-5F1D-490E-9AFE-183688D629EE}" type="pres">
-      <dgm:prSet presAssocID="{3835BA4F-DB97-4738-BF19-05CFF41CF6A2}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="11" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{3835BA4F-DB97-4738-BF19-05CFF41CF6A2}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="13" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7019D908-511C-4F10-9B0B-F37697490352}" type="pres">
@@ -2417,7 +2524,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4CB8FC9C-4E8E-4531-830A-48D6E1BD85F9}" type="pres">
-      <dgm:prSet presAssocID="{8D4B80DF-DDB7-455F-B9CB-3DFD2E1D87F2}" presName="rootText" presStyleLbl="node3" presStyleIdx="11" presStyleCnt="22">
+      <dgm:prSet presAssocID="{8D4B80DF-DDB7-455F-B9CB-3DFD2E1D87F2}" presName="rootText" presStyleLbl="node3" presStyleIdx="13" presStyleCnt="23">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2425,7 +2532,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{EA6709F0-2E38-43CF-B1F1-3C352234C2FA}" type="pres">
-      <dgm:prSet presAssocID="{8D4B80DF-DDB7-455F-B9CB-3DFD2E1D87F2}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="11" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{8D4B80DF-DDB7-455F-B9CB-3DFD2E1D87F2}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="13" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F5A5B608-56B6-40F2-B317-25BC666BF7E6}" type="pres">
@@ -2437,7 +2544,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{947FD5DD-80C6-403D-A5CC-C2F7FE143852}" type="pres">
-      <dgm:prSet presAssocID="{1222E797-51BC-4808-9803-C4DBEF4523B6}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="12" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{1222E797-51BC-4808-9803-C4DBEF4523B6}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="14" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2FA9F37D-4962-4901-A158-B2A9F1465181}" type="pres">
@@ -2453,7 +2560,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{32F12FED-C7F7-492D-BBDD-57C948D21A9E}" type="pres">
-      <dgm:prSet presAssocID="{41944FC7-2FB2-4EE5-9322-AC58D1EC4677}" presName="rootText" presStyleLbl="node3" presStyleIdx="12" presStyleCnt="22">
+      <dgm:prSet presAssocID="{41944FC7-2FB2-4EE5-9322-AC58D1EC4677}" presName="rootText" presStyleLbl="node3" presStyleIdx="14" presStyleCnt="23">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2461,7 +2568,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{788E2445-8325-487F-859D-B967A8595816}" type="pres">
-      <dgm:prSet presAssocID="{41944FC7-2FB2-4EE5-9322-AC58D1EC4677}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="12" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{41944FC7-2FB2-4EE5-9322-AC58D1EC4677}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="14" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6AA164E5-C16E-4E46-9E2C-5EF96FE3CA4F}" type="pres">
@@ -2473,7 +2580,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CF3A6BED-DA23-45A5-927F-492BECB20BF1}" type="pres">
-      <dgm:prSet presAssocID="{0F40B954-4C30-4177-B91D-0CC9093705A9}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="13" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{0F40B954-4C30-4177-B91D-0CC9093705A9}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="15" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E7213548-A30A-47B8-88A6-BDE68066D809}" type="pres">
@@ -2489,7 +2596,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{666C3FA4-73CF-416F-B185-D165FA22646F}" type="pres">
-      <dgm:prSet presAssocID="{0CC0EB63-A5B9-4D54-B346-B718C9C87FD8}" presName="rootText" presStyleLbl="node3" presStyleIdx="13" presStyleCnt="22">
+      <dgm:prSet presAssocID="{0CC0EB63-A5B9-4D54-B346-B718C9C87FD8}" presName="rootText" presStyleLbl="node3" presStyleIdx="15" presStyleCnt="23">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2497,7 +2604,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5514013A-36AA-49CD-AD13-9FE9DA0855FC}" type="pres">
-      <dgm:prSet presAssocID="{0CC0EB63-A5B9-4D54-B346-B718C9C87FD8}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="13" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{0CC0EB63-A5B9-4D54-B346-B718C9C87FD8}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="15" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BD44EC62-B39A-4989-B1E3-8E47C4D87BF5}" type="pres">
@@ -2545,7 +2652,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FAD50408-6556-4404-9E09-756E82E115AD}" type="pres">
-      <dgm:prSet presAssocID="{CF47C41B-AC30-419A-AC9A-03668F0F1406}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="14" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{CF47C41B-AC30-419A-AC9A-03668F0F1406}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="16" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D236872F-FC1C-4DA5-A86F-D72F968ECD90}" type="pres">
@@ -2561,7 +2668,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E64D60CA-5F55-4C3C-9AD5-9C65DCECB7A3}" type="pres">
-      <dgm:prSet presAssocID="{F9044475-2B89-43C0-A6D8-749AC7CEDDD4}" presName="rootText" presStyleLbl="node3" presStyleIdx="14" presStyleCnt="22">
+      <dgm:prSet presAssocID="{F9044475-2B89-43C0-A6D8-749AC7CEDDD4}" presName="rootText" presStyleLbl="node3" presStyleIdx="16" presStyleCnt="23">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2569,7 +2676,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5E2E63A2-EB8E-4A65-8622-D5F89D86327D}" type="pres">
-      <dgm:prSet presAssocID="{F9044475-2B89-43C0-A6D8-749AC7CEDDD4}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="14" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{F9044475-2B89-43C0-A6D8-749AC7CEDDD4}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="16" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D801FAC7-3BF6-4D1A-B5CB-FF0DC78AFF2C}" type="pres">
@@ -2581,7 +2688,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{542905B1-C562-4D74-BC4D-F2A72C40D629}" type="pres">
-      <dgm:prSet presAssocID="{6EBD9637-6ED8-42BF-B143-E509665EB61A}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="15" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{6EBD9637-6ED8-42BF-B143-E509665EB61A}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="17" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7A03229D-14AB-45ED-876B-69C710AEAA5C}" type="pres">
@@ -2597,7 +2704,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E457BD99-B1A3-407D-8063-040D15DC5ECB}" type="pres">
-      <dgm:prSet presAssocID="{4A11099B-D1FC-437A-A08B-551ED3CED2D5}" presName="rootText" presStyleLbl="node3" presStyleIdx="15" presStyleCnt="22">
+      <dgm:prSet presAssocID="{4A11099B-D1FC-437A-A08B-551ED3CED2D5}" presName="rootText" presStyleLbl="node3" presStyleIdx="17" presStyleCnt="23">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2605,7 +2712,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A6293774-94F6-4610-A233-F0625B454A8D}" type="pres">
-      <dgm:prSet presAssocID="{4A11099B-D1FC-437A-A08B-551ED3CED2D5}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="15" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{4A11099B-D1FC-437A-A08B-551ED3CED2D5}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="17" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{128C37E3-57DE-4BC8-AD90-2FF104A9AB7D}" type="pres">
@@ -2617,7 +2724,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{16D0A96D-5947-4316-979D-83BD4B809E68}" type="pres">
-      <dgm:prSet presAssocID="{E9C94A81-E7B0-4A8A-A6F9-D68DA57DA3D0}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="16" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{E9C94A81-E7B0-4A8A-A6F9-D68DA57DA3D0}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="18" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8FEB9A00-20ED-4A8D-98F7-995E342CC645}" type="pres">
@@ -2633,7 +2740,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{22606EB7-9099-43D6-9995-CC5321CFD6B7}" type="pres">
-      <dgm:prSet presAssocID="{430B3B83-587C-4071-8700-3B45B20F5A7C}" presName="rootText" presStyleLbl="node3" presStyleIdx="16" presStyleCnt="22">
+      <dgm:prSet presAssocID="{430B3B83-587C-4071-8700-3B45B20F5A7C}" presName="rootText" presStyleLbl="node3" presStyleIdx="18" presStyleCnt="23">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2641,7 +2748,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{94BC82E4-6E43-41F2-8FBA-143A7A763568}" type="pres">
-      <dgm:prSet presAssocID="{430B3B83-587C-4071-8700-3B45B20F5A7C}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="16" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{430B3B83-587C-4071-8700-3B45B20F5A7C}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="18" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A572874A-D004-4C59-BE2A-FD4E06B5DB1F}" type="pres">
@@ -2652,44 +2759,8 @@
       <dgm:prSet presAssocID="{430B3B83-587C-4071-8700-3B45B20F5A7C}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{C8F80373-23BF-450E-B33C-7F62AA87EB92}" type="pres">
-      <dgm:prSet presAssocID="{DBC8FEC7-DF57-42B7-8A15-6DB9614C8FA7}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="17" presStyleCnt="22"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{E17647B4-93FD-48E1-A7F1-05BF63F10FC0}" type="pres">
-      <dgm:prSet presAssocID="{20B6F654-15BB-4AD0-9FDD-3BF22900071A}" presName="hierRoot2" presStyleCnt="0">
-        <dgm:presLayoutVars>
-          <dgm:hierBranch val="init"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{DE7DA2D5-BB74-4E96-8E58-784A75DB5C9E}" type="pres">
-      <dgm:prSet presAssocID="{20B6F654-15BB-4AD0-9FDD-3BF22900071A}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{74F91536-F38E-4896-98CB-F6A7F24B6561}" type="pres">
-      <dgm:prSet presAssocID="{20B6F654-15BB-4AD0-9FDD-3BF22900071A}" presName="rootText" presStyleLbl="node3" presStyleIdx="17" presStyleCnt="22">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{BD33981F-AD42-4D06-82A7-A5BB0468E1C8}" type="pres">
-      <dgm:prSet presAssocID="{20B6F654-15BB-4AD0-9FDD-3BF22900071A}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="17" presStyleCnt="22"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{45650D5C-D9E1-4F03-8FB9-39FDF1684EC0}" type="pres">
-      <dgm:prSet presAssocID="{20B6F654-15BB-4AD0-9FDD-3BF22900071A}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{6CD6AE38-E7B8-4016-B73C-FE311DAF636E}" type="pres">
-      <dgm:prSet presAssocID="{20B6F654-15BB-4AD0-9FDD-3BF22900071A}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
     <dgm:pt modelId="{539CD19F-B507-43F8-8B69-696757B8AEE1}" type="pres">
-      <dgm:prSet presAssocID="{818D61FE-AF3C-4673-B80D-16A6F6B48EAB}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="18" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{818D61FE-AF3C-4673-B80D-16A6F6B48EAB}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="19" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4D68A8A4-19C6-45AC-97BB-3E582B903251}" type="pres">
@@ -2705,7 +2776,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D00A2B2B-163D-4C7F-874A-2B6FC6AD6098}" type="pres">
-      <dgm:prSet presAssocID="{2FA64668-6B15-40D0-9177-00FDA112C9BC}" presName="rootText" presStyleLbl="node3" presStyleIdx="18" presStyleCnt="22">
+      <dgm:prSet presAssocID="{2FA64668-6B15-40D0-9177-00FDA112C9BC}" presName="rootText" presStyleLbl="node3" presStyleIdx="19" presStyleCnt="23">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2713,7 +2784,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DADA450E-2A00-4026-81FE-8FA18B9FE4A8}" type="pres">
-      <dgm:prSet presAssocID="{2FA64668-6B15-40D0-9177-00FDA112C9BC}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="18" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{2FA64668-6B15-40D0-9177-00FDA112C9BC}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="19" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2DCBAC3C-FCDE-41CF-8EC3-69BDE7661B0D}" type="pres">
@@ -2725,7 +2796,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8E924C6E-6BEF-404C-A57E-3A3F1A179C9F}" type="pres">
-      <dgm:prSet presAssocID="{080285D6-A3F3-4D30-8FA5-6A40C0084DE9}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="19" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{080285D6-A3F3-4D30-8FA5-6A40C0084DE9}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="20" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5B0864A9-4F63-45C8-AAFF-0D7514AF024D}" type="pres">
@@ -2741,7 +2812,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E390B133-2936-4014-B597-9BC47D24BE6B}" type="pres">
-      <dgm:prSet presAssocID="{33C838EA-B751-4A1A-B87F-3AA5A77F984F}" presName="rootText" presStyleLbl="node3" presStyleIdx="19" presStyleCnt="22">
+      <dgm:prSet presAssocID="{33C838EA-B751-4A1A-B87F-3AA5A77F984F}" presName="rootText" presStyleLbl="node3" presStyleIdx="20" presStyleCnt="23">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2749,7 +2820,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{50B22FFD-9308-47D6-8900-FF832AF0B49C}" type="pres">
-      <dgm:prSet presAssocID="{33C838EA-B751-4A1A-B87F-3AA5A77F984F}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="19" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{33C838EA-B751-4A1A-B87F-3AA5A77F984F}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="20" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7589B095-3EB0-450A-8C71-C1338B23BD24}" type="pres">
@@ -2797,7 +2868,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2F1F425F-805D-4C91-AEE2-686E6CD761B0}" type="pres">
-      <dgm:prSet presAssocID="{A1E6B2AE-9288-4715-89CD-DD8599947A82}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="20" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{A1E6B2AE-9288-4715-89CD-DD8599947A82}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="21" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C18DBB65-3689-43A6-AF90-4D87DDC9AED1}" type="pres">
@@ -2813,7 +2884,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7966E939-933F-4975-B334-EFA0AE682776}" type="pres">
-      <dgm:prSet presAssocID="{CBC04149-341A-4D99-91CB-43EF62E60828}" presName="rootText" presStyleLbl="node3" presStyleIdx="20" presStyleCnt="22">
+      <dgm:prSet presAssocID="{CBC04149-341A-4D99-91CB-43EF62E60828}" presName="rootText" presStyleLbl="node3" presStyleIdx="21" presStyleCnt="23">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2821,7 +2892,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{63968E93-8C6B-49AC-801D-02363D753B51}" type="pres">
-      <dgm:prSet presAssocID="{CBC04149-341A-4D99-91CB-43EF62E60828}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="20" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{CBC04149-341A-4D99-91CB-43EF62E60828}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="21" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{84D18496-8D0A-4D50-8800-C0A7D05E8D41}" type="pres">
@@ -2833,7 +2904,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CDF1389A-B2CD-4C46-B243-34E3ADB34998}" type="pres">
-      <dgm:prSet presAssocID="{88A040DB-0DDE-476E-A893-43A5ACC598BC}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="21" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{88A040DB-0DDE-476E-A893-43A5ACC598BC}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="22" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0D7042D2-3242-4F3C-9D6F-CB828D97F9C2}" type="pres">
@@ -2849,7 +2920,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7A787200-72FA-4966-BEF2-D11DA95DBBB6}" type="pres">
-      <dgm:prSet presAssocID="{254CBD21-7852-44C2-B44E-F42FEF563BCF}" presName="rootText" presStyleLbl="node3" presStyleIdx="21" presStyleCnt="22">
+      <dgm:prSet presAssocID="{254CBD21-7852-44C2-B44E-F42FEF563BCF}" presName="rootText" presStyleLbl="node3" presStyleIdx="22" presStyleCnt="23">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2857,7 +2928,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A2D97956-ADB7-4357-B6E6-2255C823E4D6}" type="pres">
-      <dgm:prSet presAssocID="{254CBD21-7852-44C2-B44E-F42FEF563BCF}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="21" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{254CBD21-7852-44C2-B44E-F42FEF563BCF}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="22" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{215CD9D6-4605-4618-A531-553D711FB77D}" type="pres">
@@ -2881,35 +2952,35 @@
     <dgm:cxn modelId="{9691E100-3B66-46FA-983F-0AE8D50A995F}" type="presOf" srcId="{8ADEFEEA-973C-4DC7-9477-98F23BB04400}" destId="{CF7D5BCC-EEBE-4280-978D-DC8A2ACE9BB4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{2DA15702-FF02-4910-BF39-5BDB3A342692}" type="presOf" srcId="{4A11099B-D1FC-437A-A08B-551ED3CED2D5}" destId="{A6293774-94F6-4610-A233-F0625B454A8D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C7B0B203-8F2D-4268-9150-6A1E0592C1C5}" type="presOf" srcId="{D7F2D407-40E2-45EE-8220-E0770131F78C}" destId="{4A68206F-0940-459D-AC3D-D850D9BC067B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FAC59C04-0A36-4B2E-B2CC-BCD5D9340137}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{B7D0B726-8476-4698-BDB3-E17485501444}" srcOrd="2" destOrd="0" parTransId="{BEE45820-0658-4EB4-859A-B4BAB6B3D358}" sibTransId="{07520EE3-E8BD-4EE4-A652-0D0E305349FD}"/>
+    <dgm:cxn modelId="{FAC59C04-0A36-4B2E-B2CC-BCD5D9340137}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{B7D0B726-8476-4698-BDB3-E17485501444}" srcOrd="3" destOrd="0" parTransId="{BEE45820-0658-4EB4-859A-B4BAB6B3D358}" sibTransId="{07520EE3-E8BD-4EE4-A652-0D0E305349FD}"/>
     <dgm:cxn modelId="{5375A506-29BE-4499-9B5D-E93E2EE5FAF4}" type="presOf" srcId="{82D0E1FB-CD3B-4841-ABF0-12355EA98061}" destId="{FCCB3ADE-BFA3-47AF-9028-BEF9B89CE4FD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{3207B307-3F8E-4476-928C-270EF6F96E5C}" type="presOf" srcId="{56ADA179-3797-4DBD-9B08-F0A70020A727}" destId="{94290531-1910-468F-B0CE-97EF7D4A3A4B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{08E04A0D-F1D2-4475-836A-5B3EFA4DDBB9}" type="presOf" srcId="{0F40B954-4C30-4177-B91D-0CC9093705A9}" destId="{CF3A6BED-DA23-45A5-927F-492BECB20BF1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{65389F0D-C54A-4750-8B08-076F057598A3}" type="presOf" srcId="{2FA64668-6B15-40D0-9177-00FDA112C9BC}" destId="{D00A2B2B-163D-4C7F-874A-2B6FC6AD6098}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{2E759E10-0413-4220-825B-0563A8017B9B}" srcId="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" destId="{41944FC7-2FB2-4EE5-9322-AC58D1EC4677}" srcOrd="3" destOrd="0" parTransId="{1222E797-51BC-4808-9803-C4DBEF4523B6}" sibTransId="{AB520866-979D-46BC-BC14-AD12A9C1FCAD}"/>
+    <dgm:cxn modelId="{22079F12-C698-467D-BC88-A1F3E401D194}" type="presOf" srcId="{0675CFBD-CF16-4380-BB62-E10A10D67E14}" destId="{8E272E94-DF17-4B6C-8BCE-6F9C71923A10}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{842CF512-0F45-401F-8C15-58B2FC03EBF1}" srcId="{A338E343-038D-40A8-9999-C1A96567CC29}" destId="{430B3B83-587C-4071-8700-3B45B20F5A7C}" srcOrd="2" destOrd="0" parTransId="{E9C94A81-E7B0-4A8A-A6F9-D68DA57DA3D0}" sibTransId="{DCA4976C-2D82-48B6-A623-CEFDF92CB54F}"/>
-    <dgm:cxn modelId="{728B5416-EA75-4405-95E2-10AF6A05FFEC}" type="presOf" srcId="{20B6F654-15BB-4AD0-9FDD-3BF22900071A}" destId="{74F91536-F38E-4896-98CB-F6A7F24B6561}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{41C3CA19-4C50-48BD-914C-6FFA8FB0BE3A}" type="presOf" srcId="{BEE45820-0658-4EB4-859A-B4BAB6B3D358}" destId="{7BED290C-5CD7-473D-B4D3-B9A4CCC743D0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{0A3C281A-6A23-4370-AFC3-A6D0DDBF2A64}" type="presOf" srcId="{CBC04149-341A-4D99-91CB-43EF62E60828}" destId="{63968E93-8C6B-49AC-801D-02363D753B51}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{277CC11A-7B4E-4AEB-AD67-B39F9A0D222C}" type="presOf" srcId="{59F323DE-3CDB-4E04-BEE0-E11126C13760}" destId="{3CB0A418-7204-44C6-8304-90026C31C1B2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{9766331B-85BB-46D7-BDF5-BEA832012C51}" type="presOf" srcId="{0E232663-3D1B-4AA7-ADC6-363BDD7A8678}" destId="{4947493B-5DC5-401D-A622-E5DF6467E3A2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8188C71C-D350-4E0D-8469-13C00EBF9F6D}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{FE1F2F92-F83E-401E-ACB6-6F7F9A1A550F}" srcOrd="5" destOrd="0" parTransId="{2EAC0BFC-0593-4431-8A76-F003BCBF1A0C}" sibTransId="{798F9D0F-BF6F-4CD9-8CBB-21BBDE708A5E}"/>
     <dgm:cxn modelId="{2C18CB1C-2313-4F7F-A2FA-16B3441DB4FC}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{218BEFF9-0CB1-4562-87AE-045B65703BEB}" srcOrd="0" destOrd="0" parTransId="{A744AF3E-56A1-4E25-9719-1B24D905F4CA}" sibTransId="{2727F710-0C6A-478D-93EA-43C9A99DA13D}"/>
     <dgm:cxn modelId="{9447081F-5D58-4AD1-B8D7-7612A44BC3DF}" type="presOf" srcId="{67FB556B-FE07-4831-967D-26BB62516C4F}" destId="{5D4D05C5-677C-40D0-BE29-0A617215BED6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3D78CA23-75F2-4BEC-B75A-45668EBB9AB3}" srcId="{A338E343-038D-40A8-9999-C1A96567CC29}" destId="{2FA64668-6B15-40D0-9177-00FDA112C9BC}" srcOrd="4" destOrd="0" parTransId="{818D61FE-AF3C-4673-B80D-16A6F6B48EAB}" sibTransId="{EB24C05F-ED39-4A5A-B5F6-C9735FCDF23B}"/>
+    <dgm:cxn modelId="{3D78CA23-75F2-4BEC-B75A-45668EBB9AB3}" srcId="{A338E343-038D-40A8-9999-C1A96567CC29}" destId="{2FA64668-6B15-40D0-9177-00FDA112C9BC}" srcOrd="3" destOrd="0" parTransId="{818D61FE-AF3C-4673-B80D-16A6F6B48EAB}" sibTransId="{EB24C05F-ED39-4A5A-B5F6-C9735FCDF23B}"/>
+    <dgm:cxn modelId="{EBDF3826-EEB2-4BC0-B291-48C0AF625BAA}" type="presOf" srcId="{B21A2E2E-DD0D-4008-8CF7-17AD9071DF0E}" destId="{29A5CE68-9A17-4FB4-AE57-22705D981F5A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D3FF8426-A05F-4F67-BA15-04F8084D4217}" type="presOf" srcId="{7C728B5C-DB83-41A8-9F3D-58F7CCF74323}" destId="{20440F1C-A067-443E-8FD2-615CB4CF0B9B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{FA148028-B904-45C7-8FD9-E73018317A86}" type="presOf" srcId="{15ED58BC-EAB0-452C-AF65-18D994EC87CE}" destId="{29FC3390-B3AF-4AE1-A130-989C60AA96EE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C605722A-6835-46E9-8AA9-70D6EE17BB8E}" type="presOf" srcId="{DB378607-1FDF-4AB7-B42B-EED36811809D}" destId="{4D8F30DD-D9FC-4B03-AEEF-58C80353DCFF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5743582F-CAF9-4FCF-94B7-BC83F3338B07}" type="presOf" srcId="{199696F9-A481-47E8-97D7-231969864596}" destId="{BF2F1A77-FE8F-4DFC-B5E0-6697A231424C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{8B035431-A9F7-402B-B4C3-3EA372E02141}" srcId="{A338E343-038D-40A8-9999-C1A96567CC29}" destId="{F9044475-2B89-43C0-A6D8-749AC7CEDDD4}" srcOrd="0" destOrd="0" parTransId="{CF47C41B-AC30-419A-AC9A-03668F0F1406}" sibTransId="{2D183000-AA0C-4E3A-8835-A0FAD69AC9ED}"/>
     <dgm:cxn modelId="{2EB97234-62F6-4E92-B143-DA48B887FBED}" type="presOf" srcId="{BA85E40E-D685-47EA-81AF-21AF26AF269D}" destId="{EDB32C9D-E321-48A5-B2D5-0133547C33E8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A1A95538-9AAC-4DC1-966C-CBCAB9D49D72}" srcId="{A338E343-038D-40A8-9999-C1A96567CC29}" destId="{33C838EA-B751-4A1A-B87F-3AA5A77F984F}" srcOrd="5" destOrd="0" parTransId="{080285D6-A3F3-4D30-8FA5-6A40C0084DE9}" sibTransId="{C100100B-1B13-4A24-9A7E-9C5808BFFB48}"/>
-    <dgm:cxn modelId="{5B052E3A-EE26-41FC-99DB-61560F2FBDE3}" type="presOf" srcId="{FE1F2F92-F83E-401E-ACB6-6F7F9A1A550F}" destId="{A4BC8AF7-9B53-4091-8065-BAEB087BCDE3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A1A95538-9AAC-4DC1-966C-CBCAB9D49D72}" srcId="{A338E343-038D-40A8-9999-C1A96567CC29}" destId="{33C838EA-B751-4A1A-B87F-3AA5A77F984F}" srcOrd="4" destOrd="0" parTransId="{080285D6-A3F3-4D30-8FA5-6A40C0084DE9}" sibTransId="{C100100B-1B13-4A24-9A7E-9C5808BFFB48}"/>
+    <dgm:cxn modelId="{E1114139-9D4E-45D4-ACE4-AD7D56C701C1}" srcId="{15ED58BC-EAB0-452C-AF65-18D994EC87CE}" destId="{DEE449F7-DEAE-4DE2-9438-2B263BAF9764}" srcOrd="0" destOrd="0" parTransId="{B21A2E2E-DD0D-4008-8CF7-17AD9071DF0E}" sibTransId="{3B5CD869-AE65-471B-B98E-8FD5FC9E0245}"/>
     <dgm:cxn modelId="{A760B33A-779E-4020-BAE5-2591BC5222D8}" type="presOf" srcId="{88A040DB-0DDE-476E-A893-43A5ACC598BC}" destId="{CDF1389A-B2CD-4C46-B243-34E3ADB34998}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{2A9D313C-9239-40CB-942C-C0D00286A5AF}" type="presOf" srcId="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" destId="{825D09E6-8B11-4C46-8E59-3C5C9AFCEF58}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{25FCDC3F-3EFC-419F-AE3D-C833BF691B05}" type="presOf" srcId="{9C0F506E-355C-4303-ACA6-5601A3D75C9E}" destId="{27586A14-6521-482B-9AE1-BDB0D4168ED1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B7F8FC3F-F492-48FE-9642-ECC162906AD0}" type="presOf" srcId="{430B3B83-587C-4071-8700-3B45B20F5A7C}" destId="{94BC82E4-6E43-41F2-8FBA-143A7A763568}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{20037440-1DE4-4355-B4A0-240CF6242D67}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{D7F2D407-40E2-45EE-8220-E0770131F78C}" srcOrd="3" destOrd="0" parTransId="{32054C3E-D430-41A6-8E60-2B2E95A64CE3}" sibTransId="{BF2DBC3F-8FE5-4258-A798-A8BE8356371B}"/>
+    <dgm:cxn modelId="{20037440-1DE4-4355-B4A0-240CF6242D67}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{D7F2D407-40E2-45EE-8220-E0770131F78C}" srcOrd="4" destOrd="0" parTransId="{32054C3E-D430-41A6-8E60-2B2E95A64CE3}" sibTransId="{BF2DBC3F-8FE5-4258-A798-A8BE8356371B}"/>
     <dgm:cxn modelId="{26FAA45E-A7AD-4CF6-93ED-69836B88F4BC}" type="presOf" srcId="{2FA64668-6B15-40D0-9177-00FDA112C9BC}" destId="{DADA450E-2A00-4026-81FE-8FA18B9FE4A8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{3533E15F-A90E-4039-9DF0-022E915E8B74}" type="presOf" srcId="{765B54D9-2C89-416E-AD2B-D9B1FD23EF9A}" destId="{6B0C47BA-4F2B-4405-9552-6E845A238B96}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{82E68061-7472-43F5-A80F-D55F47880EA7}" type="presOf" srcId="{F9044475-2B89-43C0-A6D8-749AC7CEDDD4}" destId="{E64D60CA-5F55-4C3C-9AD5-9C65DCECB7A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -2924,24 +2995,23 @@
     <dgm:cxn modelId="{622DC568-6E64-438A-ACA0-07F2872CB083}" type="presOf" srcId="{33C838EA-B751-4A1A-B87F-3AA5A77F984F}" destId="{50B22FFD-9308-47D6-8900-FF832AF0B49C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{58ACEF48-6D24-4827-8F3B-396A9B70DC5B}" type="presOf" srcId="{67FB556B-FE07-4831-967D-26BB62516C4F}" destId="{9B91036A-72A1-4BF0-A934-A061127853C8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{7F092D4C-5D6E-4309-8EF7-64069EC4401F}" type="presOf" srcId="{080285D6-A3F3-4D30-8FA5-6A40C0084DE9}" destId="{8E924C6E-6BEF-404C-A57E-3A3F1A179C9F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7A52984E-A67A-41AF-971E-E2E82F633312}" type="presOf" srcId="{20B6F654-15BB-4AD0-9FDD-3BF22900071A}" destId="{BD33981F-AD42-4D06-82A7-A5BB0468E1C8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{84FE6E4E-F107-4D5E-8E93-352A00390923}" type="presOf" srcId="{B95E29F4-05A1-4062-9F04-83EA59720DD5}" destId="{C927A751-DF32-47D0-8B31-9E3DFC4C6030}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E2ECEC4E-ED4E-430B-8795-A9AE40F446D6}" type="presOf" srcId="{B0301F61-AD5C-47D5-A0BF-86A1195B21FD}" destId="{E0E543A8-FEB8-4BD2-999A-4E4E8FBA257D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{71D62B56-7B65-4813-B3C6-B3FF04BE144C}" type="presOf" srcId="{46430AE2-EE53-4162-9A16-832B3A892CAC}" destId="{0FA5CDD9-5D59-4404-9A10-1CAB1922E2EB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{DC385576-2AF0-4DEA-8A79-2A8E4306FF3F}" type="presOf" srcId="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}" destId="{1BC3A466-ACC6-45DC-8A4C-1F6374D44F54}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1D6CD656-8CD3-4B74-8D82-3FAF410FC601}" type="presOf" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{135DC469-4E1C-458E-A25A-B4C8F73040B3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{533A495A-9C1F-4C7C-B438-7AEF88FD827E}" type="presOf" srcId="{8FF027C2-53CB-4E8E-9B8E-27D5A8EB3C4F}" destId="{96F9CE1E-394E-41D0-B714-F956A27CCAFC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5EE2777A-A28D-432B-8CC0-B54B53765542}" type="presOf" srcId="{430B3B83-587C-4071-8700-3B45B20F5A7C}" destId="{22606EB7-9099-43D6-9995-CC5321CFD6B7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FE22027B-5EFD-4743-9130-E1E16DD6E461}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}" srcOrd="4" destOrd="0" parTransId="{56ADA179-3797-4DBD-9B08-F0A70020A727}" sibTransId="{7EB222F6-DEED-4A4D-AA78-3068734573E0}"/>
+    <dgm:cxn modelId="{FE22027B-5EFD-4743-9130-E1E16DD6E461}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}" srcOrd="5" destOrd="0" parTransId="{56ADA179-3797-4DBD-9B08-F0A70020A727}" sibTransId="{7EB222F6-DEED-4A4D-AA78-3068734573E0}"/>
     <dgm:cxn modelId="{9906FE7B-EB67-4649-A1A6-B932F5B0A2AB}" type="presOf" srcId="{CBC04149-341A-4D99-91CB-43EF62E60828}" destId="{7966E939-933F-4975-B334-EFA0AE682776}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{82E01A80-5002-4674-B97E-ABAD9ED32B8A}" type="presOf" srcId="{FE1F2F92-F83E-401E-ACB6-6F7F9A1A550F}" destId="{ACD2CBD4-E8DA-4CAA-82E4-BA8375720AD8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{01392E80-C5D9-4ECF-B187-E6216678CF65}" type="presOf" srcId="{8ADEFEEA-973C-4DC7-9477-98F23BB04400}" destId="{08BBE401-FFBE-4432-8F5B-6C1F8499C2B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B494A684-599E-4557-8F26-2E53E97B7272}" type="presOf" srcId="{41944FC7-2FB2-4EE5-9322-AC58D1EC4677}" destId="{32F12FED-C7F7-492D-BBDD-57C948D21A9E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{82E0048A-B41E-40BD-8652-C2FC091D84BF}" srcId="{DB378607-1FDF-4AB7-B42B-EED36811809D}" destId="{CBC04149-341A-4D99-91CB-43EF62E60828}" srcOrd="0" destOrd="0" parTransId="{A1E6B2AE-9288-4715-89CD-DD8599947A82}" sibTransId="{F4758DD6-61B2-4543-942B-1A8AAF459421}"/>
     <dgm:cxn modelId="{F2C0F78A-D27F-4FC3-8CCD-A38A50E8C6DF}" type="presOf" srcId="{82D0E1FB-CD3B-4841-ABF0-12355EA98061}" destId="{FB725D6A-3E91-4E22-833D-4F5634C72367}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FBABDC8E-81A9-4798-A8DD-902859E3CF2D}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{59F323DE-3CDB-4E04-BEE0-E11126C13760}" srcOrd="1" destOrd="0" parTransId="{E8B381F9-82E4-4BA1-BF98-549C47F1C41B}" sibTransId="{86CD0E14-D9A9-492B-A9D6-1B1C79FDEA64}"/>
+    <dgm:cxn modelId="{FBABDC8E-81A9-4798-A8DD-902859E3CF2D}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{59F323DE-3CDB-4E04-BEE0-E11126C13760}" srcOrd="2" destOrd="0" parTransId="{E8B381F9-82E4-4BA1-BF98-549C47F1C41B}" sibTransId="{86CD0E14-D9A9-492B-A9D6-1B1C79FDEA64}"/>
+    <dgm:cxn modelId="{285B8C8F-8694-4DCF-BD95-6354CDDD3A27}" type="presOf" srcId="{51AC16F0-DA20-4DC3-84AE-32BE3B1DF6CB}" destId="{6FF38E61-B3E2-4F0A-90A3-D62057C9CAEA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E4852890-825D-4FAD-A291-30AD67A04C68}" type="presOf" srcId="{0E232663-3D1B-4AA7-ADC6-363BDD7A8678}" destId="{8B1BA511-364D-4E6C-A362-1B7745DC4F3E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4DBEE890-E436-48E1-9683-5A152B8DEC23}" type="presOf" srcId="{DB378607-1FDF-4AB7-B42B-EED36811809D}" destId="{7B47C914-72BE-4F62-9C2E-12CF21A8E83A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0234C591-EEC4-46CA-9E63-B9D4EE91D61C}" srcId="{A338E343-038D-40A8-9999-C1A96567CC29}" destId="{20B6F654-15BB-4AD0-9FDD-3BF22900071A}" srcOrd="3" destOrd="0" parTransId="{DBC8FEC7-DF57-42B7-8A15-6DB9614C8FA7}" sibTransId="{129BF958-3188-4BB4-9A62-8F6C7AFA20F5}"/>
     <dgm:cxn modelId="{6DDFC594-C8EC-4E71-9AD9-677D21449231}" type="presOf" srcId="{707A3F11-402B-43F2-BE75-F7AF559AFB0B}" destId="{2A7CC2BA-0FC9-4CD9-BB35-A0667BC55DAF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A5B26698-9FF6-4838-B32B-DF1D2DE8548C}" srcId="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" destId="{0CC0EB63-A5B9-4D54-B346-B718C9C87FD8}" srcOrd="4" destOrd="0" parTransId="{0F40B954-4C30-4177-B91D-0CC9093705A9}" sibTransId="{B1255331-2891-442C-ACC5-B63667792577}"/>
     <dgm:cxn modelId="{59A52F99-4415-458C-A215-02B16C062A3A}" srcId="{B0301F61-AD5C-47D5-A0BF-86A1195B21FD}" destId="{15ED58BC-EAB0-452C-AF65-18D994EC87CE}" srcOrd="0" destOrd="0" parTransId="{46430AE2-EE53-4162-9A16-832B3A892CAC}" sibTransId="{E97B49DC-E2DF-4D70-8ACC-D1293C4FAE3B}"/>
@@ -2952,9 +3022,11 @@
     <dgm:cxn modelId="{BBEA44A5-E1A9-483F-B53B-6BD80C6398A7}" srcId="{199696F9-A481-47E8-97D7-231969864596}" destId="{B0301F61-AD5C-47D5-A0BF-86A1195B21FD}" srcOrd="0" destOrd="0" parTransId="{28811DE5-456E-4252-9A8D-9A0053CA0628}" sibTransId="{55A750A7-E730-4B20-9D2F-459F06E10775}"/>
     <dgm:cxn modelId="{81F847A6-AECD-4E41-943E-E11FC349E877}" type="presOf" srcId="{1222E797-51BC-4808-9803-C4DBEF4523B6}" destId="{947FD5DD-80C6-403D-A5CC-C2F7FE143852}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{7776AAA6-4A45-4F6B-B10F-6D833B521F6C}" type="presOf" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{8A4A1206-04E9-49D7-9D18-12789D041DC4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AB2C5BA8-1A03-4A9C-9FC2-16E9CFBD8EED}" type="presOf" srcId="{B95E29F4-05A1-4062-9F04-83EA59720DD5}" destId="{D9417BE7-7CC8-4D8B-BAB1-FE318D2EC86F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{EBD043AD-FC12-4881-A1FD-3268CD2373C4}" srcId="{DB378607-1FDF-4AB7-B42B-EED36811809D}" destId="{254CBD21-7852-44C2-B44E-F42FEF563BCF}" srcOrd="1" destOrd="0" parTransId="{88A040DB-0DDE-476E-A893-43A5ACC598BC}" sibTransId="{0AF2B87F-6355-4C38-869E-4BB4C8552304}"/>
     <dgm:cxn modelId="{1BCE10AF-FE09-48E9-9908-A450C4FB0C26}" type="presOf" srcId="{33C838EA-B751-4A1A-B87F-3AA5A77F984F}" destId="{E390B133-2936-4014-B597-9BC47D24BE6B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{CD156AB0-6AED-46E6-B1E0-50C197A04F94}" type="presOf" srcId="{32054C3E-D430-41A6-8E60-2B2E95A64CE3}" destId="{DD07FEFD-0224-4DD6-9F63-1F11E2838841}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{81A1C8B2-6283-4C95-BAA0-73D688855E03}" type="presOf" srcId="{DEE449F7-DEAE-4DE2-9438-2B263BAF9764}" destId="{F949FE92-C53D-4769-9544-0EC98302E37D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{8BD96DB4-B73B-4933-B5DA-56CD3C1FF1E2}" type="presOf" srcId="{6340EEB0-4083-4786-A333-40A13E1FFD3F}" destId="{12739CD6-508A-4932-98E6-F8F497FDF41F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{7C5164B7-A0B7-4175-B1C4-6CC6A27441E6}" type="presOf" srcId="{254CBD21-7852-44C2-B44E-F42FEF563BCF}" destId="{A2D97956-ADB7-4357-B6E6-2255C823E4D6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{885A59B7-A04B-42BE-9760-59BF8F9AE997}" type="presOf" srcId="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" destId="{5F420B1B-E127-4BD0-9CDF-6D62F35B52B1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -2967,28 +3039,31 @@
     <dgm:cxn modelId="{A77E37C9-577F-471B-99CB-DB8DA04DA744}" type="presOf" srcId="{B7D0B726-8476-4698-BDB3-E17485501444}" destId="{5968C7B2-359C-4F60-9B07-30F151F0C20A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{75FAE8CB-7909-4B05-A352-7377344E2B19}" type="presOf" srcId="{A338E343-038D-40A8-9999-C1A96567CC29}" destId="{5DC16AF1-E34F-4CA1-B968-9F93645567DB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{6F0CD4CD-4A34-4677-8C8E-DB77295CCCD1}" type="presOf" srcId="{B7D0B726-8476-4698-BDB3-E17485501444}" destId="{FEE9DB09-07A6-4CD6-A2CA-FDE3E71DFBAD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A3ADF2CF-6DB5-4CB7-AFF3-70DED350F86C}" type="presOf" srcId="{2EAC0BFC-0593-4431-8A76-F003BCBF1A0C}" destId="{C1331485-7350-4FFA-A66A-569F30D4A4D4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3DBDEECD-0383-4531-8E02-B9C0C1211C05}" type="presOf" srcId="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" destId="{620D5145-C15D-4E2D-8449-BC224938536A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D70F3FD0-5558-4FC2-AFD0-2137FD864D3E}" type="presOf" srcId="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" destId="{E5174C63-306D-4CB3-BE44-C639AB96C012}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{8C7D69D4-DD28-4CDD-A8FB-86767C18EA4E}" type="presOf" srcId="{0CC0EB63-A5B9-4D54-B346-B718C9C87FD8}" destId="{666C3FA4-73CF-416F-B185-D165FA22646F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CCB9BFD4-D6F7-4B24-A809-11BF83EFB00C}" type="presOf" srcId="{DEE449F7-DEAE-4DE2-9438-2B263BAF9764}" destId="{4D6CB506-1FAC-475E-A501-165D0169C82F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{7D04BBD5-FBF9-46D4-9BF7-B444CB09795C}" type="presOf" srcId="{A338E343-038D-40A8-9999-C1A96567CC29}" destId="{94D8271F-3BE6-491D-B73E-6FD55E62D45A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5F5931D7-3CB0-4104-8F4C-76596B903A6A}" srcId="{15ED58BC-EAB0-452C-AF65-18D994EC87CE}" destId="{707A3F11-402B-43F2-BE75-F7AF559AFB0B}" srcOrd="2" destOrd="0" parTransId="{BA85E40E-D685-47EA-81AF-21AF26AF269D}" sibTransId="{F845DF16-4762-458F-8D80-2EBBD3A728B3}"/>
+    <dgm:cxn modelId="{5F5931D7-3CB0-4104-8F4C-76596B903A6A}" srcId="{15ED58BC-EAB0-452C-AF65-18D994EC87CE}" destId="{707A3F11-402B-43F2-BE75-F7AF559AFB0B}" srcOrd="3" destOrd="0" parTransId="{BA85E40E-D685-47EA-81AF-21AF26AF269D}" sibTransId="{F845DF16-4762-458F-8D80-2EBBD3A728B3}"/>
     <dgm:cxn modelId="{C7F347D9-3BDF-4624-93EC-6392B18944CD}" type="presOf" srcId="{E8B381F9-82E4-4BA1-BF98-549C47F1C41B}" destId="{2B2B1C63-60F4-404A-AB64-159DDC253014}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B66417DA-D8B4-48B6-A09D-0D377990A26F}" type="presOf" srcId="{818D61FE-AF3C-4673-B80D-16A6F6B48EAB}" destId="{539CD19F-B507-43F8-8B69-696757B8AEE1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{0F918FDA-0E24-4AE5-A905-8C3AE08C7F1C}" type="presOf" srcId="{8D4B80DF-DDB7-455F-B9CB-3DFD2E1D87F2}" destId="{4CB8FC9C-4E8E-4531-830A-48D6E1BD85F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{0FA0AFE0-07F0-40A2-B123-49450B0007EE}" type="presOf" srcId="{A1E6B2AE-9288-4715-89CD-DD8599947A82}" destId="{2F1F425F-805D-4C91-AEE2-686E6CD761B0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{7AB454E2-903C-4D18-A755-2349FF5BDB2B}" srcId="{B0301F61-AD5C-47D5-A0BF-86A1195B21FD}" destId="{DB378607-1FDF-4AB7-B42B-EED36811809D}" srcOrd="4" destOrd="0" parTransId="{DA1CF6E6-B372-4E44-97A1-12CC43D83F6E}" sibTransId="{A7BFE519-B753-4760-8522-AFA289CE10BE}"/>
     <dgm:cxn modelId="{D9103AE4-5844-484E-B94A-9B842FB89C52}" srcId="{A338E343-038D-40A8-9999-C1A96567CC29}" destId="{4A11099B-D1FC-437A-A08B-551ED3CED2D5}" srcOrd="1" destOrd="0" parTransId="{6EBD9637-6ED8-42BF-B143-E509665EB61A}" sibTransId="{7F0C5ACF-58DB-431B-BB44-0743443046BB}"/>
-    <dgm:cxn modelId="{D51F69E5-82C3-411A-A37E-DA5DF3BC8F91}" srcId="{15ED58BC-EAB0-452C-AF65-18D994EC87CE}" destId="{82D0E1FB-CD3B-4841-ABF0-12355EA98061}" srcOrd="0" destOrd="0" parTransId="{8B40A1A7-B8E2-4749-ACF5-4CED71C4CE31}" sibTransId="{AA2D6514-F272-4F7E-9094-9C5C2065D6AB}"/>
+    <dgm:cxn modelId="{D51F69E5-82C3-411A-A37E-DA5DF3BC8F91}" srcId="{15ED58BC-EAB0-452C-AF65-18D994EC87CE}" destId="{82D0E1FB-CD3B-4841-ABF0-12355EA98061}" srcOrd="1" destOrd="0" parTransId="{8B40A1A7-B8E2-4749-ACF5-4CED71C4CE31}" sibTransId="{AA2D6514-F272-4F7E-9094-9C5C2065D6AB}"/>
     <dgm:cxn modelId="{6AAB4AE6-FB4C-4C4A-A604-0A4AF4881779}" type="presOf" srcId="{59F323DE-3CDB-4E04-BEE0-E11126C13760}" destId="{F1EBA6BB-C3FE-479D-A63D-A1D2C29A0DCC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{23EEE0E7-0FF3-42D2-87D9-A4913D278D05}" type="presOf" srcId="{218BEFF9-0CB1-4562-87AE-045B65703BEB}" destId="{F329B41D-22CD-4343-B47A-9A688206E247}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B11F2BEC-CAFE-49EE-8B90-D3C6099D7AF6}" type="presOf" srcId="{F9044475-2B89-43C0-A6D8-749AC7CEDDD4}" destId="{5E2E63A2-EB8E-4A65-8622-D5F89D86327D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E5A74BED-5CD7-45E8-A7E8-87AFA874B28A}" type="presOf" srcId="{41944FC7-2FB2-4EE5-9322-AC58D1EC4677}" destId="{788E2445-8325-487F-859D-B967A8595816}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AF9BB1ED-E534-4E80-BAC2-A648F0825604}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" srcOrd="6" destOrd="0" parTransId="{51AC16F0-DA20-4DC3-84AE-32BE3B1DF6CB}" sibTransId="{BF08DC65-AE5C-47A1-9EBA-109B6157B7C3}"/>
+    <dgm:cxn modelId="{82987FEE-913C-4527-B48C-04A6317740CF}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{B95E29F4-05A1-4062-9F04-83EA59720DD5}" srcOrd="1" destOrd="0" parTransId="{0675CFBD-CF16-4380-BB62-E10A10D67E14}" sibTransId="{31E6D290-4ECE-4DE3-9113-C03B35B8EB68}"/>
     <dgm:cxn modelId="{C4D032EF-7346-4E11-A66B-9D0C5E1E8017}" type="presOf" srcId="{D7F2D407-40E2-45EE-8220-E0770131F78C}" destId="{8CF05AD2-8753-40BE-9143-9C258AE5ACBF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E8354CEF-8DE0-49CE-9F9B-2971170307A0}" type="presOf" srcId="{6EBD9637-6ED8-42BF-B143-E509665EB61A}" destId="{542905B1-C562-4D74-BC4D-F2A72C40D629}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1DBA2DF0-4459-48C3-A127-5DF098273E2F}" srcId="{15ED58BC-EAB0-452C-AF65-18D994EC87CE}" destId="{67FB556B-FE07-4831-967D-26BB62516C4F}" srcOrd="1" destOrd="0" parTransId="{765B54D9-2C89-416E-AD2B-D9B1FD23EF9A}" sibTransId="{013EC726-37E6-47BF-863E-CFE64BEDFC4D}"/>
+    <dgm:cxn modelId="{1DBA2DF0-4459-48C3-A127-5DF098273E2F}" srcId="{15ED58BC-EAB0-452C-AF65-18D994EC87CE}" destId="{67FB556B-FE07-4831-967D-26BB62516C4F}" srcOrd="2" destOrd="0" parTransId="{765B54D9-2C89-416E-AD2B-D9B1FD23EF9A}" sibTransId="{013EC726-37E6-47BF-863E-CFE64BEDFC4D}"/>
     <dgm:cxn modelId="{36A08FF0-B863-4F59-9FE9-A8D6DD3C4AC0}" type="presOf" srcId="{8D4B80DF-DDB7-455F-B9CB-3DFD2E1D87F2}" destId="{EA6709F0-2E38-43CF-B1F1-3C352234C2FA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E54AE5F7-0CE7-47C6-9513-83C61C6C630C}" type="presOf" srcId="{0CC0EB63-A5B9-4D54-B346-B718C9C87FD8}" destId="{5514013A-36AA-49CD-AD13-9FE9DA0855FC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4BF69EF8-2730-4F76-B7F7-6C8A53824E06}" srcId="{B0301F61-AD5C-47D5-A0BF-86A1195B21FD}" destId="{A338E343-038D-40A8-9999-C1A96567CC29}" srcOrd="3" destOrd="0" parTransId="{8FF027C2-53CB-4E8E-9B8E-27D5A8EB3C4F}" sibTransId="{94FB1422-7968-4DFA-84A3-2B78008FD73C}"/>
-    <dgm:cxn modelId="{D96803FD-D8B2-4286-A9AF-15D34803EA04}" type="presOf" srcId="{DBC8FEC7-DF57-42B7-8A15-6DB9614C8FA7}" destId="{C8F80373-23BF-450E-B33C-7F62AA87EB92}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{F7F402FF-7B5C-4CE6-B8B0-8504ECF1E490}" type="presOf" srcId="{33F0195F-C936-46DB-B379-21EA376BAF58}" destId="{D5D24E6B-AC13-40E2-9BE5-422B65ED839C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A3776F6E-B7D0-4F50-9ABB-D2B8258AF9CB}" type="presParOf" srcId="{BF2F1A77-FE8F-4DFC-B5E0-6697A231424C}" destId="{C7F9638F-03B5-483A-B1F7-D914CD8E793A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5FF7EDC2-B057-4B03-90BB-222225F0BFED}" type="presParOf" srcId="{C7F9638F-03B5-483A-B1F7-D914CD8E793A}" destId="{DF998CD2-E36F-40AA-8345-4D963085682D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -3001,22 +3076,29 @@
     <dgm:cxn modelId="{43429BEC-D68F-4A27-BCB5-E4A6E9D92C4D}" type="presParOf" srcId="{B91A5081-D8B6-4E0F-B684-49020C6A9406}" destId="{29FC3390-B3AF-4AE1-A130-989C60AA96EE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E0D98FC2-FFB2-4C71-A597-0EF842F9B421}" type="presParOf" srcId="{B91A5081-D8B6-4E0F-B684-49020C6A9406}" destId="{21376E0B-F4BC-4314-9BAF-6F44C7A1E04B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4C871C2B-4D64-4125-9EE1-6E412437341D}" type="presParOf" srcId="{30BD3CFC-BCD0-4ED9-BE41-C3EB1AC40F9B}" destId="{8CB2F78B-4A27-4C0B-83D3-93E231F37172}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C3874ABD-BE34-4E22-9138-B5CDA26AAAF1}" type="presParOf" srcId="{8CB2F78B-4A27-4C0B-83D3-93E231F37172}" destId="{FDC01EBF-9D24-4E6F-AB9D-D3EEA705C0EA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{02449EC1-96D4-47BA-A7E5-A0CE880895B9}" type="presParOf" srcId="{8CB2F78B-4A27-4C0B-83D3-93E231F37172}" destId="{F022BA0C-5715-4FEA-BC56-F7C12AAD4153}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A72183B3-E0B7-4A58-9E16-22B42FCF065A}" type="presParOf" srcId="{8CB2F78B-4A27-4C0B-83D3-93E231F37172}" destId="{29A5CE68-9A17-4FB4-AE57-22705D981F5A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{800B0114-314A-477B-89EC-7F5038E5644E}" type="presParOf" srcId="{8CB2F78B-4A27-4C0B-83D3-93E231F37172}" destId="{7FDD5ADA-615F-455D-9817-65ADB17EB7F1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3150D7B4-4BA5-4738-84F2-B9EACD463DE8}" type="presParOf" srcId="{7FDD5ADA-615F-455D-9817-65ADB17EB7F1}" destId="{5A29285B-14CE-4E0E-A129-95D8E5520B9E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A68F38FC-60E6-4DAA-8EF8-AA24B9D515E6}" type="presParOf" srcId="{5A29285B-14CE-4E0E-A129-95D8E5520B9E}" destId="{4D6CB506-1FAC-475E-A501-165D0169C82F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DA29F95D-61A9-4503-ACE3-D732DBC2F95A}" type="presParOf" srcId="{5A29285B-14CE-4E0E-A129-95D8E5520B9E}" destId="{F949FE92-C53D-4769-9544-0EC98302E37D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{919945F4-944E-4E18-B91C-259D849A0689}" type="presParOf" srcId="{7FDD5ADA-615F-455D-9817-65ADB17EB7F1}" destId="{A14A4D48-63E3-4803-A81B-B66491B18A23}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6959838E-CAEA-48F0-832D-B14C15913A78}" type="presParOf" srcId="{7FDD5ADA-615F-455D-9817-65ADB17EB7F1}" destId="{6670C358-8069-4B82-8B55-5F8E90400AEA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C3874ABD-BE34-4E22-9138-B5CDA26AAAF1}" type="presParOf" srcId="{8CB2F78B-4A27-4C0B-83D3-93E231F37172}" destId="{FDC01EBF-9D24-4E6F-AB9D-D3EEA705C0EA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{02449EC1-96D4-47BA-A7E5-A0CE880895B9}" type="presParOf" srcId="{8CB2F78B-4A27-4C0B-83D3-93E231F37172}" destId="{F022BA0C-5715-4FEA-BC56-F7C12AAD4153}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{61564BE9-9361-4335-B3C4-A33562A24270}" type="presParOf" srcId="{F022BA0C-5715-4FEA-BC56-F7C12AAD4153}" destId="{F2A9E644-4CDB-42D4-AD56-1D842021B19C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C4AE21AE-DCC2-4DE6-A979-AF29D81594EB}" type="presParOf" srcId="{F2A9E644-4CDB-42D4-AD56-1D842021B19C}" destId="{FB725D6A-3E91-4E22-833D-4F5634C72367}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1CAD110C-19B7-4337-93C6-E696CA6CE410}" type="presParOf" srcId="{F2A9E644-4CDB-42D4-AD56-1D842021B19C}" destId="{FCCB3ADE-BFA3-47AF-9028-BEF9B89CE4FD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{666717EB-9FDB-40E0-88BB-56ADB0D17C39}" type="presParOf" srcId="{F022BA0C-5715-4FEA-BC56-F7C12AAD4153}" destId="{7E3F3A4F-955D-49D7-B3A1-F4677F49493E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5554EDA3-462D-4C49-BFA8-1F0D5546282A}" type="presParOf" srcId="{F022BA0C-5715-4FEA-BC56-F7C12AAD4153}" destId="{EE3A1E88-A0C9-4B55-B6EC-740F1B9E75C3}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{77E5C089-2D4B-48DC-B5E7-38B4F972C4D8}" type="presParOf" srcId="{8CB2F78B-4A27-4C0B-83D3-93E231F37172}" destId="{6B0C47BA-4F2B-4405-9552-6E845A238B96}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8B3ADD23-B561-4F48-BE36-87F5617E6F8D}" type="presParOf" srcId="{8CB2F78B-4A27-4C0B-83D3-93E231F37172}" destId="{DC9A51B8-0D30-46BB-92CB-2E14ED7BAC14}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{77E5C089-2D4B-48DC-B5E7-38B4F972C4D8}" type="presParOf" srcId="{8CB2F78B-4A27-4C0B-83D3-93E231F37172}" destId="{6B0C47BA-4F2B-4405-9552-6E845A238B96}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8B3ADD23-B561-4F48-BE36-87F5617E6F8D}" type="presParOf" srcId="{8CB2F78B-4A27-4C0B-83D3-93E231F37172}" destId="{DC9A51B8-0D30-46BB-92CB-2E14ED7BAC14}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{DEFB89DF-248E-40D4-8497-0B6915ABB7F2}" type="presParOf" srcId="{DC9A51B8-0D30-46BB-92CB-2E14ED7BAC14}" destId="{1046FCBE-9BF2-4506-B1A7-B20617D5F9A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{39FAC3F8-339F-401A-80CE-3EBF94996E53}" type="presParOf" srcId="{1046FCBE-9BF2-4506-B1A7-B20617D5F9A8}" destId="{5D4D05C5-677C-40D0-BE29-0A617215BED6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E25BC92D-88B5-4254-A49E-E9B7A99FCB89}" type="presParOf" srcId="{1046FCBE-9BF2-4506-B1A7-B20617D5F9A8}" destId="{9B91036A-72A1-4BF0-A934-A061127853C8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{488CABD0-C088-4CA4-83D9-2E754461823D}" type="presParOf" srcId="{DC9A51B8-0D30-46BB-92CB-2E14ED7BAC14}" destId="{E0B8748B-C327-428F-B924-839D6D3E20C4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{025D7D01-87B1-4EB0-9747-F76230FC8368}" type="presParOf" srcId="{DC9A51B8-0D30-46BB-92CB-2E14ED7BAC14}" destId="{C2ADBB26-586F-45D1-9DDA-73AA056F8C49}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{846B07AE-0E6F-4A8D-BC4C-E6A0D13D6B5C}" type="presParOf" srcId="{8CB2F78B-4A27-4C0B-83D3-93E231F37172}" destId="{EDB32C9D-E321-48A5-B2D5-0133547C33E8}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{31B94EA4-ADE0-4674-BCB0-EF7B37FFF57B}" type="presParOf" srcId="{8CB2F78B-4A27-4C0B-83D3-93E231F37172}" destId="{31487D7C-BE86-471D-94AA-B044B7336604}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{846B07AE-0E6F-4A8D-BC4C-E6A0D13D6B5C}" type="presParOf" srcId="{8CB2F78B-4A27-4C0B-83D3-93E231F37172}" destId="{EDB32C9D-E321-48A5-B2D5-0133547C33E8}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{31B94EA4-ADE0-4674-BCB0-EF7B37FFF57B}" type="presParOf" srcId="{8CB2F78B-4A27-4C0B-83D3-93E231F37172}" destId="{31487D7C-BE86-471D-94AA-B044B7336604}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{3093B8D9-0DCE-4559-B1E5-C55BA1812D91}" type="presParOf" srcId="{31487D7C-BE86-471D-94AA-B044B7336604}" destId="{6E64536E-8926-4BFE-BC19-0BEA413FED92}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{ACC78417-FDA3-4615-BB39-F9727303A245}" type="presParOf" srcId="{6E64536E-8926-4BFE-BC19-0BEA413FED92}" destId="{2A7CC2BA-0FC9-4CD9-BB35-A0667BC55DAF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5FDF3EF0-07A4-4B4A-8E33-33E5911214A2}" type="presParOf" srcId="{6E64536E-8926-4BFE-BC19-0BEA413FED92}" destId="{E770F2F7-0978-4E65-A42C-7BAF1246157C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -3036,41 +3118,48 @@
     <dgm:cxn modelId="{DBDA1F93-5AF0-40D9-B551-611FEA772966}" type="presParOf" srcId="{3722C673-ED4E-4E75-9C60-A15F1AAB86C1}" destId="{F329B41D-22CD-4343-B47A-9A688206E247}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{F816ED7E-4F22-4348-8F9C-EBE6D21522AD}" type="presParOf" srcId="{F376B89F-7D44-4CA0-8073-7F5EBE5FC98E}" destId="{BDD2624E-E33B-4AF8-ACDA-137CC4B3DA4B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A8415F74-5C9D-4C78-819B-F918DB3179AA}" type="presParOf" srcId="{F376B89F-7D44-4CA0-8073-7F5EBE5FC98E}" destId="{D8DFE772-3EDC-4C07-8C6B-45041BD8DDA9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4F0D4D96-5FB0-4CE1-9D05-8CA9220D79A7}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{2B2B1C63-60F4-404A-AB64-159DDC253014}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EB12E0E3-83B1-4676-9C92-908DB6F6CF66}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{EE1AADD1-75CE-4938-B4BF-474D980585BB}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6FBEE2DA-AEAE-4A90-9E22-DA3E6C05C1CC}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{8E272E94-DF17-4B6C-8BCE-6F9C71923A10}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BC10D888-626E-4081-A162-3E1B48C6247A}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{DE79F432-D502-4698-8127-47D638EA363C}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F37E8352-1668-4A58-9D41-D31568680C2B}" type="presParOf" srcId="{DE79F432-D502-4698-8127-47D638EA363C}" destId="{371BEA68-7FEE-4FBD-850E-D60B7E22DB51}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9D3142C7-71A8-464E-BD6C-0927AC0B5511}" type="presParOf" srcId="{371BEA68-7FEE-4FBD-850E-D60B7E22DB51}" destId="{C927A751-DF32-47D0-8B31-9E3DFC4C6030}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{04CAA3E8-ABFE-43C8-8D2D-22CA8B0FF534}" type="presParOf" srcId="{371BEA68-7FEE-4FBD-850E-D60B7E22DB51}" destId="{D9417BE7-7CC8-4D8B-BAB1-FE318D2EC86F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DFF61F5B-1FA1-4E9F-88C7-DB75D168F598}" type="presParOf" srcId="{DE79F432-D502-4698-8127-47D638EA363C}" destId="{CADCF956-9740-4CEE-AB99-F593C7DBF72C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{14BF0FEC-AFD7-4780-B99D-E9BE26AEF66C}" type="presParOf" srcId="{DE79F432-D502-4698-8127-47D638EA363C}" destId="{8F854DA7-9F0A-4DAB-B59F-E44AFDCD762F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4F0D4D96-5FB0-4CE1-9D05-8CA9220D79A7}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{2B2B1C63-60F4-404A-AB64-159DDC253014}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EB12E0E3-83B1-4676-9C92-908DB6F6CF66}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{EE1AADD1-75CE-4938-B4BF-474D980585BB}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C1C3F6F9-B3BA-4AF3-A8A7-02C331165EAF}" type="presParOf" srcId="{EE1AADD1-75CE-4938-B4BF-474D980585BB}" destId="{60E09D75-6A21-4E51-BE64-BD3DFD0586BE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{785591E2-8DC2-4227-A188-1B06ACA2F9B0}" type="presParOf" srcId="{60E09D75-6A21-4E51-BE64-BD3DFD0586BE}" destId="{3CB0A418-7204-44C6-8304-90026C31C1B2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{075AE654-7FB5-47C8-83CB-3687E21F53EF}" type="presParOf" srcId="{60E09D75-6A21-4E51-BE64-BD3DFD0586BE}" destId="{F1EBA6BB-C3FE-479D-A63D-A1D2C29A0DCC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{293E82C8-6B1E-4610-9644-3ADB99AE92E8}" type="presParOf" srcId="{EE1AADD1-75CE-4938-B4BF-474D980585BB}" destId="{862AB73F-0E78-441B-935D-80BFE3C9CF21}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C3C6500B-2793-4761-810E-E96CCE07B804}" type="presParOf" srcId="{EE1AADD1-75CE-4938-B4BF-474D980585BB}" destId="{04BC1851-4351-49B3-9585-5FC2AF46572D}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9D34CD3E-C52B-4AFA-81F4-CD7E4246CE77}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{7BED290C-5CD7-473D-B4D3-B9A4CCC743D0}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1F84337B-0A35-4E1C-815A-84335B9FB284}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{DDAF6DFE-953C-4E90-823D-060355D21504}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9D34CD3E-C52B-4AFA-81F4-CD7E4246CE77}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{7BED290C-5CD7-473D-B4D3-B9A4CCC743D0}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1F84337B-0A35-4E1C-815A-84335B9FB284}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{DDAF6DFE-953C-4E90-823D-060355D21504}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C9A5C678-CD70-48BE-B0FF-0C35CAAF245A}" type="presParOf" srcId="{DDAF6DFE-953C-4E90-823D-060355D21504}" destId="{931B644F-3086-4E99-9614-A808C5E17C67}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4172797E-1235-447F-AB75-C93C636FEA53}" type="presParOf" srcId="{931B644F-3086-4E99-9614-A808C5E17C67}" destId="{FEE9DB09-07A6-4CD6-A2CA-FDE3E71DFBAD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{2A606AB9-342F-487F-91A6-5A9F46F04910}" type="presParOf" srcId="{931B644F-3086-4E99-9614-A808C5E17C67}" destId="{5968C7B2-359C-4F60-9B07-30F151F0C20A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5D310067-C390-4B2A-8ED5-9E23875E13C1}" type="presParOf" srcId="{DDAF6DFE-953C-4E90-823D-060355D21504}" destId="{3C4C364D-6C0C-457B-9916-9D3648408D04}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{9B26A1BE-2D7C-447C-AC4A-61C2CE1ABFC3}" type="presParOf" srcId="{DDAF6DFE-953C-4E90-823D-060355D21504}" destId="{B5C3A50A-B424-4023-8416-C4F22547A053}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{57273EF6-616C-4920-AC1C-1CA2949F82B7}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{DD07FEFD-0224-4DD6-9F63-1F11E2838841}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{515AA15B-12D8-456E-8691-C688C38AB802}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{53411DBB-0C9F-4C59-880F-5FD2CA8D5FA8}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{57273EF6-616C-4920-AC1C-1CA2949F82B7}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{DD07FEFD-0224-4DD6-9F63-1F11E2838841}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{515AA15B-12D8-456E-8691-C688C38AB802}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{53411DBB-0C9F-4C59-880F-5FD2CA8D5FA8}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A01B944F-D584-44B7-B940-187B813CA4C0}" type="presParOf" srcId="{53411DBB-0C9F-4C59-880F-5FD2CA8D5FA8}" destId="{6C88E544-B4C0-4609-A1AF-C7299BDBD7CB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{9B1A5EF6-AD93-4D60-9AE2-7B94D5BE91B3}" type="presParOf" srcId="{6C88E544-B4C0-4609-A1AF-C7299BDBD7CB}" destId="{4A68206F-0940-459D-AC3D-D850D9BC067B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B134272B-F814-4BE8-BC81-35F634259AF6}" type="presParOf" srcId="{6C88E544-B4C0-4609-A1AF-C7299BDBD7CB}" destId="{8CF05AD2-8753-40BE-9143-9C258AE5ACBF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{AFAF5039-D5EF-4F84-8B59-5C7B1AFA08AE}" type="presParOf" srcId="{53411DBB-0C9F-4C59-880F-5FD2CA8D5FA8}" destId="{1F72E7B2-76A3-4C99-B7E8-A5A9CD20B378}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{DD388A56-1460-454F-BA88-DDBF4DA22BD1}" type="presParOf" srcId="{53411DBB-0C9F-4C59-880F-5FD2CA8D5FA8}" destId="{15C3F820-CC3B-4694-A4C1-317FEF707857}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3F280E98-A38C-42DD-A906-5241D11E1DAF}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{94290531-1910-468F-B0CE-97EF7D4A3A4B}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{891D6A63-B44C-4FAC-AA93-12F94DB4C3B4}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{F2AD44E0-622F-4F4B-B6ED-B5C1D485E799}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3F280E98-A38C-42DD-A906-5241D11E1DAF}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{94290531-1910-468F-B0CE-97EF7D4A3A4B}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{891D6A63-B44C-4FAC-AA93-12F94DB4C3B4}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{F2AD44E0-622F-4F4B-B6ED-B5C1D485E799}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{7016A22A-C9EB-4A57-9F87-61B9832292B8}" type="presParOf" srcId="{F2AD44E0-622F-4F4B-B6ED-B5C1D485E799}" destId="{408E018A-45E2-4CDA-B0FA-FDAEA18E5F13}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{DFA9FE70-DAA5-4B08-BBDF-E83E0C21E4AE}" type="presParOf" srcId="{408E018A-45E2-4CDA-B0FA-FDAEA18E5F13}" destId="{35466965-823D-4E6A-8DEE-89E5210F9072}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D5ECE7D1-FA00-4E03-9079-398F00174599}" type="presParOf" srcId="{408E018A-45E2-4CDA-B0FA-FDAEA18E5F13}" destId="{1BC3A466-ACC6-45DC-8A4C-1F6374D44F54}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{9FD0609C-A7F1-4E08-AD14-35603C8AB7F2}" type="presParOf" srcId="{F2AD44E0-622F-4F4B-B6ED-B5C1D485E799}" destId="{59467145-FE1C-48D9-9700-E9990CE5102A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E3FD7771-28D9-48C9-A7B5-3CB7AA1CAB44}" type="presParOf" srcId="{F2AD44E0-622F-4F4B-B6ED-B5C1D485E799}" destId="{77105D9C-6488-44D0-B57E-C8F5FE2D0333}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1E520AF3-3FA3-4BBF-B5C7-E511A47F2279}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{C1331485-7350-4FFA-A66A-569F30D4A4D4}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{51A28E23-E6A5-4C41-BB62-95A67ED1B2D1}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{6C969F03-E5D2-4961-A292-2861721D4C9A}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F0A04959-3CCF-46AB-927C-304560567132}" type="presParOf" srcId="{6C969F03-E5D2-4961-A292-2861721D4C9A}" destId="{445F1CBA-1F04-4430-9E6F-DF18FFDD2F6A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B15B59E6-17C2-4697-9D6F-03C0A2D8B7F6}" type="presParOf" srcId="{445F1CBA-1F04-4430-9E6F-DF18FFDD2F6A}" destId="{A4BC8AF7-9B53-4091-8065-BAEB087BCDE3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3F3AB3BC-C008-411E-B4DC-084A36DB1CE3}" type="presParOf" srcId="{445F1CBA-1F04-4430-9E6F-DF18FFDD2F6A}" destId="{ACD2CBD4-E8DA-4CAA-82E4-BA8375720AD8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2DFAC40C-D021-4955-81E8-A59F1991594E}" type="presParOf" srcId="{6C969F03-E5D2-4961-A292-2861721D4C9A}" destId="{8C6274BB-92CF-4290-9663-A1A87847F6C2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{56A28479-77D4-4EDB-BA73-644EB861A6CF}" type="presParOf" srcId="{6C969F03-E5D2-4961-A292-2861721D4C9A}" destId="{DF55952F-3B4E-4889-A0C8-112C37B43D26}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5CFCD448-1648-404A-9313-8583368460CC}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{6FF38E61-B3E2-4F0A-90A3-D62057C9CAEA}" srcOrd="12" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A8B7ED5D-F524-4E84-BC93-3A4929A51CEC}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{1FA747E4-138F-465D-B3BA-21CF7D108E78}" srcOrd="13" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4A915734-90D0-4938-B080-08EE11737184}" type="presParOf" srcId="{1FA747E4-138F-465D-B3BA-21CF7D108E78}" destId="{3A06AA8A-F435-4DA1-A1A9-0B03FEE9E49A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DAED3E4E-7494-42A1-B849-C2C389A26A74}" type="presParOf" srcId="{3A06AA8A-F435-4DA1-A1A9-0B03FEE9E49A}" destId="{620D5145-C15D-4E2D-8449-BC224938536A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{41EB1508-A83F-4633-B0FB-027377944AE8}" type="presParOf" srcId="{3A06AA8A-F435-4DA1-A1A9-0B03FEE9E49A}" destId="{E5174C63-306D-4CB3-BE44-C639AB96C012}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3046873C-630A-418B-B7BC-B92A7C22038F}" type="presParOf" srcId="{1FA747E4-138F-465D-B3BA-21CF7D108E78}" destId="{660853D3-CA1A-4446-819B-7F2B542E2ECC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{80A05D5C-BB9F-4DFD-A182-449C459F7DAD}" type="presParOf" srcId="{1FA747E4-138F-465D-B3BA-21CF7D108E78}" destId="{2A3FED38-7322-466D-B283-D014DD75DC8F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{036EAC38-EC71-4831-99DC-9AAEA450659A}" type="presParOf" srcId="{F38E5F58-B211-41E0-8A39-487425ADB22D}" destId="{CE6DF0BD-55D5-424F-9A6B-9704DB21498F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4F7AA24C-DB51-4E0D-95FA-111576C3232F}" type="presParOf" srcId="{7F04DC46-0B54-4BB8-B414-D4F165A6E02F}" destId="{27586A14-6521-482B-9AE1-BDB0D4168ED1}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5CA3CFC3-2D30-4286-B281-C0BFF3BB8429}" type="presParOf" srcId="{7F04DC46-0B54-4BB8-B414-D4F165A6E02F}" destId="{A53A7EB4-D6B1-44DC-87BE-FBA6B8BE4030}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -3141,22 +3230,15 @@
     <dgm:cxn modelId="{4541E3B4-234B-4B35-8B86-6C847520D660}" type="presParOf" srcId="{06093229-FE8E-4CD9-915E-CCF1A1CE21F4}" destId="{94BC82E4-6E43-41F2-8FBA-143A7A763568}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{9707B734-7B45-49BE-B22C-1748990D3BE2}" type="presParOf" srcId="{8FEB9A00-20ED-4A8D-98F7-995E342CC645}" destId="{A572874A-D004-4C59-BE2A-FD4E06B5DB1F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{29E09941-2D6E-4651-89DE-E8F7BDB4E165}" type="presParOf" srcId="{8FEB9A00-20ED-4A8D-98F7-995E342CC645}" destId="{3466EEAA-15FB-4696-B6AE-7156693FA41D}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{39DCDC5D-65E6-4B8C-AB8D-14EBDD940963}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{C8F80373-23BF-450E-B33C-7F62AA87EB92}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3763BBC2-B565-4118-9A84-E07223D43338}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{E17647B4-93FD-48E1-A7F1-05BF63F10FC0}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{513A8B55-D935-4FBE-8741-F8676E258CA8}" type="presParOf" srcId="{E17647B4-93FD-48E1-A7F1-05BF63F10FC0}" destId="{DE7DA2D5-BB74-4E96-8E58-784A75DB5C9E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{94B8B2F5-EB79-43BB-A84A-17B3D87642B7}" type="presParOf" srcId="{DE7DA2D5-BB74-4E96-8E58-784A75DB5C9E}" destId="{74F91536-F38E-4896-98CB-F6A7F24B6561}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{135A6D6D-9A45-4AE7-9D11-F4C7660A9091}" type="presParOf" srcId="{DE7DA2D5-BB74-4E96-8E58-784A75DB5C9E}" destId="{BD33981F-AD42-4D06-82A7-A5BB0468E1C8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D106B7A7-C183-4B78-BCA2-A9E47BC11D51}" type="presParOf" srcId="{E17647B4-93FD-48E1-A7F1-05BF63F10FC0}" destId="{45650D5C-D9E1-4F03-8FB9-39FDF1684EC0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{64F611B6-8CA4-4CC5-8BF6-696FFBDCAB30}" type="presParOf" srcId="{E17647B4-93FD-48E1-A7F1-05BF63F10FC0}" destId="{6CD6AE38-E7B8-4016-B73C-FE311DAF636E}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{588B4DCD-F9F2-4421-BD56-5BA6C45AA6F7}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{539CD19F-B507-43F8-8B69-696757B8AEE1}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{666BBB93-FB75-475B-BBC2-F30BE527F46F}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{4D68A8A4-19C6-45AC-97BB-3E582B903251}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{588B4DCD-F9F2-4421-BD56-5BA6C45AA6F7}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{539CD19F-B507-43F8-8B69-696757B8AEE1}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{666BBB93-FB75-475B-BBC2-F30BE527F46F}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{4D68A8A4-19C6-45AC-97BB-3E582B903251}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{101DCA6B-C285-4FAC-8CFF-D6E16A061A17}" type="presParOf" srcId="{4D68A8A4-19C6-45AC-97BB-3E582B903251}" destId="{B62A0E69-9F8F-420F-B7BE-3DC69CDCAD1A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{ABB62E2B-FE5A-404C-9B06-C27FC3D477A4}" type="presParOf" srcId="{B62A0E69-9F8F-420F-B7BE-3DC69CDCAD1A}" destId="{D00A2B2B-163D-4C7F-874A-2B6FC6AD6098}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{8BF52FD1-F4BA-44F0-B915-72D0AA5BBCC7}" type="presParOf" srcId="{B62A0E69-9F8F-420F-B7BE-3DC69CDCAD1A}" destId="{DADA450E-2A00-4026-81FE-8FA18B9FE4A8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{9589119F-83CF-4C58-81AF-74A89149BD76}" type="presParOf" srcId="{4D68A8A4-19C6-45AC-97BB-3E582B903251}" destId="{2DCBAC3C-FCDE-41CF-8EC3-69BDE7661B0D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1E105451-EBF1-473A-A979-416167C34057}" type="presParOf" srcId="{4D68A8A4-19C6-45AC-97BB-3E582B903251}" destId="{4F5D5462-6C6E-446B-84A3-3758430C45C2}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{10E29AF7-62F7-4FB3-96F6-1E04CCCBA079}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{8E924C6E-6BEF-404C-A57E-3A3F1A179C9F}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{189CCBFB-3C3D-4365-A9B9-0EE92F047A4F}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{5B0864A9-4F63-45C8-AAFF-0D7514AF024D}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{10E29AF7-62F7-4FB3-96F6-1E04CCCBA079}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{8E924C6E-6BEF-404C-A57E-3A3F1A179C9F}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{189CCBFB-3C3D-4365-A9B9-0EE92F047A4F}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{5B0864A9-4F63-45C8-AAFF-0D7514AF024D}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{24A25497-6DC0-4F09-9728-6B7F755C5D64}" type="presParOf" srcId="{5B0864A9-4F63-45C8-AAFF-0D7514AF024D}" destId="{901845BB-EF47-4C48-BECA-B51F06DE723D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{8297B197-48F5-47C9-BDE5-B98EF7CB1E60}" type="presParOf" srcId="{901845BB-EF47-4C48-BECA-B51F06DE723D}" destId="{E390B133-2936-4014-B597-9BC47D24BE6B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D0FEDA7D-0B32-4902-AC2C-0D84AD0B2030}" type="presParOf" srcId="{901845BB-EF47-4C48-BECA-B51F06DE723D}" destId="{50B22FFD-9308-47D6-8900-FF832AF0B49C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -3211,8 +3293,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5298788" y="1135569"/>
-          <a:ext cx="101771" cy="793820"/>
+          <a:off x="5117302" y="1012976"/>
+          <a:ext cx="91440" cy="709996"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3223,13 +3305,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="793820"/>
+                <a:pt x="45720" y="709996"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="101771" y="793820"/>
+                <a:pt x="136745" y="709996"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3270,8 +3352,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5298788" y="1135569"/>
-          <a:ext cx="101771" cy="312100"/>
+          <a:off x="5117302" y="1012976"/>
+          <a:ext cx="91440" cy="279144"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3282,13 +3364,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="312100"/>
+                <a:pt x="45720" y="279144"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="101771" y="312100"/>
+                <a:pt x="136745" y="279144"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3329,8 +3411,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3928260" y="653849"/>
-          <a:ext cx="1641919" cy="142480"/>
+          <a:off x="3937216" y="582123"/>
+          <a:ext cx="1468540" cy="127435"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3344,13 +3426,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="71240"/>
+                <a:pt x="0" y="63717"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1641919" y="71240"/>
+                <a:pt x="1468540" y="63717"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1641919" y="142480"/>
+                <a:pt x="1468540" y="127435"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3391,8 +3473,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4477828" y="1135569"/>
-          <a:ext cx="101771" cy="2720702"/>
+          <a:off x="4383032" y="1012976"/>
+          <a:ext cx="91440" cy="2002555"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3403,13 +3485,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2720702"/>
+                <a:pt x="45720" y="2002555"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="101771" y="2720702"/>
+                <a:pt x="136745" y="2002555"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3450,8 +3532,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4477828" y="1135569"/>
-          <a:ext cx="101771" cy="2238981"/>
+          <a:off x="4383032" y="1012976"/>
+          <a:ext cx="91440" cy="1571702"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3462,13 +3544,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2238981"/>
+                <a:pt x="45720" y="1571702"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="101771" y="2238981"/>
+                <a:pt x="136745" y="1571702"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3502,15 +3584,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{C8F80373-23BF-450E-B33C-7F62AA87EB92}">
+    <dsp:sp modelId="{16D0A96D-5947-4316-979D-83BD4B809E68}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4477828" y="1135569"/>
-          <a:ext cx="101771" cy="1757261"/>
+          <a:off x="4383032" y="1012976"/>
+          <a:ext cx="91440" cy="1140849"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3521,13 +3603,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1757261"/>
+                <a:pt x="45720" y="1140849"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="101771" y="1757261"/>
+                <a:pt x="136745" y="1140849"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3561,15 +3643,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{16D0A96D-5947-4316-979D-83BD4B809E68}">
+    <dsp:sp modelId="{542905B1-C562-4D74-BC4D-F2A72C40D629}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4477828" y="1135569"/>
-          <a:ext cx="101771" cy="1275541"/>
+          <a:off x="4383032" y="1012976"/>
+          <a:ext cx="91440" cy="709996"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3580,13 +3662,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1275541"/>
+                <a:pt x="45720" y="709996"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="101771" y="1275541"/>
+                <a:pt x="136745" y="709996"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3620,15 +3702,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{542905B1-C562-4D74-BC4D-F2A72C40D629}">
+    <dsp:sp modelId="{FAD50408-6556-4404-9E09-756E82E115AD}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4477828" y="1135569"/>
-          <a:ext cx="101771" cy="793820"/>
+          <a:off x="4383032" y="1012976"/>
+          <a:ext cx="91440" cy="279144"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3639,13 +3721,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="793820"/>
+                <a:pt x="45720" y="279144"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="101771" y="793820"/>
+                <a:pt x="136745" y="279144"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3679,15 +3761,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{FAD50408-6556-4404-9E09-756E82E115AD}">
+    <dsp:sp modelId="{96F9CE1E-394E-41D0-B714-F956A27CCAFC}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4477828" y="1135569"/>
-          <a:ext cx="101771" cy="312100"/>
+          <a:off x="3937216" y="582123"/>
+          <a:ext cx="734270" cy="127435"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3701,10 +3783,72 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="312100"/>
+                <a:pt x="0" y="63717"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="101771" y="312100"/>
+                <a:pt x="734270" y="63717"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="734270" y="127435"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{CF3A6BED-DA23-45A5-927F-492BECB20BF1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3648762" y="1012976"/>
+          <a:ext cx="91440" cy="2002555"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="2002555"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="136745" y="2002555"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3738,15 +3882,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{96F9CE1E-394E-41D0-B714-F956A27CCAFC}">
+    <dsp:sp modelId="{947FD5DD-80C6-403D-A5CC-C2F7FE143852}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3928260" y="653849"/>
-          <a:ext cx="820959" cy="142480"/>
+          <a:off x="3648762" y="1012976"/>
+          <a:ext cx="91440" cy="1571702"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3757,16 +3901,246 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="71240"/>
+                <a:pt x="45720" y="1571702"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="820959" y="71240"/>
+                <a:pt x="136745" y="1571702"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{27166336-5F1D-490E-9AFE-183688D629EE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3648762" y="1012976"/>
+          <a:ext cx="91440" cy="1140849"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="1140849"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="820959" y="142480"/>
+                <a:pt x="136745" y="1140849"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{D5D24E6B-AC13-40E2-9BE5-422B65ED839C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3648762" y="1012976"/>
+          <a:ext cx="91440" cy="709996"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="709996"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="136745" y="709996"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{12739CD6-508A-4932-98E6-F8F497FDF41F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3648762" y="1012976"/>
+          <a:ext cx="91440" cy="279144"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="279144"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="136745" y="279144"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{27586A14-6521-482B-9AE1-BDB0D4168ED1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3891496" y="582123"/>
+          <a:ext cx="91440" cy="127435"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="127435"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3800,15 +4174,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{CF3A6BED-DA23-45A5-927F-492BECB20BF1}">
+    <dsp:sp modelId="{6FF38E61-B3E2-4F0A-90A3-D62057C9CAEA}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3656868" y="1135569"/>
-          <a:ext cx="101771" cy="2238981"/>
+          <a:off x="2914492" y="1012976"/>
+          <a:ext cx="91440" cy="2864260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3819,13 +4193,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2238981"/>
+                <a:pt x="45720" y="2864260"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="101771" y="2238981"/>
+                <a:pt x="136745" y="2864260"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3859,15 +4233,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{947FD5DD-80C6-403D-A5CC-C2F7FE143852}">
+    <dsp:sp modelId="{94290531-1910-468F-B0CE-97EF7D4A3A4B}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3656868" y="1135569"/>
-          <a:ext cx="101771" cy="1757261"/>
+          <a:off x="2914492" y="1012976"/>
+          <a:ext cx="91440" cy="1984371"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3878,13 +4252,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1757261"/>
+                <a:pt x="45720" y="1984371"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="101771" y="1757261"/>
+                <a:pt x="129936" y="1984371"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3918,15 +4292,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{27166336-5F1D-490E-9AFE-183688D629EE}">
+    <dsp:sp modelId="{DD07FEFD-0224-4DD6-9F63-1F11E2838841}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3656868" y="1135569"/>
-          <a:ext cx="101771" cy="1275541"/>
+          <a:off x="2914492" y="1012976"/>
+          <a:ext cx="91440" cy="2431180"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3937,13 +4311,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1275541"/>
+                <a:pt x="45720" y="2431180"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="101771" y="1275541"/>
+                <a:pt x="116331" y="2431180"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3977,15 +4351,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{D5D24E6B-AC13-40E2-9BE5-422B65ED839C}">
+    <dsp:sp modelId="{7BED290C-5CD7-473D-B4D3-B9A4CCC743D0}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3656868" y="1135569"/>
-          <a:ext cx="101771" cy="793820"/>
+          <a:off x="2914492" y="1012976"/>
+          <a:ext cx="91440" cy="1558093"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3996,13 +4370,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="793820"/>
+                <a:pt x="45720" y="1558093"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="101771" y="793820"/>
+                <a:pt x="136745" y="1558093"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4036,15 +4410,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{12739CD6-508A-4932-98E6-F8F497FDF41F}">
+    <dsp:sp modelId="{2B2B1C63-60F4-404A-AB64-159DDC253014}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3656868" y="1135569"/>
-          <a:ext cx="101771" cy="312100"/>
+          <a:off x="2914492" y="1012976"/>
+          <a:ext cx="91440" cy="1140849"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4055,13 +4429,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="312100"/>
+                <a:pt x="45720" y="1140849"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="101771" y="312100"/>
+                <a:pt x="136745" y="1140849"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4095,15 +4469,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{27586A14-6521-482B-9AE1-BDB0D4168ED1}">
+    <dsp:sp modelId="{8E272E94-DF17-4B6C-8BCE-6F9C71923A10}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3882540" y="653849"/>
-          <a:ext cx="91440" cy="142480"/>
+          <a:off x="2914492" y="1012976"/>
+          <a:ext cx="91440" cy="709996"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4117,7 +4491,131 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="142480"/>
+                <a:pt x="45720" y="709996"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="136745" y="709996"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{4E14FB1C-6B3D-4833-9719-A987CA720A07}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2914492" y="1012976"/>
+          <a:ext cx="91440" cy="279144"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="279144"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="136745" y="279144"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{20440F1C-A067-443E-8FD2-615CB4CF0B9B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3202945" y="582123"/>
+          <a:ext cx="734270" cy="127435"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="734270" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="734270" y="63717"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="63717"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="127435"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4151,15 +4649,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{C1331485-7350-4FFA-A66A-569F30D4A4D4}">
+    <dsp:sp modelId="{EDB32C9D-E321-48A5-B2D5-0133547C33E8}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2835908" y="1135569"/>
-          <a:ext cx="101771" cy="2720702"/>
+          <a:off x="2180221" y="1012976"/>
+          <a:ext cx="91440" cy="1571702"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4170,13 +4668,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2720702"/>
+                <a:pt x="45720" y="1571702"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="101771" y="2720702"/>
+                <a:pt x="136745" y="1571702"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4210,15 +4708,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{94290531-1910-468F-B0CE-97EF7D4A3A4B}">
+    <dsp:sp modelId="{6B0C47BA-4F2B-4405-9552-6E845A238B96}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2835908" y="1135569"/>
-          <a:ext cx="101771" cy="2238981"/>
+          <a:off x="2180221" y="1012976"/>
+          <a:ext cx="91440" cy="1140849"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4229,13 +4727,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2238981"/>
+                <a:pt x="45720" y="1140849"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="101771" y="2238981"/>
+                <a:pt x="136745" y="1140849"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4269,15 +4767,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{DD07FEFD-0224-4DD6-9F63-1F11E2838841}">
+    <dsp:sp modelId="{FDC01EBF-9D24-4E6F-AB9D-D3EEA705C0EA}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2835908" y="1135569"/>
-          <a:ext cx="101771" cy="1757261"/>
+          <a:off x="2180221" y="1012976"/>
+          <a:ext cx="91440" cy="709996"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4288,13 +4786,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1757261"/>
+                <a:pt x="45720" y="709996"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="101771" y="1757261"/>
+                <a:pt x="136745" y="709996"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4328,15 +4826,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{7BED290C-5CD7-473D-B4D3-B9A4CCC743D0}">
+    <dsp:sp modelId="{29A5CE68-9A17-4FB4-AE57-22705D981F5A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2835908" y="1135569"/>
-          <a:ext cx="101771" cy="1275541"/>
+          <a:off x="2180221" y="1012976"/>
+          <a:ext cx="91440" cy="279144"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4347,13 +4845,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1275541"/>
+                <a:pt x="45720" y="279144"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="101771" y="1275541"/>
+                <a:pt x="136745" y="279144"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4387,15 +4885,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{2B2B1C63-60F4-404A-AB64-159DDC253014}">
+    <dsp:sp modelId="{0FA5CDD9-5D59-4404-9A10-1CAB1922E2EB}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2835908" y="1135569"/>
-          <a:ext cx="101771" cy="793820"/>
+          <a:off x="2468675" y="582123"/>
+          <a:ext cx="1468540" cy="127435"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4406,134 +4904,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="1468540" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="793820"/>
+                <a:pt x="1468540" y="63717"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="101771" y="793820"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{4E14FB1C-6B3D-4833-9719-A987CA720A07}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2835908" y="1135569"/>
-          <a:ext cx="101771" cy="312100"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="312100"/>
+                <a:pt x="0" y="63717"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="101771" y="312100"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{20440F1C-A067-443E-8FD2-615CB4CF0B9B}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3107300" y="653849"/>
-          <a:ext cx="820959" cy="142480"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="820959" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="820959" y="71240"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="71240"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="142480"/>
+                <a:pt x="0" y="127435"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4567,245 +4947,6 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{EDB32C9D-E321-48A5-B2D5-0133547C33E8}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2014948" y="1135569"/>
-          <a:ext cx="101771" cy="1275541"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="1275541"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="101771" y="1275541"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{6B0C47BA-4F2B-4405-9552-6E845A238B96}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2014948" y="1135569"/>
-          <a:ext cx="101771" cy="793820"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="793820"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="101771" y="793820"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{FDC01EBF-9D24-4E6F-AB9D-D3EEA705C0EA}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2014948" y="1135569"/>
-          <a:ext cx="101771" cy="312100"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="312100"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="101771" y="312100"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{0FA5CDD9-5D59-4404-9A10-1CAB1922E2EB}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2286340" y="653849"/>
-          <a:ext cx="1641919" cy="142480"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="1641919" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1641919" y="71240"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="71240"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="142480"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
     <dsp:sp modelId="{E0E543A8-FEB8-4BD2-999A-4E4E8FBA257D}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
@@ -4813,8 +4954,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3474476" y="3523"/>
-          <a:ext cx="907567" cy="650325"/>
+          <a:off x="3531349" y="469"/>
+          <a:ext cx="811732" cy="581654"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4884,8 +5025,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3474476" y="3523"/>
-        <a:ext cx="907567" cy="650325"/>
+        <a:off x="3531349" y="469"/>
+        <a:ext cx="811732" cy="581654"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{29FC3390-B3AF-4AE1-A130-989C60AA96EE}">
@@ -4895,8 +5036,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1947100" y="796329"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="2165258" y="709558"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4962,19 +5103,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1947100" y="796329"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="2165258" y="709558"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{FB725D6A-3E91-4E22-833D-4F5634C72367}">
+    <dsp:sp modelId="{4D6CB506-1FAC-475E-A501-165D0169C82F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2116720" y="1278050"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="2316967" y="1140411"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5035,24 +5176,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>1.1 Assign Project Manager</a:t>
+            <a:t>Project Background and Overview</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2116720" y="1278050"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="2316967" y="1140411"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{5D4D05C5-677C-40D0-BE29-0A617215BED6}">
+    <dsp:sp modelId="{FB725D6A-3E91-4E22-833D-4F5634C72367}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2116720" y="1759770"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="2316967" y="1571264"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5113,24 +5254,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Develop Project Charter</a:t>
+            <a:t>Assign Project Manager</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2116720" y="1759770"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="2316967" y="1571264"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{2A7CC2BA-0FC9-4CD9-BB35-A0667BC55DAF}">
+    <dsp:sp modelId="{5D4D05C5-677C-40D0-BE29-0A617215BED6}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2116720" y="2241490"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="2316967" y="2002117"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5191,24 +5332,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Meet Stakeholders</a:t>
+            <a:t>Develop Project Charter</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2116720" y="2241490"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="2316967" y="2002117"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{8A4A1206-04E9-49D7-9D18-12789D041DC4}">
+    <dsp:sp modelId="{2A7CC2BA-0FC9-4CD9-BB35-A0667BC55DAF}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2768060" y="796329"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="2316967" y="2432969"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5269,24 +5410,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Planning</a:t>
+            <a:t>Meet Stakeholders</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2768060" y="796329"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="2316967" y="2432969"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{AB3090E0-E841-4C14-8AD8-7F9172C970AA}">
+    <dsp:sp modelId="{8A4A1206-04E9-49D7-9D18-12789D041DC4}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2937680" y="1278050"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="2899528" y="709558"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5347,24 +5488,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Collect Requirement</a:t>
+            <a:t>Planning</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2937680" y="1278050"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="2899528" y="709558"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{3CB0A418-7204-44C6-8304-90026C31C1B2}">
+    <dsp:sp modelId="{AB3090E0-E841-4C14-8AD8-7F9172C970AA}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2937680" y="1759770"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="3051237" y="1140411"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5425,24 +5566,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Establish Scope Plan</a:t>
+            <a:t>Collect Requirement</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2937680" y="1759770"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="3051237" y="1140411"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{FEE9DB09-07A6-4CD6-A2CA-FDE3E71DFBAD}">
+    <dsp:sp modelId="{C927A751-DF32-47D0-8B31-9E3DFC4C6030}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2937680" y="2241490"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="3051237" y="1571264"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5503,24 +5644,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Create WBS</a:t>
+            <a:t>Create Use Case Diagram</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2937680" y="2241490"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="3051237" y="1571264"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{4A68206F-0940-459D-AC3D-D850D9BC067B}">
+    <dsp:sp modelId="{3CB0A418-7204-44C6-8304-90026C31C1B2}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2937680" y="2723211"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="3051237" y="2002117"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5581,24 +5722,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Create Procurement Plan</a:t>
+            <a:t>Establish Scope Plan</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2937680" y="2723211"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="3051237" y="2002117"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{35466965-823D-4E6A-8DEE-89E5210F9072}">
+    <dsp:sp modelId="{FEE9DB09-07A6-4CD6-A2CA-FDE3E71DFBAD}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2937680" y="3204931"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="3051237" y="2419361"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5659,24 +5800,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Create Gantt Chart</a:t>
+            <a:t>Create WBS</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2937680" y="3204931"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="3051237" y="2419361"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{A4BC8AF7-9B53-4091-8065-BAEB087BCDE3}">
+    <dsp:sp modelId="{4A68206F-0940-459D-AC3D-D850D9BC067B}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2937680" y="3686651"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="3030823" y="3292448"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5736,26 +5877,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" b="0" i="0" kern="1200"/>
-            <a:t>Estimate Activity Resources &amp; Cost</a:t>
+            <a:rPr lang="en-ID" sz="700" kern="1200"/>
+            <a:t>Software Design &amp; System Components</a:t>
           </a:r>
-          <a:endParaRPr lang="en-ID" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2937680" y="3686651"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="3030823" y="3292448"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{825D09E6-8B11-4C46-8E59-3C5C9AFCEF58}">
+    <dsp:sp modelId="{35466965-823D-4E6A-8DEE-89E5210F9072}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3589020" y="796329"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="3044428" y="2845638"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5816,24 +5956,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Executing</a:t>
+            <a:t>Create Gantt Chart</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3589020" y="796329"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="3044428" y="2845638"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{8B1BA511-364D-4E6C-A362-1B7745DC4F3E}">
+    <dsp:sp modelId="{620D5145-C15D-4E2D-8449-BC224938536A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3758640" y="1278050"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="3051237" y="3725528"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5894,24 +6034,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Develop Front-End Interface</a:t>
+            <a:t>Design User Interface</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3758640" y="1278050"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="3051237" y="3725528"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{08BBE401-FFBE-4432-8F5B-6C1F8499C2B5}">
+    <dsp:sp modelId="{825D09E6-8B11-4C46-8E59-3C5C9AFCEF58}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3758640" y="1759770"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="3633798" y="709558"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5972,24 +6112,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Develop Back-End Systems</a:t>
+            <a:t>Executing</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3758640" y="1759770"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="3633798" y="709558"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{4CB8FC9C-4E8E-4531-830A-48D6E1BD85F9}">
+    <dsp:sp modelId="{8B1BA511-364D-4E6C-A362-1B7745DC4F3E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3758640" y="2241490"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="3785507" y="1140411"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6050,24 +6190,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Integrate Features</a:t>
+            <a:t>Develop Front-End Interface</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3758640" y="2241490"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="3785507" y="1140411"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{32F12FED-C7F7-492D-BBDD-57C948D21A9E}">
+    <dsp:sp modelId="{08BBE401-FFBE-4432-8F5B-6C1F8499C2B5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3758640" y="2723211"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="3785507" y="1571264"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6128,24 +6268,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Quality Assurance &amp; Testing</a:t>
+            <a:t>Develop Back-End Systems</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3758640" y="2723211"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="3785507" y="1571264"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{666C3FA4-73CF-416F-B185-D165FA22646F}">
+    <dsp:sp modelId="{4CB8FC9C-4E8E-4531-830A-48D6E1BD85F9}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3758640" y="3204931"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="3785507" y="2002117"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6206,24 +6346,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Deployment</a:t>
+            <a:t>Integrate Features</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3758640" y="3204931"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="3785507" y="2002117"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{94D8271F-3BE6-491D-B73E-6FD55E62D45A}">
+    <dsp:sp modelId="{32F12FED-C7F7-492D-BBDD-57C948D21A9E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4409980" y="796329"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="3785507" y="2432969"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6284,24 +6424,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Controlling</a:t>
+            <a:t>Quality Assurance &amp; Testing</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4409980" y="796329"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="3785507" y="2432969"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{E64D60CA-5F55-4C3C-9AD5-9C65DCECB7A3}">
+    <dsp:sp modelId="{666C3FA4-73CF-416F-B185-D165FA22646F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4579600" y="1278050"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="3785507" y="2863822"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6362,24 +6502,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Monitor Project Work</a:t>
+            <a:t>Deployment</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4579600" y="1278050"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="3785507" y="2863822"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{E457BD99-B1A3-407D-8063-040D15DC5ECB}">
+    <dsp:sp modelId="{94D8271F-3BE6-491D-B73E-6FD55E62D45A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4579600" y="1759770"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="4368068" y="709558"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6440,24 +6580,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Control Scope</a:t>
+            <a:t>Controlling</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4579600" y="1759770"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="4368068" y="709558"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{22606EB7-9099-43D6-9995-CC5321CFD6B7}">
+    <dsp:sp modelId="{E64D60CA-5F55-4C3C-9AD5-9C65DCECB7A3}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4579600" y="2241490"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="4519777" y="1140411"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6518,24 +6658,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Control Schedule</a:t>
+            <a:t>Monitor Project Work</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4579600" y="2241490"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="4519777" y="1140411"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{74F91536-F38E-4896-98CB-F6A7F24B6561}">
+    <dsp:sp modelId="{E457BD99-B1A3-407D-8063-040D15DC5ECB}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4579600" y="2723211"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="4519777" y="1571264"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6596,24 +6736,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Control Costs &amp; Resources</a:t>
+            <a:t>Control Scope</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4579600" y="2723211"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="4519777" y="1571264"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{D00A2B2B-163D-4C7F-874A-2B6FC6AD6098}">
+    <dsp:sp modelId="{22606EB7-9099-43D6-9995-CC5321CFD6B7}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4579600" y="3204931"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="4519777" y="2002117"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6674,24 +6814,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Perform Quality Control</a:t>
+            <a:t>Control Schedule</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4579600" y="3204931"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="4519777" y="2002117"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{E390B133-2936-4014-B597-9BC47D24BE6B}">
+    <dsp:sp modelId="{D00A2B2B-163D-4C7F-874A-2B6FC6AD6098}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4579600" y="3686651"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="4519777" y="2432969"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6752,24 +6892,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Report Performance</a:t>
+            <a:t>Perform Quality Control</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4579600" y="3686651"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="4519777" y="2432969"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{7B47C914-72BE-4F62-9C2E-12CF21A8E83A}">
+    <dsp:sp modelId="{E390B133-2936-4014-B597-9BC47D24BE6B}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5230940" y="796329"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="4519777" y="2863822"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6830,24 +6970,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Closing</a:t>
+            <a:t>Report Performance</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5230940" y="796329"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="4519777" y="2863822"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{7966E939-933F-4975-B334-EFA0AE682776}">
+    <dsp:sp modelId="{7B47C914-72BE-4F62-9C2E-12CF21A8E83A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5400560" y="1278050"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="5102339" y="709558"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6908,24 +7048,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Final Performance Review</a:t>
+            <a:t>Closing</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5400560" y="1278050"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="5102339" y="709558"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{7A787200-72FA-4966-BEF2-D11DA95DBBB6}">
+    <dsp:sp modelId="{7966E939-933F-4975-B334-EFA0AE682776}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5400560" y="1759770"/>
-          <a:ext cx="678479" cy="339239"/>
+          <a:off x="5254047" y="1140411"/>
+          <a:ext cx="606834" cy="303417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6986,13 +7126,91 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-ID" sz="700" kern="1200"/>
+            <a:t>Final Performance Review</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5254047" y="1140411"/>
+        <a:ext cx="606834" cy="303417"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7A787200-72FA-4966-BEF2-D11DA95DBBB6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5254047" y="1571264"/>
+          <a:ext cx="606834" cy="303417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ID" sz="700" kern="1200"/>
             <a:t>Prepare Final Report</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5400560" y="1759770"/>
-        <a:ext cx="678479" cy="339239"/>
+        <a:off x="5254047" y="1571264"/>
+        <a:ext cx="606834" cy="303417"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -9540,7 +9758,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="J7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9551,6 +9769,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="21400ba5-685a-48c4-895c-a27dedc9db3c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100149FDDA404FAE944B31A62E42A562C84" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="81fe082e2433a9a51aa57b96e7a2afa3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21400ba5-685a-48c4-895c-a27dedc9db3c" xmlns:ns4="1f660e74-1a44-432a-b6ea-bfbbe6fd0038" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e1de082579a0a19740dc17d2c1132e7" ns3:_="" ns4:_="">
     <xsd:import namespace="21400ba5-685a-48c4-895c-a27dedc9db3c"/>
@@ -9783,24 +10018,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{454A69D0-7146-4855-B50C-71FFD3E9F18D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1f660e74-1a44-432a-b6ea-bfbbe6fd0038"/>
+    <ds:schemaRef ds:uri="21400ba5-685a-48c4-895c-a27dedc9db3c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="21400ba5-685a-48c4-895c-a27dedc9db3c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E91F3B9A-ABD1-4F5C-BEDB-82740C406842}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D761F52-4E9E-4E96-AB52-BE1C7DBAA12A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9819,31 +10062,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E91F3B9A-ABD1-4F5C-BEDB-82740C406842}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{454A69D0-7146-4855-B50C-71FFD3E9F18D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1f660e74-1a44-432a-b6ea-bfbbe6fd0038"/>
-    <ds:schemaRef ds:uri="21400ba5-685a-48c4-895c-a27dedc9db3c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{c9f92db8-2851-4df9-9d12-fab52f5b1415}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" removed="0"/>

--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Desktop\Griffith Class\Software Technologies\Milestone1_Group44\Milestone1_Group44\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B98604-15F5-4F9E-96AE-A2B44D56A1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04BCB27-75F4-428B-B084-C8ADA2D6C0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1405363C-FCC9-496C-9EF9-6C492E575822}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1405363C-FCC9-496C-9EF9-6C492E575822}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -859,7 +859,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Dietary Metrics App Project</a:t>
+            <a:t>NutriMate App Project</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1075,7 +1075,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-ID"/>
-            <a:t>Assign Project Manager</a:t>
+            <a:t>Define Project Objectives</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1111,7 +1111,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-ID"/>
-            <a:t>Develop Project Charter</a:t>
+            <a:t>Identify Project Stakeholders</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1147,7 +1147,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-ID"/>
-            <a:t>Meet Stakeholders</a:t>
+            <a:t>Define Project Scope</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1175,42 +1175,6 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{59F323DE-3CDB-4E04-BEE0-E11126C13760}">
-      <dgm:prSet phldrT="[Text]"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-ID"/>
-            <a:t>Establish Scope Plan</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{E8B381F9-82E4-4BA1-BF98-549C47F1C41B}" type="parTrans" cxnId="{FBABDC8E-81A9-4798-A8DD-902859E3CF2D}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-ID"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{86CD0E14-D9A9-492B-A9D6-1B1C79FDEA64}" type="sibTrans" cxnId="{FBABDC8E-81A9-4798-A8DD-902859E3CF2D}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-ID"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}">
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr/>
       <dgm:t>
@@ -1224,6 +1188,42 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
+    <dgm:pt modelId="{E8B381F9-82E4-4BA1-BF98-549C47F1C41B}" type="parTrans" cxnId="{FBABDC8E-81A9-4798-A8DD-902859E3CF2D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{86CD0E14-D9A9-492B-A9D6-1B1C79FDEA64}" type="sibTrans" cxnId="{FBABDC8E-81A9-4798-A8DD-902859E3CF2D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID"/>
+            <a:t>System Capabilities and Overview</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
     <dgm:pt modelId="{56ADA179-3797-4DBD-9B08-F0A70020A727}" type="parTrans" cxnId="{FE22027B-5EFD-4743-9130-E1E16DD6E461}">
       <dgm:prSet/>
       <dgm:spPr/>
@@ -1255,7 +1255,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-ID"/>
-            <a:t>Collect Requirement</a:t>
+            <a:t>Develop Work Breakdown Structure</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1272,42 +1272,6 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{2727F710-0C6A-478D-93EA-43C9A99DA13D}" type="sibTrans" cxnId="{2C18CB1C-2313-4F7F-A2FA-16B3441DB4FC}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-ID"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{B7D0B726-8476-4698-BDB3-E17485501444}">
-      <dgm:prSet phldrT="[Text]"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-ID"/>
-            <a:t>Create WBS</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{BEE45820-0658-4EB4-859A-B4BAB6B3D358}" type="parTrans" cxnId="{FAC59C04-0A36-4B2E-B2CC-BCD5D9340137}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-ID"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{07520EE3-E8BD-4EE4-A652-0D0E305349FD}" type="sibTrans" cxnId="{FAC59C04-0A36-4B2E-B2CC-BCD5D9340137}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1723,7 +1687,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-ID"/>
-            <a:t>Deployment</a:t>
+            <a:t>Testing &amp; Deployment</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1759,7 +1723,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-ID"/>
-            <a:t>Software Design &amp; System Components</a:t>
+            <a:t>Problem Background</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1795,7 +1759,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-ID"/>
-            <a:t>Design User Interface</a:t>
+            <a:t>Software Design</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1867,12 +1831,264 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-ID"/>
+            <a:t>Define Activity and Estimation</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0675CFBD-CF16-4380-BB62-E10A10D67E14}" type="parTrans" cxnId="{82987FEE-913C-4527-B48C-04A6317740CF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{31E6D290-4ECE-4DE3-9113-C03B35B8EB68}" type="sibTrans" cxnId="{82987FEE-913C-4527-B48C-04A6317740CF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2AAF25AC-50F5-4A0B-954D-5DF1EE1DF5FC}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID"/>
+            <a:t>Project Planning</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{ADF0B4CA-231C-4024-90F9-6D9E2ECA10D0}" type="parTrans" cxnId="{E0105BC1-FFCD-49FD-9D59-731B2B868846}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{31821B95-6F4C-4D26-84A4-565F3BDF8A41}" type="sibTrans" cxnId="{E0105BC1-FFCD-49FD-9D59-731B2B868846}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9A480F3E-5EC8-4AA4-9475-87D22A7478DB}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID"/>
+            <a:t>System Design Planning</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{92E1F4FF-B563-4838-BD96-20CEB82ED3E9}" type="parTrans" cxnId="{3431A5BB-51F5-43A5-B5D8-BE2904D03A72}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2FA63F5D-0745-4E9D-BD68-9945C3C58E54}" type="sibTrans" cxnId="{3431A5BB-51F5-43A5-B5D8-BE2904D03A72}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C537ECE3-ECBA-458F-BEC2-81A4AE454A8E}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID"/>
+            <a:t>Develop System Design Document (SDD)</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E81863FC-20A4-4CF8-A256-6695A2A38C77}" type="parTrans" cxnId="{38E4E096-220B-440B-8703-4F1D05E07516}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CA1F7962-50D2-45B6-B1DF-B61FABB10269}" type="sibTrans" cxnId="{38E4E096-220B-440B-8703-4F1D05E07516}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5139A921-CAC8-4136-AAD2-4FCF18C0624D}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID"/>
+            <a:t>Benefit Analysis</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F2B39B56-3807-4BA8-88B8-E89E27C8BF76}" type="parTrans" cxnId="{39E32016-52D7-441F-8458-7A132EF4105F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FB26DCDF-3B2C-435B-840F-E98D72B67AA2}" type="sibTrans" cxnId="{39E32016-52D7-441F-8458-7A132EF4105F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{126ACA6C-F94F-4220-A823-BA69E5AEE957}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID"/>
+            <a:t>User Requirement</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8B563EB0-83FF-47C8-9D4F-3921DF2DC349}" type="parTrans" cxnId="{6A77E567-A67C-49FD-8DC5-0B7321DAC8AB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AC245CE5-69CF-46B3-8D61-336437BFD74D}" type="sibTrans" cxnId="{6A77E567-A67C-49FD-8DC5-0B7321DAC8AB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E427178B-A81D-4FF3-9F31-672B8A3A5314}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID"/>
+            <a:t>Software Requirement</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9B373D65-4951-4806-A0FD-D82ED4E0CC54}" type="parTrans" cxnId="{AD6B9322-BC55-482D-A030-A2D1B2C4E42B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1532F219-FEA4-4C36-ADF5-4041534972BA}" type="sibTrans" cxnId="{AD6B9322-BC55-482D-A030-A2D1B2C4E42B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C99666F4-5BFD-460C-BA05-2DFA6F8D03F0}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID"/>
             <a:t>Create Use Case Diagram</a:t>
           </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{0675CFBD-CF16-4380-BB62-E10A10D67E14}" type="parTrans" cxnId="{82987FEE-913C-4527-B48C-04A6317740CF}">
+    <dgm:pt modelId="{03768822-717F-4475-80E2-A09BFAB948A0}" type="parTrans" cxnId="{950AFC27-82AD-4C26-9200-D1C8C039CC56}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1883,7 +2099,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{31E6D290-4ECE-4DE3-9113-C03B35B8EB68}" type="sibTrans" cxnId="{82987FEE-913C-4527-B48C-04A6317740CF}">
+    <dgm:pt modelId="{80C71C68-7D19-46E3-9A3F-1310BCEF9147}" type="sibTrans" cxnId="{950AFC27-82AD-4C26-9200-D1C8C039CC56}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1893,6 +2109,244 @@
           <a:endParaRPr lang="en-ID"/>
         </a:p>
       </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C0C35A4E-C1F4-4F1E-AB94-2A5311561975}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID"/>
+            <a:t>Create Flowchart</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7689A440-A126-4B98-A5C8-F3E32A88619E}" type="parTrans" cxnId="{AD200548-5FEF-4764-8C37-71D4D0385537}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D4D81015-C232-4E3C-9CB8-9A68CCDEBDBE}" type="sibTrans" cxnId="{AD200548-5FEF-4764-8C37-71D4D0385537}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D7DCD192-8FFD-4D8E-85CE-37643FF04371}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID"/>
+            <a:t>Define Functions</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{251B99DC-68BF-4535-8872-0988B0D590E8}" type="parTrans" cxnId="{B4D3133B-1411-46FA-A7F1-B392C8986DB3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{68391988-4A64-4080-9375-25B9E1915C1A}" type="sibTrans" cxnId="{B4D3133B-1411-46FA-A7F1-B392C8986DB3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9CCF6B7D-251F-4828-816A-F1567CB3E7F6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID"/>
+            <a:t>Define Data Structure / Data Sources</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{760FCA46-A6DF-421F-87D1-ADFE62A093E1}" type="parTrans" cxnId="{F5D2C490-0F30-41C4-BE67-E886476F3B83}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DBE4F669-82BB-4BE0-95A8-0667A641C4E8}" type="sibTrans" cxnId="{F5D2C490-0F30-41C4-BE67-E886476F3B83}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{81C86F21-F172-4278-AE39-BA8EDEC926CB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID"/>
+            <a:t>Detailed Design</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3C8883BB-5063-46DD-ABA5-43682449A99D}" type="parTrans" cxnId="{FE747EF3-D625-46C6-91EA-1FECCF614744}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{13BCABB5-88E4-4D42-9B3C-640C3388C67F}" type="sibTrans" cxnId="{FE747EF3-D625-46C6-91EA-1FECCF614744}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3DB7FB21-67E3-46BC-80E3-B6BF208A7AE6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID"/>
+            <a:t>Structural Design</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D9C5BC92-B67C-4617-8C64-B5553F47FB47}" type="parTrans" cxnId="{87C647F9-FC0F-46B3-A465-84D12026C255}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3BFB0FA2-B672-4FC7-BE15-BEACF15BA432}" type="sibTrans" cxnId="{87C647F9-FC0F-46B3-A465-84D12026C255}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{827B92E6-4F37-4761-B09E-1C82A79FF748}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID"/>
+            <a:t>Visual Design</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C31644ED-4946-482F-864F-EAE845B31A9D}" type="parTrans" cxnId="{5BA20782-81FB-40FD-A833-CA69D148B6ED}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7A1BD86E-5282-49A5-A03E-5B7AF826E9D0}" type="sibTrans" cxnId="{5BA20782-81FB-40FD-A833-CA69D148B6ED}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ID"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{68518888-C1E3-4D79-9361-1CA74F77A8BC}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID"/>
+            <a:t>Software Development and Implementation</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D89FC85F-DF22-4F54-ADC8-AF394CAE7BB5}" type="parTrans" cxnId="{8C540EB7-8EA9-4982-9396-9FC38D4F91D0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{351C111F-936D-4CB5-8C69-3FF991CA6A24}" type="sibTrans" cxnId="{8C540EB7-8EA9-4982-9396-9FC38D4F91D0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BF2F1A77-FE8F-4DFC-B5E0-6697A231424C}" type="pres">
       <dgm:prSet presAssocID="{199696F9-A481-47E8-97D7-231969864596}" presName="hierChild1" presStyleCnt="0">
@@ -1952,7 +2406,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{29FC3390-B3AF-4AE1-A130-989C60AA96EE}" type="pres">
-      <dgm:prSet presAssocID="{15ED58BC-EAB0-452C-AF65-18D994EC87CE}" presName="rootText" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="5">
+      <dgm:prSet presAssocID="{15ED58BC-EAB0-452C-AF65-18D994EC87CE}" presName="rootText" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="5" custLinFactNeighborX="-67104">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1968,7 +2422,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{29A5CE68-9A17-4FB4-AE57-22705D981F5A}" type="pres">
-      <dgm:prSet presAssocID="{B21A2E2E-DD0D-4008-8CF7-17AD9071DF0E}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{B21A2E2E-DD0D-4008-8CF7-17AD9071DF0E}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7FDD5ADA-615F-455D-9817-65ADB17EB7F1}" type="pres">
@@ -1984,7 +2438,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4D6CB506-1FAC-475E-A501-165D0169C82F}" type="pres">
-      <dgm:prSet presAssocID="{DEE449F7-DEAE-4DE2-9438-2B263BAF9764}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="23">
+      <dgm:prSet presAssocID="{DEE449F7-DEAE-4DE2-9438-2B263BAF9764}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="15" custLinFactNeighborX="-67104">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1992,7 +2446,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F949FE92-C53D-4769-9544-0EC98302E37D}" type="pres">
-      <dgm:prSet presAssocID="{DEE449F7-DEAE-4DE2-9438-2B263BAF9764}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{DEE449F7-DEAE-4DE2-9438-2B263BAF9764}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A14A4D48-63E3-4803-A81B-B66491B18A23}" type="pres">
@@ -2004,7 +2458,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FDC01EBF-9D24-4E6F-AB9D-D3EEA705C0EA}" type="pres">
-      <dgm:prSet presAssocID="{8B40A1A7-B8E2-4749-ACF5-4CED71C4CE31}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{8B40A1A7-B8E2-4749-ACF5-4CED71C4CE31}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F022BA0C-5715-4FEA-BC56-F7C12AAD4153}" type="pres">
@@ -2020,7 +2474,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FB725D6A-3E91-4E22-833D-4F5634C72367}" type="pres">
-      <dgm:prSet presAssocID="{82D0E1FB-CD3B-4841-ABF0-12355EA98061}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="23">
+      <dgm:prSet presAssocID="{82D0E1FB-CD3B-4841-ABF0-12355EA98061}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="15" custLinFactNeighborX="-67104">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2028,7 +2482,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FCCB3ADE-BFA3-47AF-9028-BEF9B89CE4FD}" type="pres">
-      <dgm:prSet presAssocID="{82D0E1FB-CD3B-4841-ABF0-12355EA98061}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{82D0E1FB-CD3B-4841-ABF0-12355EA98061}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7E3F3A4F-955D-49D7-B3A1-F4677F49493E}" type="pres">
@@ -2040,7 +2494,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6B0C47BA-4F2B-4405-9552-6E845A238B96}" type="pres">
-      <dgm:prSet presAssocID="{765B54D9-2C89-416E-AD2B-D9B1FD23EF9A}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{765B54D9-2C89-416E-AD2B-D9B1FD23EF9A}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DC9A51B8-0D30-46BB-92CB-2E14ED7BAC14}" type="pres">
@@ -2056,7 +2510,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5D4D05C5-677C-40D0-BE29-0A617215BED6}" type="pres">
-      <dgm:prSet presAssocID="{67FB556B-FE07-4831-967D-26BB62516C4F}" presName="rootText" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="23">
+      <dgm:prSet presAssocID="{67FB556B-FE07-4831-967D-26BB62516C4F}" presName="rootText" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="15" custLinFactNeighborX="-67104">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2064,7 +2518,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9B91036A-72A1-4BF0-A934-A061127853C8}" type="pres">
-      <dgm:prSet presAssocID="{67FB556B-FE07-4831-967D-26BB62516C4F}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{67FB556B-FE07-4831-967D-26BB62516C4F}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E0B8748B-C327-428F-B924-839D6D3E20C4}" type="pres">
@@ -2076,7 +2530,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{EDB32C9D-E321-48A5-B2D5-0133547C33E8}" type="pres">
-      <dgm:prSet presAssocID="{BA85E40E-D685-47EA-81AF-21AF26AF269D}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{BA85E40E-D685-47EA-81AF-21AF26AF269D}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{31487D7C-BE86-471D-94AA-B044B7336604}" type="pres">
@@ -2092,7 +2546,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2A7CC2BA-0FC9-4CD9-BB35-A0667BC55DAF}" type="pres">
-      <dgm:prSet presAssocID="{707A3F11-402B-43F2-BE75-F7AF559AFB0B}" presName="rootText" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="23">
+      <dgm:prSet presAssocID="{707A3F11-402B-43F2-BE75-F7AF559AFB0B}" presName="rootText" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="15" custLinFactNeighborX="-67104">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2100,7 +2554,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E770F2F7-0978-4E65-A42C-7BAF1246157C}" type="pres">
-      <dgm:prSet presAssocID="{707A3F11-402B-43F2-BE75-F7AF559AFB0B}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{707A3F11-402B-43F2-BE75-F7AF559AFB0B}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9BF2CD85-D248-4A43-B177-8DBB5631AD73}" type="pres">
@@ -2147,8 +2601,40 @@
       <dgm:prSet presAssocID="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{72EF4293-06E2-4408-B42B-18EE7288EFCB}" type="pres">
+      <dgm:prSet presAssocID="{ADF0B4CA-231C-4024-90F9-6D9E2ECA10D0}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="15"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F098AC6B-FBE7-4689-8E9F-CCCC6A5A3B58}" type="pres">
+      <dgm:prSet presAssocID="{2AAF25AC-50F5-4A0B-954D-5DF1EE1DF5FC}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3421FDC4-EA90-4BFC-BFD6-74B769CE3317}" type="pres">
+      <dgm:prSet presAssocID="{2AAF25AC-50F5-4A0B-954D-5DF1EE1DF5FC}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{52A54182-1557-4757-9198-4093866FA4B5}" type="pres">
+      <dgm:prSet presAssocID="{2AAF25AC-50F5-4A0B-954D-5DF1EE1DF5FC}" presName="rootText" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="15" custLinFactNeighborX="-67104">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AFF65883-788C-4D94-8959-3E12018561A1}" type="pres">
+      <dgm:prSet presAssocID="{2AAF25AC-50F5-4A0B-954D-5DF1EE1DF5FC}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="15"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{43742F07-2254-473D-89CA-BA75D893F803}" type="pres">
+      <dgm:prSet presAssocID="{2AAF25AC-50F5-4A0B-954D-5DF1EE1DF5FC}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{4E14FB1C-6B3D-4833-9719-A987CA720A07}" type="pres">
-      <dgm:prSet presAssocID="{A744AF3E-56A1-4E25-9719-1B24D905F4CA}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{A744AF3E-56A1-4E25-9719-1B24D905F4CA}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F376B89F-7D44-4CA0-8073-7F5EBE5FC98E}" type="pres">
@@ -2164,7 +2650,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{AB3090E0-E841-4C14-8AD8-7F9172C970AA}" type="pres">
-      <dgm:prSet presAssocID="{218BEFF9-0CB1-4562-87AE-045B65703BEB}" presName="rootText" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="23">
+      <dgm:prSet presAssocID="{218BEFF9-0CB1-4562-87AE-045B65703BEB}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="21" custLinFactNeighborX="-67104" custLinFactNeighborY="1473">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2172,7 +2658,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F329B41D-22CD-4343-B47A-9A688206E247}" type="pres">
-      <dgm:prSet presAssocID="{218BEFF9-0CB1-4562-87AE-045B65703BEB}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{218BEFF9-0CB1-4562-87AE-045B65703BEB}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BDD2624E-E33B-4AF8-ACDA-137CC4B3DA4B}" type="pres">
@@ -2184,7 +2670,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8E272E94-DF17-4B6C-8BCE-6F9C71923A10}" type="pres">
-      <dgm:prSet presAssocID="{0675CFBD-CF16-4380-BB62-E10A10D67E14}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{0675CFBD-CF16-4380-BB62-E10A10D67E14}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DE79F432-D502-4698-8127-47D638EA363C}" type="pres">
@@ -2200,7 +2686,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C927A751-DF32-47D0-8B31-9E3DFC4C6030}" type="pres">
-      <dgm:prSet presAssocID="{B95E29F4-05A1-4062-9F04-83EA59720DD5}" presName="rootText" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="23">
+      <dgm:prSet presAssocID="{B95E29F4-05A1-4062-9F04-83EA59720DD5}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="21" custLinFactNeighborX="-67104" custLinFactNeighborY="1473">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2208,7 +2694,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D9417BE7-7CC8-4D8B-BAB1-FE318D2EC86F}" type="pres">
-      <dgm:prSet presAssocID="{B95E29F4-05A1-4062-9F04-83EA59720DD5}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{B95E29F4-05A1-4062-9F04-83EA59720DD5}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CADCF956-9740-4CEE-AB99-F593C7DBF72C}" type="pres">
@@ -2220,7 +2706,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2B2B1C63-60F4-404A-AB64-159DDC253014}" type="pres">
-      <dgm:prSet presAssocID="{E8B381F9-82E4-4BA1-BF98-549C47F1C41B}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{E8B381F9-82E4-4BA1-BF98-549C47F1C41B}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{EE1AADD1-75CE-4938-B4BF-474D980585BB}" type="pres">
@@ -2236,7 +2722,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3CB0A418-7204-44C6-8304-90026C31C1B2}" type="pres">
-      <dgm:prSet presAssocID="{59F323DE-3CDB-4E04-BEE0-E11126C13760}" presName="rootText" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="23">
+      <dgm:prSet presAssocID="{59F323DE-3CDB-4E04-BEE0-E11126C13760}" presName="rootText" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="21" custLinFactNeighborX="-67104" custLinFactNeighborY="1473">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2244,7 +2730,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F1EBA6BB-C3FE-479D-A63D-A1D2C29A0DCC}" type="pres">
-      <dgm:prSet presAssocID="{59F323DE-3CDB-4E04-BEE0-E11126C13760}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{59F323DE-3CDB-4E04-BEE0-E11126C13760}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{862AB73F-0E78-441B-935D-80BFE3C9CF21}" type="pres">
@@ -2255,44 +2741,76 @@
       <dgm:prSet presAssocID="{59F323DE-3CDB-4E04-BEE0-E11126C13760}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{7BED290C-5CD7-473D-B4D3-B9A4CCC743D0}" type="pres">
-      <dgm:prSet presAssocID="{BEE45820-0658-4EB4-859A-B4BAB6B3D358}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="23"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{DDAF6DFE-953C-4E90-823D-060355D21504}" type="pres">
-      <dgm:prSet presAssocID="{B7D0B726-8476-4698-BDB3-E17485501444}" presName="hierRoot2" presStyleCnt="0">
+    <dgm:pt modelId="{D0490120-0AA0-436F-B49C-1BF5A9736370}" type="pres">
+      <dgm:prSet presAssocID="{2AAF25AC-50F5-4A0B-954D-5DF1EE1DF5FC}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CEA40C88-76A1-44DE-8F6E-784CDB58EB00}" type="pres">
+      <dgm:prSet presAssocID="{92E1F4FF-B563-4838-BD96-20CEB82ED3E9}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="15"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F4D99B21-1CFB-4790-B81D-4D258D48BEE1}" type="pres">
+      <dgm:prSet presAssocID="{9A480F3E-5EC8-4AA4-9475-87D22A7478DB}" presName="hierRoot2" presStyleCnt="0">
         <dgm:presLayoutVars>
           <dgm:hierBranch val="init"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{931B644F-3086-4E99-9614-A808C5E17C67}" type="pres">
-      <dgm:prSet presAssocID="{B7D0B726-8476-4698-BDB3-E17485501444}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{FEE9DB09-07A6-4CD6-A2CA-FDE3E71DFBAD}" type="pres">
-      <dgm:prSet presAssocID="{B7D0B726-8476-4698-BDB3-E17485501444}" presName="rootText" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="23" custLinFactNeighborY="-4485">
+    <dgm:pt modelId="{2CAAAE91-D35D-4C2B-B94E-1B9C230A60D7}" type="pres">
+      <dgm:prSet presAssocID="{9A480F3E-5EC8-4AA4-9475-87D22A7478DB}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FC7EEA8C-069E-49FB-A599-F4D87BE587FC}" type="pres">
+      <dgm:prSet presAssocID="{9A480F3E-5EC8-4AA4-9475-87D22A7478DB}" presName="rootText" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="15" custLinFactNeighborX="-39584">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{5968C7B2-359C-4F60-9B07-30F151F0C20A}" type="pres">
-      <dgm:prSet presAssocID="{B7D0B726-8476-4698-BDB3-E17485501444}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="23"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{3C4C364D-6C0C-457B-9916-9D3648408D04}" type="pres">
-      <dgm:prSet presAssocID="{B7D0B726-8476-4698-BDB3-E17485501444}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{B5C3A50A-B424-4023-8416-C4F22547A053}" type="pres">
-      <dgm:prSet presAssocID="{B7D0B726-8476-4698-BDB3-E17485501444}" presName="hierChild5" presStyleCnt="0"/>
+    <dgm:pt modelId="{776F2418-A328-4FFB-B2A6-03E70BE4A26B}" type="pres">
+      <dgm:prSet presAssocID="{9A480F3E-5EC8-4AA4-9475-87D22A7478DB}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="15"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7CA2FF91-B135-4702-A142-5691E3B81A5B}" type="pres">
+      <dgm:prSet presAssocID="{9A480F3E-5EC8-4AA4-9475-87D22A7478DB}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{866DB733-E76A-4E4F-9592-F11CC31276D9}" type="pres">
+      <dgm:prSet presAssocID="{E81863FC-20A4-4CF8-A256-6695A2A38C77}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9BF62960-689A-4F04-A91C-27FC0F696D42}" type="pres">
+      <dgm:prSet presAssocID="{C537ECE3-ECBA-458F-BEC2-81A4AE454A8E}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4D3B691D-6E70-4CB5-B986-C51D03A0805C}" type="pres">
+      <dgm:prSet presAssocID="{C537ECE3-ECBA-458F-BEC2-81A4AE454A8E}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{566D694E-5418-4E16-9BA7-47823AAB65D0}" type="pres">
+      <dgm:prSet presAssocID="{C537ECE3-ECBA-458F-BEC2-81A4AE454A8E}" presName="rootText" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="21" custLinFactNeighborX="-54522">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F6A6CFC5-8A1D-40A9-97C0-AF7A1030771B}" type="pres">
+      <dgm:prSet presAssocID="{C537ECE3-ECBA-458F-BEC2-81A4AE454A8E}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9C90BF51-BF84-44BF-A1F5-86E583205BCA}" type="pres">
+      <dgm:prSet presAssocID="{C537ECE3-ECBA-458F-BEC2-81A4AE454A8E}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DD07FEFD-0224-4DD6-9F63-1F11E2838841}" type="pres">
-      <dgm:prSet presAssocID="{32054C3E-D430-41A6-8E60-2B2E95A64CE3}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{32054C3E-D430-41A6-8E60-2B2E95A64CE3}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{53411DBB-0C9F-4C59-880F-5FD2CA8D5FA8}" type="pres">
@@ -2308,7 +2826,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4A68206F-0940-459D-AC3D-D850D9BC067B}" type="pres">
-      <dgm:prSet presAssocID="{D7F2D407-40E2-45EE-8220-E0770131F78C}" presName="rootText" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="23" custLinFactY="41266" custLinFactNeighborX="-3364" custLinFactNeighborY="100000">
+      <dgm:prSet presAssocID="{D7F2D407-40E2-45EE-8220-E0770131F78C}" presName="rootText" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="21" custLinFactY="100000" custLinFactNeighborX="-50012" custLinFactNeighborY="186157">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2316,7 +2834,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8CF05AD2-8753-40BE-9143-9C258AE5ACBF}" type="pres">
-      <dgm:prSet presAssocID="{D7F2D407-40E2-45EE-8220-E0770131F78C}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{D7F2D407-40E2-45EE-8220-E0770131F78C}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1F72E7B2-76A3-4C99-B7E8-A5A9CD20B378}" type="pres">
@@ -2328,7 +2846,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{94290531-1910-468F-B0CE-97EF7D4A3A4B}" type="pres">
-      <dgm:prSet presAssocID="{56ADA179-3797-4DBD-9B08-F0A70020A727}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{56ADA179-3797-4DBD-9B08-F0A70020A727}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F2AD44E0-622F-4F4B-B6ED-B5C1D485E799}" type="pres">
@@ -2344,7 +2862,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{35466965-823D-4E6A-8DEE-89E5210F9072}" type="pres">
-      <dgm:prSet presAssocID="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}" presName="rootText" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="23" custLinFactY="-47993" custLinFactNeighborX="-1122" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}" presName="rootText" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="21" custLinFactY="-44008" custLinFactNeighborX="-50399" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2352,7 +2870,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1BC3A466-ACC6-45DC-8A4C-1F6374D44F54}" type="pres">
-      <dgm:prSet presAssocID="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{59467145-FE1C-48D9-9700-E9990CE5102A}" type="pres">
@@ -2363,8 +2881,156 @@
       <dgm:prSet presAssocID="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{6DA43952-88B6-48AF-810E-E7CBDE37902F}" type="pres">
+      <dgm:prSet presAssocID="{F2B39B56-3807-4BA8-88B8-E89E27C8BF76}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C36B3312-3C96-4455-B9D5-46D3DA8E25B1}" type="pres">
+      <dgm:prSet presAssocID="{5139A921-CAC8-4136-AAD2-4FCF18C0624D}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CC662A19-8F43-4DC4-8342-35A2E6210586}" type="pres">
+      <dgm:prSet presAssocID="{5139A921-CAC8-4136-AAD2-4FCF18C0624D}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1F3594B8-7664-4F15-ACC9-C93095FC8575}" type="pres">
+      <dgm:prSet presAssocID="{5139A921-CAC8-4136-AAD2-4FCF18C0624D}" presName="rootText" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="21" custLinFactY="-48629" custLinFactNeighborX="-50480" custLinFactNeighborY="-100000">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DE4ECF28-7D34-4080-A01A-3BB6A8D43DA7}" type="pres">
+      <dgm:prSet presAssocID="{5139A921-CAC8-4136-AAD2-4FCF18C0624D}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E4BCA7DB-E0E2-46FC-A4E4-EB69B98E249A}" type="pres">
+      <dgm:prSet presAssocID="{5139A921-CAC8-4136-AAD2-4FCF18C0624D}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{943D8E79-8759-40EF-8158-F6F195CFC29F}" type="pres">
+      <dgm:prSet presAssocID="{5139A921-CAC8-4136-AAD2-4FCF18C0624D}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4426836E-20BC-4096-ABAA-4663E865D64B}" type="pres">
+      <dgm:prSet presAssocID="{8B563EB0-83FF-47C8-9D4F-3921DF2DC349}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{00ED8C12-CC87-457F-8A84-4E844575EBC1}" type="pres">
+      <dgm:prSet presAssocID="{126ACA6C-F94F-4220-A823-BA69E5AEE957}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{976EBB56-7F80-4E25-86D2-DA8B7ABB8BD6}" type="pres">
+      <dgm:prSet presAssocID="{126ACA6C-F94F-4220-A823-BA69E5AEE957}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{63FEBFA0-B1AC-4BEC-97DB-33536B4F3778}" type="pres">
+      <dgm:prSet presAssocID="{126ACA6C-F94F-4220-A823-BA69E5AEE957}" presName="rootText" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="21" custLinFactNeighborX="-46648" custLinFactNeighborY="5298">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2783D103-A96C-4CB3-A745-4F157277AF32}" type="pres">
+      <dgm:prSet presAssocID="{126ACA6C-F94F-4220-A823-BA69E5AEE957}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{39845698-4CDF-43A5-AAA8-67017AFCAE44}" type="pres">
+      <dgm:prSet presAssocID="{126ACA6C-F94F-4220-A823-BA69E5AEE957}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5845068E-A8A8-4E21-ABC0-4949C8FEBEFF}" type="pres">
+      <dgm:prSet presAssocID="{126ACA6C-F94F-4220-A823-BA69E5AEE957}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{97B41E4C-91A0-468B-9A03-7B61FCEC2AF3}" type="pres">
+      <dgm:prSet presAssocID="{9B373D65-4951-4806-A0FD-D82ED4E0CC54}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{829D2712-1626-444F-B2D1-04A7D547FE3F}" type="pres">
+      <dgm:prSet presAssocID="{E427178B-A81D-4FF3-9F31-672B8A3A5314}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F17565BA-4AC8-4581-A5F3-F63C30182BA5}" type="pres">
+      <dgm:prSet presAssocID="{E427178B-A81D-4FF3-9F31-672B8A3A5314}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{28AFEDF9-2CBD-41AB-89BD-2AEE38B82614}" type="pres">
+      <dgm:prSet presAssocID="{E427178B-A81D-4FF3-9F31-672B8A3A5314}" presName="rootText" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="21" custLinFactNeighborX="-46648" custLinFactNeighborY="5298">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F0BE861A-FA85-4F12-9ACC-72B5091A1B53}" type="pres">
+      <dgm:prSet presAssocID="{E427178B-A81D-4FF3-9F31-672B8A3A5314}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F50C9D63-503D-4E71-8110-CE7EAB312446}" type="pres">
+      <dgm:prSet presAssocID="{E427178B-A81D-4FF3-9F31-672B8A3A5314}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{25E59793-3A2B-4066-9978-477BF91344A6}" type="pres">
+      <dgm:prSet presAssocID="{E427178B-A81D-4FF3-9F31-672B8A3A5314}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BD74E65F-F5A0-4B70-B537-2AF16190D43C}" type="pres">
+      <dgm:prSet presAssocID="{03768822-717F-4475-80E2-A09BFAB948A0}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7FD43E7E-AC33-4911-BC03-A13BDF66AC1D}" type="pres">
+      <dgm:prSet presAssocID="{C99666F4-5BFD-460C-BA05-2DFA6F8D03F0}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{743C3B42-F5DD-4F28-A698-F761E9E07282}" type="pres">
+      <dgm:prSet presAssocID="{C99666F4-5BFD-460C-BA05-2DFA6F8D03F0}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D409A906-B74A-4CE0-92A7-609E826FCFDC}" type="pres">
+      <dgm:prSet presAssocID="{C99666F4-5BFD-460C-BA05-2DFA6F8D03F0}" presName="rootText" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="21" custLinFactNeighborX="-46648" custLinFactNeighborY="-2580">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{63693E52-359A-4347-9440-4C024B81E5CF}" type="pres">
+      <dgm:prSet presAssocID="{C99666F4-5BFD-460C-BA05-2DFA6F8D03F0}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{21DF3E9E-C2E2-43D6-839C-61F81AF0F229}" type="pres">
+      <dgm:prSet presAssocID="{C99666F4-5BFD-460C-BA05-2DFA6F8D03F0}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5974D681-52B3-4BB2-AE01-AD4FAD4A0DD0}" type="pres">
+      <dgm:prSet presAssocID="{C99666F4-5BFD-460C-BA05-2DFA6F8D03F0}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FD453BCD-7CE5-4A27-AA0C-B78D8C505C6F}" type="pres">
+      <dgm:prSet presAssocID="{C537ECE3-ECBA-458F-BEC2-81A4AE454A8E}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{6FF38E61-B3E2-4F0A-90A3-D62057C9CAEA}" type="pres">
-      <dgm:prSet presAssocID="{51AC16F0-DA20-4DC3-84AE-32BE3B1DF6CB}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="10" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{51AC16F0-DA20-4DC3-84AE-32BE3B1DF6CB}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1FA747E4-138F-465D-B3BA-21CF7D108E78}" type="pres">
@@ -2380,7 +3046,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{620D5145-C15D-4E2D-8449-BC224938536A}" type="pres">
-      <dgm:prSet presAssocID="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" presName="rootText" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="23">
+      <dgm:prSet presAssocID="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" presName="rootText" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="21" custLinFactNeighborX="-18375" custLinFactNeighborY="-719">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2388,26 +3054,246 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E5174C63-306D-4CB3-BE44-C639AB96C012}" type="pres">
-      <dgm:prSet presAssocID="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{660853D3-CA1A-4446-819B-7F2B542E2ECC}" type="pres">
       <dgm:prSet presAssocID="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{2AE78620-5BC6-4A2B-8220-A18D57CF0F6A}" type="pres">
+      <dgm:prSet presAssocID="{7689A440-A126-4B98-A5C8-F3E32A88619E}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{32907997-8032-4741-98AD-D26340111ADE}" type="pres">
+      <dgm:prSet presAssocID="{C0C35A4E-C1F4-4F1E-AB94-2A5311561975}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{93534421-0E47-4215-B44D-6B2575E4FED9}" type="pres">
+      <dgm:prSet presAssocID="{C0C35A4E-C1F4-4F1E-AB94-2A5311561975}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F98A015D-2E6E-4691-AD0A-E4E15BB913F5}" type="pres">
+      <dgm:prSet presAssocID="{C0C35A4E-C1F4-4F1E-AB94-2A5311561975}" presName="rootText" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="21" custLinFactNeighborX="-13245" custLinFactNeighborY="-1766">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4F972914-B8F9-4EE2-A22D-8DEA92924F7F}" type="pres">
+      <dgm:prSet presAssocID="{C0C35A4E-C1F4-4F1E-AB94-2A5311561975}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6629BC3A-8619-4129-8FFD-E6EA19664D98}" type="pres">
+      <dgm:prSet presAssocID="{C0C35A4E-C1F4-4F1E-AB94-2A5311561975}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CA87F808-07A2-44D6-9567-3A9A0F8D6963}" type="pres">
+      <dgm:prSet presAssocID="{C0C35A4E-C1F4-4F1E-AB94-2A5311561975}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{729FB431-C1EC-4104-9514-2F88BF228808}" type="pres">
+      <dgm:prSet presAssocID="{251B99DC-68BF-4535-8872-0988B0D590E8}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B1F1A7DF-5EE1-4890-AC74-EE79B00F54F8}" type="pres">
+      <dgm:prSet presAssocID="{D7DCD192-8FFD-4D8E-85CE-37643FF04371}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EE63D761-3D7C-4577-A8CC-2FEE5BEDC2A7}" type="pres">
+      <dgm:prSet presAssocID="{D7DCD192-8FFD-4D8E-85CE-37643FF04371}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D400B591-6471-4822-B3DB-C7243FB1546C}" type="pres">
+      <dgm:prSet presAssocID="{D7DCD192-8FFD-4D8E-85CE-37643FF04371}" presName="rootText" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="21" custLinFactNeighborX="-13245" custLinFactNeighborY="-1766">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FB67A2F1-76CA-4B9A-93FF-A0259BF12773}" type="pres">
+      <dgm:prSet presAssocID="{D7DCD192-8FFD-4D8E-85CE-37643FF04371}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CDEFFEE8-74B4-4874-B3C4-0CD005A48A14}" type="pres">
+      <dgm:prSet presAssocID="{D7DCD192-8FFD-4D8E-85CE-37643FF04371}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2386BE57-83B6-4EAD-8B81-061E59032936}" type="pres">
+      <dgm:prSet presAssocID="{D7DCD192-8FFD-4D8E-85CE-37643FF04371}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F9A75840-6F61-4518-A08A-A6C3C1A0056C}" type="pres">
+      <dgm:prSet presAssocID="{760FCA46-A6DF-421F-87D1-ADFE62A093E1}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7C496C3E-E873-4349-A760-2F8986A285B6}" type="pres">
+      <dgm:prSet presAssocID="{9CCF6B7D-251F-4828-816A-F1567CB3E7F6}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4DB5E644-71F7-48EA-B2EE-7070C23E4A7D}" type="pres">
+      <dgm:prSet presAssocID="{9CCF6B7D-251F-4828-816A-F1567CB3E7F6}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1066A10C-7FD6-4999-9FFD-796C1B0999A3}" type="pres">
+      <dgm:prSet presAssocID="{9CCF6B7D-251F-4828-816A-F1567CB3E7F6}" presName="rootText" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="21" custLinFactNeighborX="-13245" custLinFactNeighborY="-1766">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{924C4054-9E9C-4C29-88B7-4BD4C5A58BD0}" type="pres">
+      <dgm:prSet presAssocID="{9CCF6B7D-251F-4828-816A-F1567CB3E7F6}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E37E7814-6C55-4706-8896-49282A36771D}" type="pres">
+      <dgm:prSet presAssocID="{9CCF6B7D-251F-4828-816A-F1567CB3E7F6}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{93EF7F1C-372F-4EA3-9A71-E414F71DBF57}" type="pres">
+      <dgm:prSet presAssocID="{9CCF6B7D-251F-4828-816A-F1567CB3E7F6}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{200D2F73-DD79-4DF0-8C60-FC667BBFD8AF}" type="pres">
+      <dgm:prSet presAssocID="{3C8883BB-5063-46DD-ABA5-43682449A99D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A428C29C-8AB0-495E-A8D7-54A1DD43CC71}" type="pres">
+      <dgm:prSet presAssocID="{81C86F21-F172-4278-AE39-BA8EDEC926CB}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BC6FE32A-8ACC-4B89-8402-F4765E4B0B5C}" type="pres">
+      <dgm:prSet presAssocID="{81C86F21-F172-4278-AE39-BA8EDEC926CB}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A2890600-11C4-445D-BC3D-C20D92B96A25}" type="pres">
+      <dgm:prSet presAssocID="{81C86F21-F172-4278-AE39-BA8EDEC926CB}" presName="rootText" presStyleLbl="node4" presStyleIdx="14" presStyleCnt="21" custLinFactNeighborX="-13245" custLinFactNeighborY="-1766">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FD7A41DE-0184-44D2-B2FD-0BFDBC59A384}" type="pres">
+      <dgm:prSet presAssocID="{81C86F21-F172-4278-AE39-BA8EDEC926CB}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="14" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AA98ABB7-7B44-4BD1-BA55-DE7C27581F5E}" type="pres">
+      <dgm:prSet presAssocID="{81C86F21-F172-4278-AE39-BA8EDEC926CB}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CC2EC6C0-B8AB-4629-A47E-3DF048F41668}" type="pres">
+      <dgm:prSet presAssocID="{81C86F21-F172-4278-AE39-BA8EDEC926CB}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C8E0982C-0A26-4757-BED7-F73090520D23}" type="pres">
+      <dgm:prSet presAssocID="{D9C5BC92-B67C-4617-8C64-B5553F47FB47}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{894971A4-95AF-492D-A42B-4F9AE2F6F031}" type="pres">
+      <dgm:prSet presAssocID="{3DB7FB21-67E3-46BC-80E3-B6BF208A7AE6}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{995CC593-E887-47AA-B43E-3F5E26C81361}" type="pres">
+      <dgm:prSet presAssocID="{3DB7FB21-67E3-46BC-80E3-B6BF208A7AE6}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{74998690-FBCE-4B33-A71B-1FAD4E33867A}" type="pres">
+      <dgm:prSet presAssocID="{3DB7FB21-67E3-46BC-80E3-B6BF208A7AE6}" presName="rootText" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="21" custLinFactNeighborX="-13245" custLinFactNeighborY="-1766">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A2D3262F-80BD-4BCA-BC20-F8A39D4288A3}" type="pres">
+      <dgm:prSet presAssocID="{3DB7FB21-67E3-46BC-80E3-B6BF208A7AE6}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{51033678-E625-4AC6-8197-6A90CCE3D9F0}" type="pres">
+      <dgm:prSet presAssocID="{3DB7FB21-67E3-46BC-80E3-B6BF208A7AE6}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3AD1E221-732B-4C8D-967D-12DA8F841C14}" type="pres">
+      <dgm:prSet presAssocID="{3DB7FB21-67E3-46BC-80E3-B6BF208A7AE6}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{427A2331-B94C-4B0B-82B5-B6C2480C85C7}" type="pres">
+      <dgm:prSet presAssocID="{C31644ED-4946-482F-864F-EAE845B31A9D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="16" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B7437546-0812-48F7-A707-5D3CB90FC71D}" type="pres">
+      <dgm:prSet presAssocID="{827B92E6-4F37-4761-B09E-1C82A79FF748}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{449278B4-8B3D-4394-8922-7D1D5B6C70AD}" type="pres">
+      <dgm:prSet presAssocID="{827B92E6-4F37-4761-B09E-1C82A79FF748}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B30FF4B7-5E7E-4923-9575-57AD7E4EF46E}" type="pres">
+      <dgm:prSet presAssocID="{827B92E6-4F37-4761-B09E-1C82A79FF748}" presName="rootText" presStyleLbl="node4" presStyleIdx="16" presStyleCnt="21" custLinFactNeighborX="-13245" custLinFactNeighborY="-1766">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{943722B4-1306-4FC6-A337-40D0F13D0B4E}" type="pres">
+      <dgm:prSet presAssocID="{827B92E6-4F37-4761-B09E-1C82A79FF748}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="16" presStyleCnt="21"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9FF743B2-CDD4-48A0-985A-D05BB6B5AAF3}" type="pres">
+      <dgm:prSet presAssocID="{827B92E6-4F37-4761-B09E-1C82A79FF748}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E0C00A47-5C50-4269-B311-A75BC285728E}" type="pres">
+      <dgm:prSet presAssocID="{827B92E6-4F37-4761-B09E-1C82A79FF748}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{2A3FED38-7322-466D-B283-D014DD75DC8F}" type="pres">
       <dgm:prSet presAssocID="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{29C81AC7-AA6B-4DDE-9EFA-77596CD252D8}" type="pres">
+      <dgm:prSet presAssocID="{9A480F3E-5EC8-4AA4-9475-87D22A7478DB}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{CE6DF0BD-55D5-424F-9A6B-9704DB21498F}" type="pres">
       <dgm:prSet presAssocID="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{27586A14-6521-482B-9AE1-BDB0D4168ED1}" type="pres">
+    <dgm:pt modelId="{EB19449F-7B18-4773-A67B-B0247C8D04B5}" type="pres">
       <dgm:prSet presAssocID="{9C0F506E-355C-4303-ACA6-5601A3D75C9E}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="5"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{A53A7EB4-D6B1-44DC-87BE-FBA6B8BE4030}" type="pres">
+    <dgm:pt modelId="{36F5FA0F-8878-4EF4-9319-859614006231}" type="pres">
       <dgm:prSet presAssocID="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" presName="hierRoot2" presStyleCnt="0">
         <dgm:presLayoutVars>
           <dgm:hierBranch val="init"/>
@@ -2415,28 +3301,60 @@
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{51F863C3-FC22-4E84-9B36-A822536FCF52}" type="pres">
+    <dgm:pt modelId="{CA68DAC6-D4B6-4010-A535-B0468E2247E1}" type="pres">
       <dgm:prSet presAssocID="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{825D09E6-8B11-4C46-8E59-3C5C9AFCEF58}" type="pres">
-      <dgm:prSet presAssocID="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" presName="rootText" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="5">
+    <dgm:pt modelId="{1CE6E7D6-2A83-4C01-A9CD-672A0460654E}" type="pres">
+      <dgm:prSet presAssocID="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" presName="rootText" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="5" custLinFactNeighborX="3732">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{5F420B1B-E127-4BD0-9CDF-6D62F35B52B1}" type="pres">
+    <dgm:pt modelId="{07FCE7E0-4FF0-4A2A-947F-6D3E585184D5}" type="pres">
       <dgm:prSet presAssocID="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="5"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{A598236B-5B77-478F-944C-105543BCE269}" type="pres">
+    <dgm:pt modelId="{4DDF7B5E-CFC1-434E-81A6-58623B6A5E32}" type="pres">
       <dgm:prSet presAssocID="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{14BBBBFF-E420-48B5-B54E-752DDA56D31F}" type="pres">
+      <dgm:prSet presAssocID="{D89FC85F-DF22-4F54-ADC8-AF394CAE7BB5}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="15"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F8C42685-6C5F-4AC9-8AC9-C7282AB9D503}" type="pres">
+      <dgm:prSet presAssocID="{68518888-C1E3-4D79-9361-1CA74F77A8BC}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F7807827-5AA8-4EFE-967A-209160D8F749}" type="pres">
+      <dgm:prSet presAssocID="{68518888-C1E3-4D79-9361-1CA74F77A8BC}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2996539B-C8CA-43F1-B4B8-E3B752A31A52}" type="pres">
+      <dgm:prSet presAssocID="{68518888-C1E3-4D79-9361-1CA74F77A8BC}" presName="rootText" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="15">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2F55A733-92E1-4BC0-B18D-F76400EED0D5}" type="pres">
+      <dgm:prSet presAssocID="{68518888-C1E3-4D79-9361-1CA74F77A8BC}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="15"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4B2FFB6B-C23D-433D-BA02-1029F85E3864}" type="pres">
+      <dgm:prSet presAssocID="{68518888-C1E3-4D79-9361-1CA74F77A8BC}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{12739CD6-508A-4932-98E6-F8F497FDF41F}" type="pres">
-      <dgm:prSet presAssocID="{6340EEB0-4083-4786-A333-40A13E1FFD3F}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="11" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{6340EEB0-4083-4786-A333-40A13E1FFD3F}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="17" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3A7FE035-F106-4CFA-87F2-6EFA45356F70}" type="pres">
@@ -2452,7 +3370,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8B1BA511-364D-4E6C-A362-1B7745DC4F3E}" type="pres">
-      <dgm:prSet presAssocID="{0E232663-3D1B-4AA7-ADC6-363BDD7A8678}" presName="rootText" presStyleLbl="node3" presStyleIdx="11" presStyleCnt="23">
+      <dgm:prSet presAssocID="{0E232663-3D1B-4AA7-ADC6-363BDD7A8678}" presName="rootText" presStyleLbl="node4" presStyleIdx="17" presStyleCnt="21">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2460,7 +3378,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4947493B-5DC5-401D-A622-E5DF6467E3A2}" type="pres">
-      <dgm:prSet presAssocID="{0E232663-3D1B-4AA7-ADC6-363BDD7A8678}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="11" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{0E232663-3D1B-4AA7-ADC6-363BDD7A8678}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="17" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9C62A280-F340-4778-A527-C6BD69F0F028}" type="pres">
@@ -2472,7 +3390,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D5D24E6B-AC13-40E2-9BE5-422B65ED839C}" type="pres">
-      <dgm:prSet presAssocID="{33F0195F-C936-46DB-B379-21EA376BAF58}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="12" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{33F0195F-C936-46DB-B379-21EA376BAF58}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="18" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{048A4C55-76F4-4253-860D-344FF4112822}" type="pres">
@@ -2488,7 +3406,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{08BBE401-FFBE-4432-8F5B-6C1F8499C2B5}" type="pres">
-      <dgm:prSet presAssocID="{8ADEFEEA-973C-4DC7-9477-98F23BB04400}" presName="rootText" presStyleLbl="node3" presStyleIdx="12" presStyleCnt="23">
+      <dgm:prSet presAssocID="{8ADEFEEA-973C-4DC7-9477-98F23BB04400}" presName="rootText" presStyleLbl="node4" presStyleIdx="18" presStyleCnt="21">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2496,7 +3414,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CF7D5BCC-EEBE-4280-978D-DC8A2ACE9BB4}" type="pres">
-      <dgm:prSet presAssocID="{8ADEFEEA-973C-4DC7-9477-98F23BB04400}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="12" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{8ADEFEEA-973C-4DC7-9477-98F23BB04400}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="18" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{847EAC92-4E15-47A7-871A-699CCCDA4D76}" type="pres">
@@ -2508,7 +3426,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{27166336-5F1D-490E-9AFE-183688D629EE}" type="pres">
-      <dgm:prSet presAssocID="{3835BA4F-DB97-4738-BF19-05CFF41CF6A2}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="13" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{3835BA4F-DB97-4738-BF19-05CFF41CF6A2}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="19" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7019D908-511C-4F10-9B0B-F37697490352}" type="pres">
@@ -2524,7 +3442,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4CB8FC9C-4E8E-4531-830A-48D6E1BD85F9}" type="pres">
-      <dgm:prSet presAssocID="{8D4B80DF-DDB7-455F-B9CB-3DFD2E1D87F2}" presName="rootText" presStyleLbl="node3" presStyleIdx="13" presStyleCnt="23">
+      <dgm:prSet presAssocID="{8D4B80DF-DDB7-455F-B9CB-3DFD2E1D87F2}" presName="rootText" presStyleLbl="node4" presStyleIdx="19" presStyleCnt="21">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2532,7 +3450,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{EA6709F0-2E38-43CF-B1F1-3C352234C2FA}" type="pres">
-      <dgm:prSet presAssocID="{8D4B80DF-DDB7-455F-B9CB-3DFD2E1D87F2}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="13" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{8D4B80DF-DDB7-455F-B9CB-3DFD2E1D87F2}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="19" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F5A5B608-56B6-40F2-B317-25BC666BF7E6}" type="pres">
@@ -2544,7 +3462,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{947FD5DD-80C6-403D-A5CC-C2F7FE143852}" type="pres">
-      <dgm:prSet presAssocID="{1222E797-51BC-4808-9803-C4DBEF4523B6}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="14" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{1222E797-51BC-4808-9803-C4DBEF4523B6}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="20" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2FA9F37D-4962-4901-A158-B2A9F1465181}" type="pres">
@@ -2560,7 +3478,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{32F12FED-C7F7-492D-BBDD-57C948D21A9E}" type="pres">
-      <dgm:prSet presAssocID="{41944FC7-2FB2-4EE5-9322-AC58D1EC4677}" presName="rootText" presStyleLbl="node3" presStyleIdx="14" presStyleCnt="23">
+      <dgm:prSet presAssocID="{41944FC7-2FB2-4EE5-9322-AC58D1EC4677}" presName="rootText" presStyleLbl="node4" presStyleIdx="20" presStyleCnt="21">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2568,7 +3486,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{788E2445-8325-487F-859D-B967A8595816}" type="pres">
-      <dgm:prSet presAssocID="{41944FC7-2FB2-4EE5-9322-AC58D1EC4677}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="14" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{41944FC7-2FB2-4EE5-9322-AC58D1EC4677}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="20" presStyleCnt="21"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6AA164E5-C16E-4E46-9E2C-5EF96FE3CA4F}" type="pres">
@@ -2579,8 +3497,12 @@
       <dgm:prSet presAssocID="{41944FC7-2FB2-4EE5-9322-AC58D1EC4677}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{B559EB28-6A19-4115-B461-60AD44493A20}" type="pres">
+      <dgm:prSet presAssocID="{68518888-C1E3-4D79-9361-1CA74F77A8BC}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{CF3A6BED-DA23-45A5-927F-492BECB20BF1}" type="pres">
-      <dgm:prSet presAssocID="{0F40B954-4C30-4177-B91D-0CC9093705A9}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="15" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{0F40B954-4C30-4177-B91D-0CC9093705A9}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E7213548-A30A-47B8-88A6-BDE68066D809}" type="pres">
@@ -2596,7 +3518,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{666C3FA4-73CF-416F-B185-D165FA22646F}" type="pres">
-      <dgm:prSet presAssocID="{0CC0EB63-A5B9-4D54-B346-B718C9C87FD8}" presName="rootText" presStyleLbl="node3" presStyleIdx="15" presStyleCnt="23">
+      <dgm:prSet presAssocID="{0CC0EB63-A5B9-4D54-B346-B718C9C87FD8}" presName="rootText" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="15">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2604,7 +3526,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5514013A-36AA-49CD-AD13-9FE9DA0855FC}" type="pres">
-      <dgm:prSet presAssocID="{0CC0EB63-A5B9-4D54-B346-B718C9C87FD8}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="15" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{0CC0EB63-A5B9-4D54-B346-B718C9C87FD8}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BD44EC62-B39A-4989-B1E3-8E47C4D87BF5}" type="pres">
@@ -2615,7 +3537,7 @@
       <dgm:prSet presAssocID="{0CC0EB63-A5B9-4D54-B346-B718C9C87FD8}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{BE9660A3-4BC9-4AEE-A208-6230CB30BBA7}" type="pres">
+    <dgm:pt modelId="{4C167D7B-9A7F-4C79-BC31-1526A15CB213}" type="pres">
       <dgm:prSet presAssocID="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
@@ -2636,7 +3558,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{94D8271F-3BE6-491D-B73E-6FD55E62D45A}" type="pres">
-      <dgm:prSet presAssocID="{A338E343-038D-40A8-9999-C1A96567CC29}" presName="rootText" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="5">
+      <dgm:prSet presAssocID="{A338E343-038D-40A8-9999-C1A96567CC29}" presName="rootText" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="5" custLinFactX="58610" custLinFactNeighborX="100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2652,7 +3574,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FAD50408-6556-4404-9E09-756E82E115AD}" type="pres">
-      <dgm:prSet presAssocID="{CF47C41B-AC30-419A-AC9A-03668F0F1406}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="16" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{CF47C41B-AC30-419A-AC9A-03668F0F1406}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D236872F-FC1C-4DA5-A86F-D72F968ECD90}" type="pres">
@@ -2668,7 +3590,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E64D60CA-5F55-4C3C-9AD5-9C65DCECB7A3}" type="pres">
-      <dgm:prSet presAssocID="{F9044475-2B89-43C0-A6D8-749AC7CEDDD4}" presName="rootText" presStyleLbl="node3" presStyleIdx="16" presStyleCnt="23">
+      <dgm:prSet presAssocID="{F9044475-2B89-43C0-A6D8-749AC7CEDDD4}" presName="rootText" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="15" custLinFactX="100000" custLinFactNeighborX="101528">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2676,7 +3598,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5E2E63A2-EB8E-4A65-8622-D5F89D86327D}" type="pres">
-      <dgm:prSet presAssocID="{F9044475-2B89-43C0-A6D8-749AC7CEDDD4}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="16" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{F9044475-2B89-43C0-A6D8-749AC7CEDDD4}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D801FAC7-3BF6-4D1A-B5CB-FF0DC78AFF2C}" type="pres">
@@ -2688,7 +3610,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{542905B1-C562-4D74-BC4D-F2A72C40D629}" type="pres">
-      <dgm:prSet presAssocID="{6EBD9637-6ED8-42BF-B143-E509665EB61A}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="17" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{6EBD9637-6ED8-42BF-B143-E509665EB61A}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7A03229D-14AB-45ED-876B-69C710AEAA5C}" type="pres">
@@ -2704,7 +3626,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E457BD99-B1A3-407D-8063-040D15DC5ECB}" type="pres">
-      <dgm:prSet presAssocID="{4A11099B-D1FC-437A-A08B-551ED3CED2D5}" presName="rootText" presStyleLbl="node3" presStyleIdx="17" presStyleCnt="23">
+      <dgm:prSet presAssocID="{4A11099B-D1FC-437A-A08B-551ED3CED2D5}" presName="rootText" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="15" custLinFactX="100000" custLinFactNeighborX="101528" custLinFactNeighborY="-3732">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2712,7 +3634,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A6293774-94F6-4610-A233-F0625B454A8D}" type="pres">
-      <dgm:prSet presAssocID="{4A11099B-D1FC-437A-A08B-551ED3CED2D5}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="17" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{4A11099B-D1FC-437A-A08B-551ED3CED2D5}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{128C37E3-57DE-4BC8-AD90-2FF104A9AB7D}" type="pres">
@@ -2724,7 +3646,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{16D0A96D-5947-4316-979D-83BD4B809E68}" type="pres">
-      <dgm:prSet presAssocID="{E9C94A81-E7B0-4A8A-A6F9-D68DA57DA3D0}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="18" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{E9C94A81-E7B0-4A8A-A6F9-D68DA57DA3D0}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="10" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8FEB9A00-20ED-4A8D-98F7-995E342CC645}" type="pres">
@@ -2740,7 +3662,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{22606EB7-9099-43D6-9995-CC5321CFD6B7}" type="pres">
-      <dgm:prSet presAssocID="{430B3B83-587C-4071-8700-3B45B20F5A7C}" presName="rootText" presStyleLbl="node3" presStyleIdx="18" presStyleCnt="23">
+      <dgm:prSet presAssocID="{430B3B83-587C-4071-8700-3B45B20F5A7C}" presName="rootText" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="15" custLinFactX="100000" custLinFactNeighborX="101528" custLinFactNeighborY="-3732">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2748,7 +3670,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{94BC82E4-6E43-41F2-8FBA-143A7A763568}" type="pres">
-      <dgm:prSet presAssocID="{430B3B83-587C-4071-8700-3B45B20F5A7C}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="18" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{430B3B83-587C-4071-8700-3B45B20F5A7C}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A572874A-D004-4C59-BE2A-FD4E06B5DB1F}" type="pres">
@@ -2760,7 +3682,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{539CD19F-B507-43F8-8B69-696757B8AEE1}" type="pres">
-      <dgm:prSet presAssocID="{818D61FE-AF3C-4673-B80D-16A6F6B48EAB}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="19" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{818D61FE-AF3C-4673-B80D-16A6F6B48EAB}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="11" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4D68A8A4-19C6-45AC-97BB-3E582B903251}" type="pres">
@@ -2776,7 +3698,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D00A2B2B-163D-4C7F-874A-2B6FC6AD6098}" type="pres">
-      <dgm:prSet presAssocID="{2FA64668-6B15-40D0-9177-00FDA112C9BC}" presName="rootText" presStyleLbl="node3" presStyleIdx="19" presStyleCnt="23">
+      <dgm:prSet presAssocID="{2FA64668-6B15-40D0-9177-00FDA112C9BC}" presName="rootText" presStyleLbl="node3" presStyleIdx="11" presStyleCnt="15" custLinFactX="98729" custLinFactNeighborX="100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2784,7 +3706,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DADA450E-2A00-4026-81FE-8FA18B9FE4A8}" type="pres">
-      <dgm:prSet presAssocID="{2FA64668-6B15-40D0-9177-00FDA112C9BC}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="19" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{2FA64668-6B15-40D0-9177-00FDA112C9BC}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="11" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2DCBAC3C-FCDE-41CF-8EC3-69BDE7661B0D}" type="pres">
@@ -2796,7 +3718,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8E924C6E-6BEF-404C-A57E-3A3F1A179C9F}" type="pres">
-      <dgm:prSet presAssocID="{080285D6-A3F3-4D30-8FA5-6A40C0084DE9}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="20" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{080285D6-A3F3-4D30-8FA5-6A40C0084DE9}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="12" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5B0864A9-4F63-45C8-AAFF-0D7514AF024D}" type="pres">
@@ -2812,7 +3734,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E390B133-2936-4014-B597-9BC47D24BE6B}" type="pres">
-      <dgm:prSet presAssocID="{33C838EA-B751-4A1A-B87F-3AA5A77F984F}" presName="rootText" presStyleLbl="node3" presStyleIdx="20" presStyleCnt="23">
+      <dgm:prSet presAssocID="{33C838EA-B751-4A1A-B87F-3AA5A77F984F}" presName="rootText" presStyleLbl="node3" presStyleIdx="12" presStyleCnt="15" custLinFactX="100000" custLinFactNeighborX="100595">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2820,7 +3742,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{50B22FFD-9308-47D6-8900-FF832AF0B49C}" type="pres">
-      <dgm:prSet presAssocID="{33C838EA-B751-4A1A-B87F-3AA5A77F984F}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="20" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{33C838EA-B751-4A1A-B87F-3AA5A77F984F}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="12" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7589B095-3EB0-450A-8C71-C1338B23BD24}" type="pres">
@@ -2852,7 +3774,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7B47C914-72BE-4F62-9C2E-12CF21A8E83A}" type="pres">
-      <dgm:prSet presAssocID="{DB378607-1FDF-4AB7-B42B-EED36811809D}" presName="rootText" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="5">
+      <dgm:prSet presAssocID="{DB378607-1FDF-4AB7-B42B-EED36811809D}" presName="rootText" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="5" custLinFactX="100000" custLinFactNeighborX="100595">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2868,7 +3790,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2F1F425F-805D-4C91-AEE2-686E6CD761B0}" type="pres">
-      <dgm:prSet presAssocID="{A1E6B2AE-9288-4715-89CD-DD8599947A82}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="21" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{A1E6B2AE-9288-4715-89CD-DD8599947A82}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="13" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C18DBB65-3689-43A6-AF90-4D87DDC9AED1}" type="pres">
@@ -2884,7 +3806,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7966E939-933F-4975-B334-EFA0AE682776}" type="pres">
-      <dgm:prSet presAssocID="{CBC04149-341A-4D99-91CB-43EF62E60828}" presName="rootText" presStyleLbl="node3" presStyleIdx="21" presStyleCnt="23">
+      <dgm:prSet presAssocID="{CBC04149-341A-4D99-91CB-43EF62E60828}" presName="rootText" presStyleLbl="node3" presStyleIdx="13" presStyleCnt="15" custLinFactX="100000" custLinFactNeighborX="100595">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2892,7 +3814,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{63968E93-8C6B-49AC-801D-02363D753B51}" type="pres">
-      <dgm:prSet presAssocID="{CBC04149-341A-4D99-91CB-43EF62E60828}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="21" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{CBC04149-341A-4D99-91CB-43EF62E60828}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="13" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{84D18496-8D0A-4D50-8800-C0A7D05E8D41}" type="pres">
@@ -2904,7 +3826,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CDF1389A-B2CD-4C46-B243-34E3ADB34998}" type="pres">
-      <dgm:prSet presAssocID="{88A040DB-0DDE-476E-A893-43A5ACC598BC}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="22" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{88A040DB-0DDE-476E-A893-43A5ACC598BC}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="14" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0D7042D2-3242-4F3C-9D6F-CB828D97F9C2}" type="pres">
@@ -2920,7 +3842,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7A787200-72FA-4966-BEF2-D11DA95DBBB6}" type="pres">
-      <dgm:prSet presAssocID="{254CBD21-7852-44C2-B44E-F42FEF563BCF}" presName="rootText" presStyleLbl="node3" presStyleIdx="22" presStyleCnt="23">
+      <dgm:prSet presAssocID="{254CBD21-7852-44C2-B44E-F42FEF563BCF}" presName="rootText" presStyleLbl="node3" presStyleIdx="14" presStyleCnt="15" custLinFactX="100000" custLinFactNeighborX="100595">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2928,7 +3850,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A2D97956-ADB7-4357-B6E6-2255C823E4D6}" type="pres">
-      <dgm:prSet presAssocID="{254CBD21-7852-44C2-B44E-F42FEF563BCF}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="22" presStyleCnt="23"/>
+      <dgm:prSet presAssocID="{254CBD21-7852-44C2-B44E-F42FEF563BCF}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="14" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{215CD9D6-4605-4618-A531-553D711FB77D}" type="pres">
@@ -2949,122 +3871,174 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
-    <dgm:cxn modelId="{9691E100-3B66-46FA-983F-0AE8D50A995F}" type="presOf" srcId="{8ADEFEEA-973C-4DC7-9477-98F23BB04400}" destId="{CF7D5BCC-EEBE-4280-978D-DC8A2ACE9BB4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2DA15702-FF02-4910-BF39-5BDB3A342692}" type="presOf" srcId="{4A11099B-D1FC-437A-A08B-551ED3CED2D5}" destId="{A6293774-94F6-4610-A233-F0625B454A8D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C7B0B203-8F2D-4268-9150-6A1E0592C1C5}" type="presOf" srcId="{D7F2D407-40E2-45EE-8220-E0770131F78C}" destId="{4A68206F-0940-459D-AC3D-D850D9BC067B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FAC59C04-0A36-4B2E-B2CC-BCD5D9340137}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{B7D0B726-8476-4698-BDB3-E17485501444}" srcOrd="3" destOrd="0" parTransId="{BEE45820-0658-4EB4-859A-B4BAB6B3D358}" sibTransId="{07520EE3-E8BD-4EE4-A652-0D0E305349FD}"/>
     <dgm:cxn modelId="{5375A506-29BE-4499-9B5D-E93E2EE5FAF4}" type="presOf" srcId="{82D0E1FB-CD3B-4841-ABF0-12355EA98061}" destId="{FCCB3ADE-BFA3-47AF-9028-BEF9B89CE4FD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3207B307-3F8E-4476-928C-270EF6F96E5C}" type="presOf" srcId="{56ADA179-3797-4DBD-9B08-F0A70020A727}" destId="{94290531-1910-468F-B0CE-97EF7D4A3A4B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{08E04A0D-F1D2-4475-836A-5B3EFA4DDBB9}" type="presOf" srcId="{0F40B954-4C30-4177-B91D-0CC9093705A9}" destId="{CF3A6BED-DA23-45A5-927F-492BECB20BF1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{65389F0D-C54A-4750-8B08-076F057598A3}" type="presOf" srcId="{2FA64668-6B15-40D0-9177-00FDA112C9BC}" destId="{D00A2B2B-163D-4C7F-874A-2B6FC6AD6098}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2E759E10-0413-4220-825B-0563A8017B9B}" srcId="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" destId="{41944FC7-2FB2-4EE5-9322-AC58D1EC4677}" srcOrd="3" destOrd="0" parTransId="{1222E797-51BC-4808-9803-C4DBEF4523B6}" sibTransId="{AB520866-979D-46BC-BC14-AD12A9C1FCAD}"/>
-    <dgm:cxn modelId="{22079F12-C698-467D-BC88-A1F3E401D194}" type="presOf" srcId="{0675CFBD-CF16-4380-BB62-E10A10D67E14}" destId="{8E272E94-DF17-4B6C-8BCE-6F9C71923A10}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C05BEC06-9548-4A70-BFEC-0FCD89509F4B}" type="presOf" srcId="{9CCF6B7D-251F-4828-816A-F1567CB3E7F6}" destId="{1066A10C-7FD6-4999-9FFD-796C1B0999A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0F19F406-9A58-4B46-9FD7-17F7893402EA}" type="presOf" srcId="{A338E343-038D-40A8-9999-C1A96567CC29}" destId="{5DC16AF1-E34F-4CA1-B968-9F93645567DB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B22A740A-6A81-4DEE-86A0-39294C3A4FE8}" type="presOf" srcId="{3DB7FB21-67E3-46BC-80E3-B6BF208A7AE6}" destId="{74998690-FBCE-4B33-A71B-1FAD4E33867A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DB76A80D-A170-4450-8F16-D984E6F2B9A5}" type="presOf" srcId="{C537ECE3-ECBA-458F-BEC2-81A4AE454A8E}" destId="{F6A6CFC5-8A1D-40A9-97C0-AF7A1030771B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CD2BE30F-7F4A-4F87-BD35-8BCDE3DE1F0D}" type="presOf" srcId="{E427178B-A81D-4FF3-9F31-672B8A3A5314}" destId="{28AFEDF9-2CBD-41AB-89BD-2AEE38B82614}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2E759E10-0413-4220-825B-0563A8017B9B}" srcId="{68518888-C1E3-4D79-9361-1CA74F77A8BC}" destId="{41944FC7-2FB2-4EE5-9322-AC58D1EC4677}" srcOrd="3" destOrd="0" parTransId="{1222E797-51BC-4808-9803-C4DBEF4523B6}" sibTransId="{AB520866-979D-46BC-BC14-AD12A9C1FCAD}"/>
+    <dgm:cxn modelId="{00ECE711-3B5F-4C91-8C25-D310D057E602}" type="presOf" srcId="{81C86F21-F172-4278-AE39-BA8EDEC926CB}" destId="{A2890600-11C4-445D-BC3D-C20D92B96A25}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{842CF512-0F45-401F-8C15-58B2FC03EBF1}" srcId="{A338E343-038D-40A8-9999-C1A96567CC29}" destId="{430B3B83-587C-4071-8700-3B45B20F5A7C}" srcOrd="2" destOrd="0" parTransId="{E9C94A81-E7B0-4A8A-A6F9-D68DA57DA3D0}" sibTransId="{DCA4976C-2D82-48B6-A623-CEFDF92CB54F}"/>
-    <dgm:cxn modelId="{41C3CA19-4C50-48BD-914C-6FFA8FB0BE3A}" type="presOf" srcId="{BEE45820-0658-4EB4-859A-B4BAB6B3D358}" destId="{7BED290C-5CD7-473D-B4D3-B9A4CCC743D0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0A3C281A-6A23-4370-AFC3-A6D0DDBF2A64}" type="presOf" srcId="{CBC04149-341A-4D99-91CB-43EF62E60828}" destId="{63968E93-8C6B-49AC-801D-02363D753B51}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{277CC11A-7B4E-4AEB-AD67-B39F9A0D222C}" type="presOf" srcId="{59F323DE-3CDB-4E04-BEE0-E11126C13760}" destId="{3CB0A418-7204-44C6-8304-90026C31C1B2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9766331B-85BB-46D7-BDF5-BEA832012C51}" type="presOf" srcId="{0E232663-3D1B-4AA7-ADC6-363BDD7A8678}" destId="{4947493B-5DC5-401D-A622-E5DF6467E3A2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2C18CB1C-2313-4F7F-A2FA-16B3441DB4FC}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{218BEFF9-0CB1-4562-87AE-045B65703BEB}" srcOrd="0" destOrd="0" parTransId="{A744AF3E-56A1-4E25-9719-1B24D905F4CA}" sibTransId="{2727F710-0C6A-478D-93EA-43C9A99DA13D}"/>
+    <dgm:cxn modelId="{39E32016-52D7-441F-8458-7A132EF4105F}" srcId="{C537ECE3-ECBA-458F-BEC2-81A4AE454A8E}" destId="{5139A921-CAC8-4136-AAD2-4FCF18C0624D}" srcOrd="2" destOrd="0" parTransId="{F2B39B56-3807-4BA8-88B8-E89E27C8BF76}" sibTransId="{FB26DCDF-3B2C-435B-840F-E98D72B67AA2}"/>
+    <dgm:cxn modelId="{9D038516-7E2F-4333-9755-EA8475D17170}" type="presOf" srcId="{DB378607-1FDF-4AB7-B42B-EED36811809D}" destId="{7B47C914-72BE-4F62-9C2E-12CF21A8E83A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2C18CB1C-2313-4F7F-A2FA-16B3441DB4FC}" srcId="{2AAF25AC-50F5-4A0B-954D-5DF1EE1DF5FC}" destId="{218BEFF9-0CB1-4562-87AE-045B65703BEB}" srcOrd="0" destOrd="0" parTransId="{A744AF3E-56A1-4E25-9719-1B24D905F4CA}" sibTransId="{2727F710-0C6A-478D-93EA-43C9A99DA13D}"/>
     <dgm:cxn modelId="{9447081F-5D58-4AD1-B8D7-7612A44BC3DF}" type="presOf" srcId="{67FB556B-FE07-4831-967D-26BB62516C4F}" destId="{5D4D05C5-677C-40D0-BE29-0A617215BED6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AD6B9322-BC55-482D-A030-A2D1B2C4E42B}" srcId="{C537ECE3-ECBA-458F-BEC2-81A4AE454A8E}" destId="{E427178B-A81D-4FF3-9F31-672B8A3A5314}" srcOrd="4" destOrd="0" parTransId="{9B373D65-4951-4806-A0FD-D82ED4E0CC54}" sibTransId="{1532F219-FEA4-4C36-ADF5-4041534972BA}"/>
     <dgm:cxn modelId="{3D78CA23-75F2-4BEC-B75A-45668EBB9AB3}" srcId="{A338E343-038D-40A8-9999-C1A96567CC29}" destId="{2FA64668-6B15-40D0-9177-00FDA112C9BC}" srcOrd="3" destOrd="0" parTransId="{818D61FE-AF3C-4673-B80D-16A6F6B48EAB}" sibTransId="{EB24C05F-ED39-4A5A-B5F6-C9735FCDF23B}"/>
+    <dgm:cxn modelId="{B82B0125-AE23-433C-9483-4AAFD36F6F0E}" type="presOf" srcId="{03768822-717F-4475-80E2-A09BFAB948A0}" destId="{BD74E65F-F5A0-4B70-B537-2AF16190D43C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{EBDF3826-EEB2-4BC0-B291-48C0AF625BAA}" type="presOf" srcId="{B21A2E2E-DD0D-4008-8CF7-17AD9071DF0E}" destId="{29A5CE68-9A17-4FB4-AE57-22705D981F5A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D3FF8426-A05F-4F67-BA15-04F8084D4217}" type="presOf" srcId="{7C728B5C-DB83-41A8-9F3D-58F7CCF74323}" destId="{20440F1C-A067-443E-8FD2-615CB4CF0B9B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6476FD26-704D-45F3-909E-37349E160C80}" type="presOf" srcId="{9A480F3E-5EC8-4AA4-9475-87D22A7478DB}" destId="{FC7EEA8C-069E-49FB-A599-F4D87BE587FC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{950AFC27-82AD-4C26-9200-D1C8C039CC56}" srcId="{C537ECE3-ECBA-458F-BEC2-81A4AE454A8E}" destId="{C99666F4-5BFD-460C-BA05-2DFA6F8D03F0}" srcOrd="5" destOrd="0" parTransId="{03768822-717F-4475-80E2-A09BFAB948A0}" sibTransId="{80C71C68-7D19-46E3-9A3F-1310BCEF9147}"/>
     <dgm:cxn modelId="{FA148028-B904-45C7-8FD9-E73018317A86}" type="presOf" srcId="{15ED58BC-EAB0-452C-AF65-18D994EC87CE}" destId="{29FC3390-B3AF-4AE1-A130-989C60AA96EE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C605722A-6835-46E9-8AA9-70D6EE17BB8E}" type="presOf" srcId="{DB378607-1FDF-4AB7-B42B-EED36811809D}" destId="{4D8F30DD-D9FC-4B03-AEEF-58C80353DCFF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D041CA28-43B2-4C98-90DE-9A3C3EF7A8B7}" type="presOf" srcId="{CBC04149-341A-4D99-91CB-43EF62E60828}" destId="{63968E93-8C6B-49AC-801D-02363D753B51}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{62F6D42A-A397-4B2F-BCE7-7476B69472FA}" type="presOf" srcId="{251B99DC-68BF-4535-8872-0988B0D590E8}" destId="{729FB431-C1EC-4104-9514-2F88BF228808}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{102FDE2A-C9A3-4FF7-B8C8-B64DAE743F4F}" type="presOf" srcId="{9A480F3E-5EC8-4AA4-9475-87D22A7478DB}" destId="{776F2418-A328-4FFB-B2A6-03E70BE4A26B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8B55662B-C47F-4ACE-BC08-72049B8852AF}" type="presOf" srcId="{33C838EA-B751-4A1A-B87F-3AA5A77F984F}" destId="{50B22FFD-9308-47D6-8900-FF832AF0B49C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C5E6772B-BC51-42C9-873C-6DDFBF6D41F2}" type="presOf" srcId="{0E232663-3D1B-4AA7-ADC6-363BDD7A8678}" destId="{4947493B-5DC5-401D-A622-E5DF6467E3A2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C0347C2C-3349-496E-9AAE-B408ED785B5A}" type="presOf" srcId="{9B373D65-4951-4806-A0FD-D82ED4E0CC54}" destId="{97B41E4C-91A0-468B-9A03-7B61FCEC2AF3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A6A9A42D-6FBD-40BE-BEB1-2E6AD15C8EF5}" type="presOf" srcId="{F9044475-2B89-43C0-A6D8-749AC7CEDDD4}" destId="{5E2E63A2-EB8E-4A65-8622-D5F89D86327D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{90C0F42D-64A2-4DA9-AD7B-F56221EBB45F}" type="presOf" srcId="{D9C5BC92-B67C-4617-8C64-B5553F47FB47}" destId="{C8E0982C-0A26-4757-BED7-F73090520D23}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F3B7092F-7B0D-47B6-94D3-9822E2EAFB71}" type="presOf" srcId="{DA1CF6E6-B372-4E44-97A1-12CC43D83F6E}" destId="{6F433DDF-7859-4E30-A0E4-52B9C0E0E6CE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5743582F-CAF9-4FCF-94B7-BC83F3338B07}" type="presOf" srcId="{199696F9-A481-47E8-97D7-231969864596}" destId="{BF2F1A77-FE8F-4DFC-B5E0-6697A231424C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FB253F30-E831-4A2D-B879-48667BAE0ABE}" type="presOf" srcId="{5139A921-CAC8-4136-AAD2-4FCF18C0624D}" destId="{1F3594B8-7664-4F15-ACC9-C93095FC8575}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{35CF6530-6897-47AF-A406-0A809B622DE9}" type="presOf" srcId="{CBC04149-341A-4D99-91CB-43EF62E60828}" destId="{7966E939-933F-4975-B334-EFA0AE682776}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{8B035431-A9F7-402B-B4C3-3EA372E02141}" srcId="{A338E343-038D-40A8-9999-C1A96567CC29}" destId="{F9044475-2B89-43C0-A6D8-749AC7CEDDD4}" srcOrd="0" destOrd="0" parTransId="{CF47C41B-AC30-419A-AC9A-03668F0F1406}" sibTransId="{2D183000-AA0C-4E3A-8835-A0FAD69AC9ED}"/>
+    <dgm:cxn modelId="{7800ED32-2385-47C6-9E16-4CB8F661B7BF}" type="presOf" srcId="{A338E343-038D-40A8-9999-C1A96567CC29}" destId="{94D8271F-3BE6-491D-B73E-6FD55E62D45A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BC700A33-2EEE-4179-AA7F-5F12A65A63DB}" type="presOf" srcId="{760FCA46-A6DF-421F-87D1-ADFE62A093E1}" destId="{F9A75840-6F61-4518-A08A-A6C3C1A0056C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{2EB97234-62F6-4E92-B143-DA48B887FBED}" type="presOf" srcId="{BA85E40E-D685-47EA-81AF-21AF26AF269D}" destId="{EDB32C9D-E321-48A5-B2D5-0133547C33E8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DD53BB37-2AA8-40C9-AC10-0706BA461B4D}" type="presOf" srcId="{D89FC85F-DF22-4F54-ADC8-AF394CAE7BB5}" destId="{14BBBBFF-E420-48B5-B54E-752DDA56D31F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A1A95538-9AAC-4DC1-966C-CBCAB9D49D72}" srcId="{A338E343-038D-40A8-9999-C1A96567CC29}" destId="{33C838EA-B751-4A1A-B87F-3AA5A77F984F}" srcOrd="4" destOrd="0" parTransId="{080285D6-A3F3-4D30-8FA5-6A40C0084DE9}" sibTransId="{C100100B-1B13-4A24-9A7E-9C5808BFFB48}"/>
     <dgm:cxn modelId="{E1114139-9D4E-45D4-ACE4-AD7D56C701C1}" srcId="{15ED58BC-EAB0-452C-AF65-18D994EC87CE}" destId="{DEE449F7-DEAE-4DE2-9438-2B263BAF9764}" srcOrd="0" destOrd="0" parTransId="{B21A2E2E-DD0D-4008-8CF7-17AD9071DF0E}" sibTransId="{3B5CD869-AE65-471B-B98E-8FD5FC9E0245}"/>
-    <dgm:cxn modelId="{A760B33A-779E-4020-BAE5-2591BC5222D8}" type="presOf" srcId="{88A040DB-0DDE-476E-A893-43A5ACC598BC}" destId="{CDF1389A-B2CD-4C46-B243-34E3ADB34998}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2A9D313C-9239-40CB-942C-C0D00286A5AF}" type="presOf" srcId="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" destId="{825D09E6-8B11-4C46-8E59-3C5C9AFCEF58}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{25FCDC3F-3EFC-419F-AE3D-C833BF691B05}" type="presOf" srcId="{9C0F506E-355C-4303-ACA6-5601A3D75C9E}" destId="{27586A14-6521-482B-9AE1-BDB0D4168ED1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B7F8FC3F-F492-48FE-9642-ECC162906AD0}" type="presOf" srcId="{430B3B83-587C-4071-8700-3B45B20F5A7C}" destId="{94BC82E4-6E43-41F2-8FBA-143A7A763568}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{20037440-1DE4-4355-B4A0-240CF6242D67}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{D7F2D407-40E2-45EE-8220-E0770131F78C}" srcOrd="4" destOrd="0" parTransId="{32054C3E-D430-41A6-8E60-2B2E95A64CE3}" sibTransId="{BF2DBC3F-8FE5-4258-A798-A8BE8356371B}"/>
-    <dgm:cxn modelId="{26FAA45E-A7AD-4CF6-93ED-69836B88F4BC}" type="presOf" srcId="{2FA64668-6B15-40D0-9177-00FDA112C9BC}" destId="{DADA450E-2A00-4026-81FE-8FA18B9FE4A8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B4D3133B-1411-46FA-A7F1-B392C8986DB3}" srcId="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" destId="{D7DCD192-8FFD-4D8E-85CE-37643FF04371}" srcOrd="1" destOrd="0" parTransId="{251B99DC-68BF-4535-8872-0988B0D590E8}" sibTransId="{68391988-4A64-4080-9375-25B9E1915C1A}"/>
+    <dgm:cxn modelId="{3A45D33C-C438-44AC-A095-2E3368B9F0EF}" type="presOf" srcId="{0675CFBD-CF16-4380-BB62-E10A10D67E14}" destId="{8E272E94-DF17-4B6C-8BCE-6F9C71923A10}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{08997F3D-FD67-45B8-B38E-FBA70AD105D9}" type="presOf" srcId="{5139A921-CAC8-4136-AAD2-4FCF18C0624D}" destId="{DE4ECF28-7D34-4080-A01A-3BB6A8D43DA7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EE052640-54E8-4EF4-8FD6-C61AB91A2667}" type="presOf" srcId="{C0C35A4E-C1F4-4F1E-AB94-2A5311561975}" destId="{F98A015D-2E6E-4691-AD0A-E4E15BB913F5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{20037440-1DE4-4355-B4A0-240CF6242D67}" srcId="{C537ECE3-ECBA-458F-BEC2-81A4AE454A8E}" destId="{D7F2D407-40E2-45EE-8220-E0770131F78C}" srcOrd="0" destOrd="0" parTransId="{32054C3E-D430-41A6-8E60-2B2E95A64CE3}" sibTransId="{BF2DBC3F-8FE5-4258-A798-A8BE8356371B}"/>
+    <dgm:cxn modelId="{841E2C5D-A19D-480C-9289-F2AEA93F6E46}" type="presOf" srcId="{0E232663-3D1B-4AA7-ADC6-363BDD7A8678}" destId="{8B1BA511-364D-4E6C-A362-1B7745DC4F3E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DABD775E-71D7-4724-9140-7F4D9D5A7592}" type="presOf" srcId="{6340EEB0-4083-4786-A333-40A13E1FFD3F}" destId="{12739CD6-508A-4932-98E6-F8F497FDF41F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D9D4185F-9CA3-40B8-B122-77F2A3CE34AE}" type="presOf" srcId="{254CBD21-7852-44C2-B44E-F42FEF563BCF}" destId="{A2D97956-ADB7-4357-B6E6-2255C823E4D6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{3533E15F-A90E-4039-9DF0-022E915E8B74}" type="presOf" srcId="{765B54D9-2C89-416E-AD2B-D9B1FD23EF9A}" destId="{6B0C47BA-4F2B-4405-9552-6E845A238B96}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{82E68061-7472-43F5-A80F-D55F47880EA7}" type="presOf" srcId="{F9044475-2B89-43C0-A6D8-749AC7CEDDD4}" destId="{E64D60CA-5F55-4C3C-9AD5-9C65DCECB7A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{52037A64-47CE-429F-AB9A-9672FA0275DF}" type="presOf" srcId="{A744AF3E-56A1-4E25-9719-1B24D905F4CA}" destId="{4E14FB1C-6B3D-4833-9719-A987CA720A07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{24EDFA64-DB25-4266-9DCD-90DF2FE1FE68}" srcId="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" destId="{8D4B80DF-DDB7-455F-B9CB-3DFD2E1D87F2}" srcOrd="2" destOrd="0" parTransId="{3835BA4F-DB97-4738-BF19-05CFF41CF6A2}" sibTransId="{8560F359-EAB3-405B-9ECB-F6B39CFAADDF}"/>
-    <dgm:cxn modelId="{C36E5D45-9932-4691-A672-ADE16591A86B}" type="presOf" srcId="{3835BA4F-DB97-4738-BF19-05CFF41CF6A2}" destId="{27166336-5F1D-490E-9AFE-183688D629EE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AF1D7B46-6C6A-4DB7-8161-265A01C51BEE}" type="presOf" srcId="{254CBD21-7852-44C2-B44E-F42FEF563BCF}" destId="{7A787200-72FA-4966-BEF2-D11DA95DBBB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7B43A146-A311-4A37-B5F4-781CB9820A38}" srcId="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" destId="{0E232663-3D1B-4AA7-ADC6-363BDD7A8678}" srcOrd="0" destOrd="0" parTransId="{6340EEB0-4083-4786-A333-40A13E1FFD3F}" sibTransId="{3A23D202-D121-4352-92D2-B6868314415F}"/>
+    <dgm:cxn modelId="{24EDFA64-DB25-4266-9DCD-90DF2FE1FE68}" srcId="{68518888-C1E3-4D79-9361-1CA74F77A8BC}" destId="{8D4B80DF-DDB7-455F-B9CB-3DFD2E1D87F2}" srcOrd="2" destOrd="0" parTransId="{3835BA4F-DB97-4738-BF19-05CFF41CF6A2}" sibTransId="{8560F359-EAB3-405B-9ECB-F6B39CFAADDF}"/>
+    <dgm:cxn modelId="{7B43A146-A311-4A37-B5F4-781CB9820A38}" srcId="{68518888-C1E3-4D79-9361-1CA74F77A8BC}" destId="{0E232663-3D1B-4AA7-ADC6-363BDD7A8678}" srcOrd="0" destOrd="0" parTransId="{6340EEB0-4083-4786-A333-40A13E1FFD3F}" sibTransId="{3A23D202-D121-4352-92D2-B6868314415F}"/>
     <dgm:cxn modelId="{A29FB666-3589-4D04-B4B0-58163371FF1A}" type="presOf" srcId="{B0301F61-AD5C-47D5-A0BF-86A1195B21FD}" destId="{BE487CC6-73F3-4927-91E1-41474765DBFD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{43A3D546-B1F8-40E3-BDDD-BDCB9500097F}" type="presOf" srcId="{4A11099B-D1FC-437A-A08B-551ED3CED2D5}" destId="{E457BD99-B1A3-407D-8063-040D15DC5ECB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B703BD46-1E53-41A7-9FB8-7E4C866A0DCD}" type="presOf" srcId="{430B3B83-587C-4071-8700-3B45B20F5A7C}" destId="{94BC82E4-6E43-41F2-8FBA-143A7A763568}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1E23AF67-B9CB-4ACD-87B6-36DE35AD6CF2}" type="presOf" srcId="{0CC0EB63-A5B9-4D54-B346-B718C9C87FD8}" destId="{666C3FA4-73CF-416F-B185-D165FA22646F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6A77E567-A67C-49FD-8DC5-0B7321DAC8AB}" srcId="{C537ECE3-ECBA-458F-BEC2-81A4AE454A8E}" destId="{126ACA6C-F94F-4220-A823-BA69E5AEE957}" srcOrd="3" destOrd="0" parTransId="{8B563EB0-83FF-47C8-9D4F-3921DF2DC349}" sibTransId="{AC245CE5-69CF-46B3-8D61-336437BFD74D}"/>
+    <dgm:cxn modelId="{AD200548-5FEF-4764-8C37-71D4D0385537}" srcId="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" destId="{C0C35A4E-C1F4-4F1E-AB94-2A5311561975}" srcOrd="0" destOrd="0" parTransId="{7689A440-A126-4B98-A5C8-F3E32A88619E}" sibTransId="{D4D81015-C232-4E3C-9CB8-9A68CCDEBDBE}"/>
+    <dgm:cxn modelId="{63BF2548-54DA-440C-9770-F240FACD7133}" type="presOf" srcId="{32054C3E-D430-41A6-8E60-2B2E95A64CE3}" destId="{DD07FEFD-0224-4DD6-9F63-1F11E2838841}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{25166368-670B-485D-93D9-A39CC777CD6D}" type="presOf" srcId="{707A3F11-402B-43F2-BE75-F7AF559AFB0B}" destId="{E770F2F7-0978-4E65-A42C-7BAF1246157C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{622DC568-6E64-438A-ACA0-07F2872CB083}" type="presOf" srcId="{33C838EA-B751-4A1A-B87F-3AA5A77F984F}" destId="{50B22FFD-9308-47D6-8900-FF832AF0B49C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{58ACEF48-6D24-4827-8F3B-396A9B70DC5B}" type="presOf" srcId="{67FB556B-FE07-4831-967D-26BB62516C4F}" destId="{9B91036A-72A1-4BF0-A934-A061127853C8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7F092D4C-5D6E-4309-8EF7-64069EC4401F}" type="presOf" srcId="{080285D6-A3F3-4D30-8FA5-6A40C0084DE9}" destId="{8E924C6E-6BEF-404C-A57E-3A3F1A179C9F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{84FE6E4E-F107-4D5E-8E93-352A00390923}" type="presOf" srcId="{B95E29F4-05A1-4062-9F04-83EA59720DD5}" destId="{C927A751-DF32-47D0-8B31-9E3DFC4C6030}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{89343169-0620-4DAE-A212-BDA926233F78}" type="presOf" srcId="{8D4B80DF-DDB7-455F-B9CB-3DFD2E1D87F2}" destId="{4CB8FC9C-4E8E-4531-830A-48D6E1BD85F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{65E64A49-9F3B-4630-B656-EA0B42264AD5}" type="presOf" srcId="{E9C94A81-E7B0-4A8A-A6F9-D68DA57DA3D0}" destId="{16D0A96D-5947-4316-979D-83BD4B809E68}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{51ADDC6A-3B54-4C79-A6A2-BF7B6D34010F}" type="presOf" srcId="{68518888-C1E3-4D79-9361-1CA74F77A8BC}" destId="{2F55A733-92E1-4BC0-B18D-F76400EED0D5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2C00524B-BA90-4AB7-B16E-9962B2CF555E}" type="presOf" srcId="{D7DCD192-8FFD-4D8E-85CE-37643FF04371}" destId="{FB67A2F1-76CA-4B9A-93FF-A0259BF12773}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{876BA14B-427E-4773-8096-812F63AF12AF}" type="presOf" srcId="{3C8883BB-5063-46DD-ABA5-43682449A99D}" destId="{200D2F73-DD79-4DF0-8C60-FC667BBFD8AF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A9F1B56D-2BA2-4EFB-BC85-94DFA11636F5}" type="presOf" srcId="{827B92E6-4F37-4761-B09E-1C82A79FF748}" destId="{B30FF4B7-5E7E-4923-9575-57AD7E4EF46E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E2ECEC4E-ED4E-430B-8795-A9AE40F446D6}" type="presOf" srcId="{B0301F61-AD5C-47D5-A0BF-86A1195B21FD}" destId="{E0E543A8-FEB8-4BD2-999A-4E4E8FBA257D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EE5E304F-F97F-48E9-8E76-E909D602E57B}" type="presOf" srcId="{A1E6B2AE-9288-4715-89CD-DD8599947A82}" destId="{2F1F425F-805D-4C91-AEE2-686E6CD761B0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E17E4770-AB8B-4BC0-AFF0-EE862D6614DB}" type="presOf" srcId="{C537ECE3-ECBA-458F-BEC2-81A4AE454A8E}" destId="{566D694E-5418-4E16-9BA7-47823AAB65D0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9BF48351-B545-4242-BA6C-5E7A8D52ADBE}" type="presOf" srcId="{218BEFF9-0CB1-4562-87AE-045B65703BEB}" destId="{F329B41D-22CD-4343-B47A-9A688206E247}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EFB35274-ADF4-45EA-94EC-E9DC13FE69CD}" type="presOf" srcId="{8ADEFEEA-973C-4DC7-9477-98F23BB04400}" destId="{CF7D5BCC-EEBE-4280-978D-DC8A2ACE9BB4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6E6AFD54-9ED8-49E1-9806-FF1FB8FAD1AA}" type="presOf" srcId="{8D4B80DF-DDB7-455F-B9CB-3DFD2E1D87F2}" destId="{EA6709F0-2E38-43CF-B1F1-3C352234C2FA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{53141575-D36B-427D-8A4E-090430E277B7}" type="presOf" srcId="{827B92E6-4F37-4761-B09E-1C82A79FF748}" destId="{943722B4-1306-4FC6-A337-40D0F13D0B4E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{71D62B56-7B65-4813-B3C6-B3FF04BE144C}" type="presOf" srcId="{46430AE2-EE53-4162-9A16-832B3A892CAC}" destId="{0FA5CDD9-5D59-4404-9A10-1CAB1922E2EB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DC385576-2AF0-4DEA-8A79-2A8E4306FF3F}" type="presOf" srcId="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}" destId="{1BC3A466-ACC6-45DC-8A4C-1F6374D44F54}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1D6CD656-8CD3-4B74-8D82-3FAF410FC601}" type="presOf" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{135DC469-4E1C-458E-A25A-B4C8F73040B3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{533A495A-9C1F-4C7C-B438-7AEF88FD827E}" type="presOf" srcId="{8FF027C2-53CB-4E8E-9B8E-27D5A8EB3C4F}" destId="{96F9CE1E-394E-41D0-B714-F956A27CCAFC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5EE2777A-A28D-432B-8CC0-B54B53765542}" type="presOf" srcId="{430B3B83-587C-4071-8700-3B45B20F5A7C}" destId="{22606EB7-9099-43D6-9995-CC5321CFD6B7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FE22027B-5EFD-4743-9130-E1E16DD6E461}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}" srcOrd="5" destOrd="0" parTransId="{56ADA179-3797-4DBD-9B08-F0A70020A727}" sibTransId="{7EB222F6-DEED-4A4D-AA78-3068734573E0}"/>
-    <dgm:cxn modelId="{9906FE7B-EB67-4649-A1A6-B932F5B0A2AB}" type="presOf" srcId="{CBC04149-341A-4D99-91CB-43EF62E60828}" destId="{7966E939-933F-4975-B334-EFA0AE682776}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{01392E80-C5D9-4ECF-B187-E6216678CF65}" type="presOf" srcId="{8ADEFEEA-973C-4DC7-9477-98F23BB04400}" destId="{08BBE401-FFBE-4432-8F5B-6C1F8499C2B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B494A684-599E-4557-8F26-2E53E97B7272}" type="presOf" srcId="{41944FC7-2FB2-4EE5-9322-AC58D1EC4677}" destId="{32F12FED-C7F7-492D-BBDD-57C948D21A9E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CAB21278-3215-4371-BA13-7F45259700D2}" type="presOf" srcId="{41944FC7-2FB2-4EE5-9322-AC58D1EC4677}" destId="{32F12FED-C7F7-492D-BBDD-57C948D21A9E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AED56478-81D5-47CB-9011-3DF731707699}" type="presOf" srcId="{4A11099B-D1FC-437A-A08B-551ED3CED2D5}" destId="{A6293774-94F6-4610-A233-F0625B454A8D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{82B17C78-0FD0-4ADE-843A-092925B5F962}" type="presOf" srcId="{C0C35A4E-C1F4-4F1E-AB94-2A5311561975}" destId="{4F972914-B8F9-4EE2-A22D-8DEA92924F7F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{016A9378-AD53-4296-B3E4-3E045B13B702}" type="presOf" srcId="{B95E29F4-05A1-4062-9F04-83EA59720DD5}" destId="{D9417BE7-7CC8-4D8B-BAB1-FE318D2EC86F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FE22027B-5EFD-4743-9130-E1E16DD6E461}" srcId="{C537ECE3-ECBA-458F-BEC2-81A4AE454A8E}" destId="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}" srcOrd="1" destOrd="0" parTransId="{56ADA179-3797-4DBD-9B08-F0A70020A727}" sibTransId="{7EB222F6-DEED-4A4D-AA78-3068734573E0}"/>
+    <dgm:cxn modelId="{1080647D-F2AE-4379-A64E-C7355FE6513F}" type="presOf" srcId="{88A040DB-0DDE-476E-A893-43A5ACC598BC}" destId="{CDF1389A-B2CD-4C46-B243-34E3ADB34998}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{62B2CD7D-49DA-45BE-8625-680C5FEDC89C}" type="presOf" srcId="{33C838EA-B751-4A1A-B87F-3AA5A77F984F}" destId="{E390B133-2936-4014-B597-9BC47D24BE6B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{677A387E-9159-42CA-956E-26252ADE7090}" type="presOf" srcId="{E81863FC-20A4-4CF8-A256-6695A2A38C77}" destId="{866DB733-E76A-4E4F-9592-F11CC31276D9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EB95BC80-5921-42CB-85FD-D62BC05FE5BB}" type="presOf" srcId="{92E1F4FF-B563-4838-BD96-20CEB82ED3E9}" destId="{CEA40C88-76A1-44DE-8F6E-784CDB58EB00}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5BA20782-81FB-40FD-A833-CA69D148B6ED}" srcId="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" destId="{827B92E6-4F37-4761-B09E-1C82A79FF748}" srcOrd="5" destOrd="0" parTransId="{C31644ED-4946-482F-864F-EAE845B31A9D}" sibTransId="{7A1BD86E-5282-49A5-A03E-5B7AF826E9D0}"/>
+    <dgm:cxn modelId="{94D2C383-7CAA-4D72-910D-D9F8FBBA36C3}" type="presOf" srcId="{C99666F4-5BFD-460C-BA05-2DFA6F8D03F0}" destId="{63693E52-359A-4347-9440-4C024B81E5CF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{36DBB685-EE75-4C31-BC31-95D8E9898A25}" type="presOf" srcId="{F2B39B56-3807-4BA8-88B8-E89E27C8BF76}" destId="{6DA43952-88B6-48AF-810E-E7CBDE37902F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9621FF86-A835-42F7-AC40-789D5C957C6A}" type="presOf" srcId="{C31644ED-4946-482F-864F-EAE845B31A9D}" destId="{427A2331-B94C-4B0B-82B5-B6C2480C85C7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{82E0048A-B41E-40BD-8652-C2FC091D84BF}" srcId="{DB378607-1FDF-4AB7-B42B-EED36811809D}" destId="{CBC04149-341A-4D99-91CB-43EF62E60828}" srcOrd="0" destOrd="0" parTransId="{A1E6B2AE-9288-4715-89CD-DD8599947A82}" sibTransId="{F4758DD6-61B2-4543-942B-1A8AAF459421}"/>
     <dgm:cxn modelId="{F2C0F78A-D27F-4FC3-8CCD-A38A50E8C6DF}" type="presOf" srcId="{82D0E1FB-CD3B-4841-ABF0-12355EA98061}" destId="{FB725D6A-3E91-4E22-833D-4F5634C72367}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FBABDC8E-81A9-4798-A8DD-902859E3CF2D}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{59F323DE-3CDB-4E04-BEE0-E11126C13760}" srcOrd="2" destOrd="0" parTransId="{E8B381F9-82E4-4BA1-BF98-549C47F1C41B}" sibTransId="{86CD0E14-D9A9-492B-A9D6-1B1C79FDEA64}"/>
-    <dgm:cxn modelId="{285B8C8F-8694-4DCF-BD95-6354CDDD3A27}" type="presOf" srcId="{51AC16F0-DA20-4DC3-84AE-32BE3B1DF6CB}" destId="{6FF38E61-B3E2-4F0A-90A3-D62057C9CAEA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E4852890-825D-4FAD-A291-30AD67A04C68}" type="presOf" srcId="{0E232663-3D1B-4AA7-ADC6-363BDD7A8678}" destId="{8B1BA511-364D-4E6C-A362-1B7745DC4F3E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4DBEE890-E436-48E1-9683-5A152B8DEC23}" type="presOf" srcId="{DB378607-1FDF-4AB7-B42B-EED36811809D}" destId="{7B47C914-72BE-4F62-9C2E-12CF21A8E83A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8D09AF8C-CC80-45E4-B937-76313C6EDB9A}" type="presOf" srcId="{1222E797-51BC-4808-9803-C4DBEF4523B6}" destId="{947FD5DD-80C6-403D-A5CC-C2F7FE143852}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0B294A8D-2835-4C82-ABBB-BBF1ECCCDA43}" type="presOf" srcId="{D7DCD192-8FFD-4D8E-85CE-37643FF04371}" destId="{D400B591-6471-4822-B3DB-C7243FB1546C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{63F5688E-B1C1-4216-A753-24B92A4FF83A}" type="presOf" srcId="{56ADA179-3797-4DBD-9B08-F0A70020A727}" destId="{94290531-1910-468F-B0CE-97EF7D4A3A4B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FBABDC8E-81A9-4798-A8DD-902859E3CF2D}" srcId="{2AAF25AC-50F5-4A0B-954D-5DF1EE1DF5FC}" destId="{59F323DE-3CDB-4E04-BEE0-E11126C13760}" srcOrd="2" destOrd="0" parTransId="{E8B381F9-82E4-4BA1-BF98-549C47F1C41B}" sibTransId="{86CD0E14-D9A9-492B-A9D6-1B1C79FDEA64}"/>
+    <dgm:cxn modelId="{F5D2C490-0F30-41C4-BE67-E886476F3B83}" srcId="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" destId="{9CCF6B7D-251F-4828-816A-F1567CB3E7F6}" srcOrd="2" destOrd="0" parTransId="{760FCA46-A6DF-421F-87D1-ADFE62A093E1}" sibTransId="{DBE4F669-82BB-4BE0-95A8-0667A641C4E8}"/>
     <dgm:cxn modelId="{6DDFC594-C8EC-4E71-9AD9-677D21449231}" type="presOf" srcId="{707A3F11-402B-43F2-BE75-F7AF559AFB0B}" destId="{2A7CC2BA-0FC9-4CD9-BB35-A0667BC55DAF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A5B26698-9FF6-4838-B32B-DF1D2DE8548C}" srcId="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" destId="{0CC0EB63-A5B9-4D54-B346-B718C9C87FD8}" srcOrd="4" destOrd="0" parTransId="{0F40B954-4C30-4177-B91D-0CC9093705A9}" sibTransId="{B1255331-2891-442C-ACC5-B63667792577}"/>
+    <dgm:cxn modelId="{87A80895-FFC6-4B0C-980E-F1B662DAD5BB}" type="presOf" srcId="{0CC0EB63-A5B9-4D54-B346-B718C9C87FD8}" destId="{5514013A-36AA-49CD-AD13-9FE9DA0855FC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{38E4E096-220B-440B-8703-4F1D05E07516}" srcId="{9A480F3E-5EC8-4AA4-9475-87D22A7478DB}" destId="{C537ECE3-ECBA-458F-BEC2-81A4AE454A8E}" srcOrd="0" destOrd="0" parTransId="{E81863FC-20A4-4CF8-A256-6695A2A38C77}" sibTransId="{CA1F7962-50D2-45B6-B1DF-B61FABB10269}"/>
+    <dgm:cxn modelId="{01B03D97-585A-462D-B1DC-FABC54748287}" type="presOf" srcId="{818D61FE-AF3C-4673-B80D-16A6F6B48EAB}" destId="{539CD19F-B507-43F8-8B69-696757B8AEE1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A5B26698-9FF6-4838-B32B-DF1D2DE8548C}" srcId="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" destId="{0CC0EB63-A5B9-4D54-B346-B718C9C87FD8}" srcOrd="1" destOrd="0" parTransId="{0F40B954-4C30-4177-B91D-0CC9093705A9}" sibTransId="{B1255331-2891-442C-ACC5-B63667792577}"/>
     <dgm:cxn modelId="{59A52F99-4415-458C-A215-02B16C062A3A}" srcId="{B0301F61-AD5C-47D5-A0BF-86A1195B21FD}" destId="{15ED58BC-EAB0-452C-AF65-18D994EC87CE}" srcOrd="0" destOrd="0" parTransId="{46430AE2-EE53-4162-9A16-832B3A892CAC}" sibTransId="{E97B49DC-E2DF-4D70-8ACC-D1293C4FAE3B}"/>
-    <dgm:cxn modelId="{580C6799-DCE0-45B6-BC1D-5938D16AA49B}" type="presOf" srcId="{DA1CF6E6-B372-4E44-97A1-12CC43D83F6E}" destId="{6F433DDF-7859-4E30-A0E4-52B9C0E0E6CE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E3D883A0-EC84-4D72-8285-46952DEA801A}" type="presOf" srcId="{E9C94A81-E7B0-4A8A-A6F9-D68DA57DA3D0}" destId="{16D0A96D-5947-4316-979D-83BD4B809E68}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D49C7EA0-841A-4B84-AB93-C6C6151BF57B}" type="presOf" srcId="{9C0F506E-355C-4303-ACA6-5601A3D75C9E}" destId="{EB19449F-7B18-4773-A67B-B0247C8D04B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{574757A1-8695-45D3-A8B3-68FD7B74A411}" type="presOf" srcId="{9CCF6B7D-251F-4828-816A-F1567CB3E7F6}" destId="{924C4054-9E9C-4C29-88B7-4BD4C5A58BD0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EAC81DA2-4A9E-4863-814C-95B16FAD906F}" type="presOf" srcId="{2AAF25AC-50F5-4A0B-954D-5DF1EE1DF5FC}" destId="{52A54182-1557-4757-9198-4093866FA4B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{141D55A3-6919-419B-95AD-294D157C6C5A}" srcId="{B0301F61-AD5C-47D5-A0BF-86A1195B21FD}" destId="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" srcOrd="2" destOrd="0" parTransId="{9C0F506E-355C-4303-ACA6-5601A3D75C9E}" sibTransId="{420B8DA8-1616-4F0A-9BD5-6206C3E2C849}"/>
     <dgm:cxn modelId="{68A97BA4-63FC-45E6-86F0-26D77F05EE48}" srcId="{B0301F61-AD5C-47D5-A0BF-86A1195B21FD}" destId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" srcOrd="1" destOrd="0" parTransId="{7C728B5C-DB83-41A8-9F3D-58F7CCF74323}" sibTransId="{75C92070-F7EE-4375-8EE2-0CC43164DEDA}"/>
     <dgm:cxn modelId="{BBEA44A5-E1A9-483F-B53B-6BD80C6398A7}" srcId="{199696F9-A481-47E8-97D7-231969864596}" destId="{B0301F61-AD5C-47D5-A0BF-86A1195B21FD}" srcOrd="0" destOrd="0" parTransId="{28811DE5-456E-4252-9A8D-9A0053CA0628}" sibTransId="{55A750A7-E730-4B20-9D2F-459F06E10775}"/>
-    <dgm:cxn modelId="{81F847A6-AECD-4E41-943E-E11FC349E877}" type="presOf" srcId="{1222E797-51BC-4808-9803-C4DBEF4523B6}" destId="{947FD5DD-80C6-403D-A5CC-C2F7FE143852}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{7776AAA6-4A45-4F6B-B10F-6D833B521F6C}" type="presOf" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{8A4A1206-04E9-49D7-9D18-12789D041DC4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AB2C5BA8-1A03-4A9C-9FC2-16E9CFBD8EED}" type="presOf" srcId="{B95E29F4-05A1-4062-9F04-83EA59720DD5}" destId="{D9417BE7-7CC8-4D8B-BAB1-FE318D2EC86F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{08ACAAA7-1902-4A21-A613-284076259E46}" type="presOf" srcId="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" destId="{1CE6E7D6-2A83-4C01-A9CD-672A0460654E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{049AC9A7-B89D-4CC1-B47F-9EB11F844A1E}" type="presOf" srcId="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}" destId="{35466965-823D-4E6A-8DEE-89E5210F9072}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F40A97AC-11FC-4C22-90D5-05103903FBF2}" type="presOf" srcId="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" destId="{07FCE7E0-4FF0-4A2A-947F-6D3E585184D5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D57CD6AC-DC4E-4467-9023-B1C22D62E129}" type="presOf" srcId="{218BEFF9-0CB1-4562-87AE-045B65703BEB}" destId="{AB3090E0-E841-4C14-8AD8-7F9172C970AA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{EBD043AD-FC12-4881-A1FD-3268CD2373C4}" srcId="{DB378607-1FDF-4AB7-B42B-EED36811809D}" destId="{254CBD21-7852-44C2-B44E-F42FEF563BCF}" srcOrd="1" destOrd="0" parTransId="{88A040DB-0DDE-476E-A893-43A5ACC598BC}" sibTransId="{0AF2B87F-6355-4C38-869E-4BB4C8552304}"/>
-    <dgm:cxn modelId="{1BCE10AF-FE09-48E9-9908-A450C4FB0C26}" type="presOf" srcId="{33C838EA-B751-4A1A-B87F-3AA5A77F984F}" destId="{E390B133-2936-4014-B597-9BC47D24BE6B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CD156AB0-6AED-46E6-B1E0-50C197A04F94}" type="presOf" srcId="{32054C3E-D430-41A6-8E60-2B2E95A64CE3}" destId="{DD07FEFD-0224-4DD6-9F63-1F11E2838841}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{81A1C8B2-6283-4C95-BAA0-73D688855E03}" type="presOf" srcId="{DEE449F7-DEAE-4DE2-9438-2B263BAF9764}" destId="{F949FE92-C53D-4769-9544-0EC98302E37D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8BD96DB4-B73B-4933-B5DA-56CD3C1FF1E2}" type="presOf" srcId="{6340EEB0-4083-4786-A333-40A13E1FFD3F}" destId="{12739CD6-508A-4932-98E6-F8F497FDF41F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7C5164B7-A0B7-4175-B1C4-6CC6A27441E6}" type="presOf" srcId="{254CBD21-7852-44C2-B44E-F42FEF563BCF}" destId="{A2D97956-ADB7-4357-B6E6-2255C823E4D6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{885A59B7-A04B-42BE-9760-59BF8F9AE997}" type="presOf" srcId="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" destId="{5F420B1B-E127-4BD0-9CDF-6D62F35B52B1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F2E483B7-75B3-4A49-AEB2-21F310C578C4}" type="presOf" srcId="{218BEFF9-0CB1-4562-87AE-045B65703BEB}" destId="{AB3090E0-E841-4C14-8AD8-7F9172C970AA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CC6FE9BB-83E4-465A-AF8B-E932B34038A9}" type="presOf" srcId="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}" destId="{35466965-823D-4E6A-8DEE-89E5210F9072}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C7C8B0BD-3DB1-4B85-9A78-6AAFD6A73BCE}" srcId="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" destId="{8ADEFEEA-973C-4DC7-9477-98F23BB04400}" srcOrd="1" destOrd="0" parTransId="{33F0195F-C936-46DB-B379-21EA376BAF58}" sibTransId="{C8AFE9A4-DB4C-4BB8-9097-4EE98CF0B0B9}"/>
+    <dgm:cxn modelId="{4603B7B4-E0B9-4703-A3DC-62DD93AE9AEE}" type="presOf" srcId="{3DB7FB21-67E3-46BC-80E3-B6BF208A7AE6}" destId="{A2D3262F-80BD-4BCA-BC20-F8A39D4288A3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{65C511B6-D8C8-40F8-81F9-94398719A72C}" type="presOf" srcId="{F9044475-2B89-43C0-A6D8-749AC7CEDDD4}" destId="{E64D60CA-5F55-4C3C-9AD5-9C65DCECB7A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8C540EB7-8EA9-4982-9396-9FC38D4F91D0}" srcId="{C5A87849-A902-4A00-9829-AB73F5A36AA7}" destId="{68518888-C1E3-4D79-9361-1CA74F77A8BC}" srcOrd="0" destOrd="0" parTransId="{D89FC85F-DF22-4F54-ADC8-AF394CAE7BB5}" sibTransId="{351C111F-936D-4CB5-8C69-3FF991CA6A24}"/>
+    <dgm:cxn modelId="{FBA1B2B8-DAFD-4F8A-B9D7-C299CDF63C38}" type="presOf" srcId="{4A11099B-D1FC-437A-A08B-551ED3CED2D5}" destId="{E457BD99-B1A3-407D-8063-040D15DC5ECB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6E0CDEB8-1D4A-4198-9E0D-33D0B32B3C0D}" type="presOf" srcId="{A744AF3E-56A1-4E25-9719-1B24D905F4CA}" destId="{4E14FB1C-6B3D-4833-9719-A987CA720A07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1EAB88BA-4782-4E93-92CE-C71B051F24EB}" type="presOf" srcId="{126ACA6C-F94F-4220-A823-BA69E5AEE957}" destId="{2783D103-A96C-4CB3-A745-4F157277AF32}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A2A5A7BA-BD19-4913-98EC-A8DACBAE0B4A}" type="presOf" srcId="{33F0195F-C936-46DB-B379-21EA376BAF58}" destId="{D5D24E6B-AC13-40E2-9BE5-422B65ED839C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3A5AB6BA-3B88-408C-8593-5BFE7FBA9F67}" type="presOf" srcId="{2AAF25AC-50F5-4A0B-954D-5DF1EE1DF5FC}" destId="{AFF65883-788C-4D94-8959-3E12018561A1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A2DC51BB-E40E-44D4-B629-99283F48C1BC}" type="presOf" srcId="{254CBD21-7852-44C2-B44E-F42FEF563BCF}" destId="{7A787200-72FA-4966-BEF2-D11DA95DBBB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3431A5BB-51F5-43A5-B5D8-BE2904D03A72}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{9A480F3E-5EC8-4AA4-9475-87D22A7478DB}" srcOrd="1" destOrd="0" parTransId="{92E1F4FF-B563-4838-BD96-20CEB82ED3E9}" sibTransId="{2FA63F5D-0745-4E9D-BD68-9945C3C58E54}"/>
+    <dgm:cxn modelId="{4F8726BC-F9FD-49FA-A385-1828E06C957A}" type="presOf" srcId="{D7F2D407-40E2-45EE-8220-E0770131F78C}" destId="{4A68206F-0940-459D-AC3D-D850D9BC067B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{37D393BC-E0A5-47EF-A55E-AAB0B53CD370}" type="presOf" srcId="{8FF027C2-53CB-4E8E-9B8E-27D5A8EB3C4F}" destId="{96F9CE1E-394E-41D0-B714-F956A27CCAFC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C7C8B0BD-3DB1-4B85-9A78-6AAFD6A73BCE}" srcId="{68518888-C1E3-4D79-9361-1CA74F77A8BC}" destId="{8ADEFEEA-973C-4DC7-9477-98F23BB04400}" srcOrd="1" destOrd="0" parTransId="{33F0195F-C936-46DB-B379-21EA376BAF58}" sibTransId="{C8AFE9A4-DB4C-4BB8-9097-4EE98CF0B0B9}"/>
+    <dgm:cxn modelId="{A1E5C6BE-46CF-4E9F-AEEA-C212C85FAE21}" type="presOf" srcId="{D7F2D407-40E2-45EE-8220-E0770131F78C}" destId="{8CF05AD2-8753-40BE-9143-9C258AE5ACBF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{371A06C0-C590-4498-BB20-EFA5CDFB5DE6}" type="presOf" srcId="{15ED58BC-EAB0-452C-AF65-18D994EC87CE}" destId="{21376E0B-F4BC-4314-9BAF-6F44C7A1E04B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{768AF5C0-00AC-4076-94F3-C94DD08F516B}" type="presOf" srcId="{CF47C41B-AC30-419A-AC9A-03668F0F1406}" destId="{FAD50408-6556-4404-9E09-756E82E115AD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A38A84C0-CD60-4990-9EA4-D9B360B0CB21}" type="presOf" srcId="{59F323DE-3CDB-4E04-BEE0-E11126C13760}" destId="{3CB0A418-7204-44C6-8304-90026C31C1B2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E0105BC1-FFCD-49FD-9D59-731B2B868846}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{2AAF25AC-50F5-4A0B-954D-5DF1EE1DF5FC}" srcOrd="0" destOrd="0" parTransId="{ADF0B4CA-231C-4024-90F9-6D9E2ECA10D0}" sibTransId="{31821B95-6F4C-4D26-84A4-565F3BDF8A41}"/>
+    <dgm:cxn modelId="{D6B083C2-FF44-47BD-9300-2D560DA3DA56}" type="presOf" srcId="{430B3B83-587C-4071-8700-3B45B20F5A7C}" destId="{22606EB7-9099-43D6-9995-CC5321CFD6B7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8FE4E5C4-BCD7-40E2-83E5-EE561700E819}" type="presOf" srcId="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" destId="{620D5145-C15D-4E2D-8449-BC224938536A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AC1897C6-21E7-4782-BD4C-9942DDCED53F}" type="presOf" srcId="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" destId="{E5174C63-306D-4CB3-BE44-C639AB96C012}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DD53F4C6-7B9F-4AAF-A2ED-E5E21351A7E7}" type="presOf" srcId="{7689A440-A126-4B98-A5C8-F3E32A88619E}" destId="{2AE78620-5BC6-4A2B-8220-A18D57CF0F6A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A0811DC9-6B8B-40C6-BB6D-4943ED801F11}" type="presOf" srcId="{8B40A1A7-B8E2-4749-ACF5-4CED71C4CE31}" destId="{FDC01EBF-9D24-4E6F-AB9D-D3EEA705C0EA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A77E37C9-577F-471B-99CB-DB8DA04DA744}" type="presOf" srcId="{B7D0B726-8476-4698-BDB3-E17485501444}" destId="{5968C7B2-359C-4F60-9B07-30F151F0C20A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{75FAE8CB-7909-4B05-A352-7377344E2B19}" type="presOf" srcId="{A338E343-038D-40A8-9999-C1A96567CC29}" destId="{5DC16AF1-E34F-4CA1-B968-9F93645567DB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6F0CD4CD-4A34-4677-8C8E-DB77295CCCD1}" type="presOf" srcId="{B7D0B726-8476-4698-BDB3-E17485501444}" destId="{FEE9DB09-07A6-4CD6-A2CA-FDE3E71DFBAD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3DBDEECD-0383-4531-8E02-B9C0C1211C05}" type="presOf" srcId="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" destId="{620D5145-C15D-4E2D-8449-BC224938536A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D70F3FD0-5558-4FC2-AFD0-2137FD864D3E}" type="presOf" srcId="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" destId="{E5174C63-306D-4CB3-BE44-C639AB96C012}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8C7D69D4-DD28-4CDD-A8FB-86767C18EA4E}" type="presOf" srcId="{0CC0EB63-A5B9-4D54-B346-B718C9C87FD8}" destId="{666C3FA4-73CF-416F-B185-D165FA22646F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{73EC9ACF-56F1-4B0B-8361-E6CE9CA5D52E}" type="presOf" srcId="{81C86F21-F172-4278-AE39-BA8EDEC926CB}" destId="{FD7A41DE-0184-44D2-B2FD-0BFDBC59A384}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{496FD1CF-D477-4525-BC5C-B1F49DAC2CD0}" type="presOf" srcId="{B95E29F4-05A1-4062-9F04-83EA59720DD5}" destId="{C927A751-DF32-47D0-8B31-9E3DFC4C6030}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0BFD09D0-D35A-4C5F-812E-B8F101E1B106}" type="presOf" srcId="{6EBD9637-6ED8-42BF-B143-E509665EB61A}" destId="{542905B1-C562-4D74-BC4D-F2A72C40D629}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{05B616D1-526B-4A42-AC90-04B90D220626}" type="presOf" srcId="{2FA64668-6B15-40D0-9177-00FDA112C9BC}" destId="{D00A2B2B-163D-4C7F-874A-2B6FC6AD6098}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E3FAA3D4-59AA-4C80-AFD2-CB454DC1291D}" type="presOf" srcId="{41944FC7-2FB2-4EE5-9322-AC58D1EC4677}" destId="{788E2445-8325-487F-859D-B967A8595816}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{CCB9BFD4-D6F7-4B24-A809-11BF83EFB00C}" type="presOf" srcId="{DEE449F7-DEAE-4DE2-9438-2B263BAF9764}" destId="{4D6CB506-1FAC-475E-A501-165D0169C82F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7D04BBD5-FBF9-46D4-9BF7-B444CB09795C}" type="presOf" srcId="{A338E343-038D-40A8-9999-C1A96567CC29}" destId="{94D8271F-3BE6-491D-B73E-6FD55E62D45A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5F5931D7-3CB0-4104-8F4C-76596B903A6A}" srcId="{15ED58BC-EAB0-452C-AF65-18D994EC87CE}" destId="{707A3F11-402B-43F2-BE75-F7AF559AFB0B}" srcOrd="3" destOrd="0" parTransId="{BA85E40E-D685-47EA-81AF-21AF26AF269D}" sibTransId="{F845DF16-4762-458F-8D80-2EBBD3A728B3}"/>
-    <dgm:cxn modelId="{C7F347D9-3BDF-4624-93EC-6392B18944CD}" type="presOf" srcId="{E8B381F9-82E4-4BA1-BF98-549C47F1C41B}" destId="{2B2B1C63-60F4-404A-AB64-159DDC253014}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B66417DA-D8B4-48B6-A09D-0D377990A26F}" type="presOf" srcId="{818D61FE-AF3C-4673-B80D-16A6F6B48EAB}" destId="{539CD19F-B507-43F8-8B69-696757B8AEE1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0F918FDA-0E24-4AE5-A905-8C3AE08C7F1C}" type="presOf" srcId="{8D4B80DF-DDB7-455F-B9CB-3DFD2E1D87F2}" destId="{4CB8FC9C-4E8E-4531-830A-48D6E1BD85F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0FA0AFE0-07F0-40A2-B123-49450B0007EE}" type="presOf" srcId="{A1E6B2AE-9288-4715-89CD-DD8599947A82}" destId="{2F1F425F-805D-4C91-AEE2-686E6CD761B0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{97B06AD7-1AF3-4568-9ED9-FBA73A1BF8BF}" type="presOf" srcId="{68518888-C1E3-4D79-9361-1CA74F77A8BC}" destId="{2996539B-C8CA-43F1-B4B8-E3B752A31A52}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CFBFE5D7-87C7-4A23-95EF-10715A48C064}" type="presOf" srcId="{8ADEFEEA-973C-4DC7-9477-98F23BB04400}" destId="{08BBE401-FFBE-4432-8F5B-6C1F8499C2B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AF82D6DC-C46A-4DDA-B6B7-89AD1B4D4718}" type="presOf" srcId="{DB378607-1FDF-4AB7-B42B-EED36811809D}" destId="{4D8F30DD-D9FC-4B03-AEEF-58C80353DCFF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{7AB454E2-903C-4D18-A755-2349FF5BDB2B}" srcId="{B0301F61-AD5C-47D5-A0BF-86A1195B21FD}" destId="{DB378607-1FDF-4AB7-B42B-EED36811809D}" srcOrd="4" destOrd="0" parTransId="{DA1CF6E6-B372-4E44-97A1-12CC43D83F6E}" sibTransId="{A7BFE519-B753-4760-8522-AFA289CE10BE}"/>
+    <dgm:cxn modelId="{EB3E9BE2-EF27-4CB5-A3D0-422A7A2E7FEB}" type="presOf" srcId="{ADF0B4CA-231C-4024-90F9-6D9E2ECA10D0}" destId="{72EF4293-06E2-4408-B42B-18EE7288EFCB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4A98A9E2-0642-4712-AD62-2F7FD7495AC8}" type="presOf" srcId="{48CDA55B-46C5-42A6-BB9E-3D7B932AA746}" destId="{1BC3A466-ACC6-45DC-8A4C-1F6374D44F54}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{727F4AE3-6D25-4EA7-8F30-ABEFD268A5E0}" type="presOf" srcId="{E427178B-A81D-4FF3-9F31-672B8A3A5314}" destId="{F0BE861A-FA85-4F12-9ACC-72B5091A1B53}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{84A1F1E3-C543-479E-9662-052E85D86FC2}" type="presOf" srcId="{080285D6-A3F3-4D30-8FA5-6A40C0084DE9}" destId="{8E924C6E-6BEF-404C-A57E-3A3F1A179C9F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D9103AE4-5844-484E-B94A-9B842FB89C52}" srcId="{A338E343-038D-40A8-9999-C1A96567CC29}" destId="{4A11099B-D1FC-437A-A08B-551ED3CED2D5}" srcOrd="1" destOrd="0" parTransId="{6EBD9637-6ED8-42BF-B143-E509665EB61A}" sibTransId="{7F0C5ACF-58DB-431B-BB44-0743443046BB}"/>
     <dgm:cxn modelId="{D51F69E5-82C3-411A-A37E-DA5DF3BC8F91}" srcId="{15ED58BC-EAB0-452C-AF65-18D994EC87CE}" destId="{82D0E1FB-CD3B-4841-ABF0-12355EA98061}" srcOrd="1" destOrd="0" parTransId="{8B40A1A7-B8E2-4749-ACF5-4CED71C4CE31}" sibTransId="{AA2D6514-F272-4F7E-9094-9C5C2065D6AB}"/>
-    <dgm:cxn modelId="{6AAB4AE6-FB4C-4C4A-A604-0A4AF4881779}" type="presOf" srcId="{59F323DE-3CDB-4E04-BEE0-E11126C13760}" destId="{F1EBA6BB-C3FE-479D-A63D-A1D2C29A0DCC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{23EEE0E7-0FF3-42D2-87D9-A4913D278D05}" type="presOf" srcId="{218BEFF9-0CB1-4562-87AE-045B65703BEB}" destId="{F329B41D-22CD-4343-B47A-9A688206E247}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B11F2BEC-CAFE-49EE-8B90-D3C6099D7AF6}" type="presOf" srcId="{F9044475-2B89-43C0-A6D8-749AC7CEDDD4}" destId="{5E2E63A2-EB8E-4A65-8622-D5F89D86327D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E5A74BED-5CD7-45E8-A7E8-87AFA874B28A}" type="presOf" srcId="{41944FC7-2FB2-4EE5-9322-AC58D1EC4677}" destId="{788E2445-8325-487F-859D-B967A8595816}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AF9BB1ED-E534-4E80-BAC2-A648F0825604}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" srcOrd="6" destOrd="0" parTransId="{51AC16F0-DA20-4DC3-84AE-32BE3B1DF6CB}" sibTransId="{BF08DC65-AE5C-47A1-9EBA-109B6157B7C3}"/>
-    <dgm:cxn modelId="{82987FEE-913C-4527-B48C-04A6317740CF}" srcId="{B37824E7-5CB2-4283-A566-19D30BEEBB6D}" destId="{B95E29F4-05A1-4062-9F04-83EA59720DD5}" srcOrd="1" destOrd="0" parTransId="{0675CFBD-CF16-4380-BB62-E10A10D67E14}" sibTransId="{31E6D290-4ECE-4DE3-9113-C03B35B8EB68}"/>
-    <dgm:cxn modelId="{C4D032EF-7346-4E11-A66B-9D0C5E1E8017}" type="presOf" srcId="{D7F2D407-40E2-45EE-8220-E0770131F78C}" destId="{8CF05AD2-8753-40BE-9143-9C258AE5ACBF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E8354CEF-8DE0-49CE-9F9B-2971170307A0}" type="presOf" srcId="{6EBD9637-6ED8-42BF-B143-E509665EB61A}" destId="{542905B1-C562-4D74-BC4D-F2A72C40D629}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CC4CD4E5-C16B-4D7B-AF87-8B4C7AC6B21B}" type="presOf" srcId="{51AC16F0-DA20-4DC3-84AE-32BE3B1DF6CB}" destId="{6FF38E61-B3E2-4F0A-90A3-D62057C9CAEA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4A2BDFEA-70EB-4BB0-9DC7-A47569B67C51}" type="presOf" srcId="{2FA64668-6B15-40D0-9177-00FDA112C9BC}" destId="{DADA450E-2A00-4026-81FE-8FA18B9FE4A8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{831909EC-66B2-4363-B0E6-35C377674973}" type="presOf" srcId="{CF47C41B-AC30-419A-AC9A-03668F0F1406}" destId="{FAD50408-6556-4404-9E09-756E82E115AD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AF9BB1ED-E534-4E80-BAC2-A648F0825604}" srcId="{9A480F3E-5EC8-4AA4-9475-87D22A7478DB}" destId="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" srcOrd="1" destOrd="0" parTransId="{51AC16F0-DA20-4DC3-84AE-32BE3B1DF6CB}" sibTransId="{BF08DC65-AE5C-47A1-9EBA-109B6157B7C3}"/>
+    <dgm:cxn modelId="{82987FEE-913C-4527-B48C-04A6317740CF}" srcId="{2AAF25AC-50F5-4A0B-954D-5DF1EE1DF5FC}" destId="{B95E29F4-05A1-4062-9F04-83EA59720DD5}" srcOrd="1" destOrd="0" parTransId="{0675CFBD-CF16-4380-BB62-E10A10D67E14}" sibTransId="{31E6D290-4ECE-4DE3-9113-C03B35B8EB68}"/>
+    <dgm:cxn modelId="{2F4ABBEF-5BB1-4DB3-BD3D-C82D4B3A5690}" type="presOf" srcId="{126ACA6C-F94F-4220-A823-BA69E5AEE957}" destId="{63FEBFA0-B1AC-4BEC-97DB-33536B4F3778}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1DBA2DF0-4459-48C3-A127-5DF098273E2F}" srcId="{15ED58BC-EAB0-452C-AF65-18D994EC87CE}" destId="{67FB556B-FE07-4831-967D-26BB62516C4F}" srcOrd="2" destOrd="0" parTransId="{765B54D9-2C89-416E-AD2B-D9B1FD23EF9A}" sibTransId="{013EC726-37E6-47BF-863E-CFE64BEDFC4D}"/>
-    <dgm:cxn modelId="{36A08FF0-B863-4F59-9FE9-A8D6DD3C4AC0}" type="presOf" srcId="{8D4B80DF-DDB7-455F-B9CB-3DFD2E1D87F2}" destId="{EA6709F0-2E38-43CF-B1F1-3C352234C2FA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E54AE5F7-0CE7-47C6-9513-83C61C6C630C}" type="presOf" srcId="{0CC0EB63-A5B9-4D54-B346-B718C9C87FD8}" destId="{5514013A-36AA-49CD-AD13-9FE9DA0855FC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{03F77CF1-C489-4FEB-8875-AC9FB3EA6065}" type="presOf" srcId="{0F40B954-4C30-4177-B91D-0CC9093705A9}" destId="{CF3A6BED-DA23-45A5-927F-492BECB20BF1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{73FA8EF2-702C-4DC3-9F4B-949F6A650F4D}" type="presOf" srcId="{3835BA4F-DB97-4738-BF19-05CFF41CF6A2}" destId="{27166336-5F1D-490E-9AFE-183688D629EE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2DA8ACF2-95E9-4458-83AB-B833485F98B6}" type="presOf" srcId="{C99666F4-5BFD-460C-BA05-2DFA6F8D03F0}" destId="{D409A906-B74A-4CE0-92A7-609E826FCFDC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FE747EF3-D625-46C6-91EA-1FECCF614744}" srcId="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" destId="{81C86F21-F172-4278-AE39-BA8EDEC926CB}" srcOrd="3" destOrd="0" parTransId="{3C8883BB-5063-46DD-ABA5-43682449A99D}" sibTransId="{13BCABB5-88E4-4D42-9B3C-640C3388C67F}"/>
+    <dgm:cxn modelId="{D13234F7-CD76-4560-806D-4515571B9BE3}" type="presOf" srcId="{59F323DE-3CDB-4E04-BEE0-E11126C13760}" destId="{F1EBA6BB-C3FE-479D-A63D-A1D2C29A0DCC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4BF69EF8-2730-4F76-B7F7-6C8A53824E06}" srcId="{B0301F61-AD5C-47D5-A0BF-86A1195B21FD}" destId="{A338E343-038D-40A8-9999-C1A96567CC29}" srcOrd="3" destOrd="0" parTransId="{8FF027C2-53CB-4E8E-9B8E-27D5A8EB3C4F}" sibTransId="{94FB1422-7968-4DFA-84A3-2B78008FD73C}"/>
-    <dgm:cxn modelId="{F7F402FF-7B5C-4CE6-B8B0-8504ECF1E490}" type="presOf" srcId="{33F0195F-C936-46DB-B379-21EA376BAF58}" destId="{D5D24E6B-AC13-40E2-9BE5-422B65ED839C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{87C647F9-FC0F-46B3-A465-84D12026C255}" srcId="{75BFE602-ABA6-4E77-99CB-95B68AE08C83}" destId="{3DB7FB21-67E3-46BC-80E3-B6BF208A7AE6}" srcOrd="4" destOrd="0" parTransId="{D9C5BC92-B67C-4617-8C64-B5553F47FB47}" sibTransId="{3BFB0FA2-B672-4FC7-BE15-BEACF15BA432}"/>
+    <dgm:cxn modelId="{B541D7F9-B0B9-4BB4-9E5E-3E8AD8B7B93C}" type="presOf" srcId="{8B563EB0-83FF-47C8-9D4F-3921DF2DC349}" destId="{4426836E-20BC-4096-ABAA-4663E865D64B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{83FD90FA-246F-4BDC-A565-8EE46B034D00}" type="presOf" srcId="{E8B381F9-82E4-4BA1-BF98-549C47F1C41B}" destId="{2B2B1C63-60F4-404A-AB64-159DDC253014}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A3776F6E-B7D0-4F50-9ABB-D2B8258AF9CB}" type="presParOf" srcId="{BF2F1A77-FE8F-4DFC-B5E0-6697A231424C}" destId="{C7F9638F-03B5-483A-B1F7-D914CD8E793A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5FF7EDC2-B057-4B03-90BB-222225F0BFED}" type="presParOf" srcId="{C7F9638F-03B5-483A-B1F7-D914CD8E793A}" destId="{DF998CD2-E36F-40AA-8345-4D963085682D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5D663F98-D571-4A90-87E7-FC6525E829FE}" type="presParOf" srcId="{DF998CD2-E36F-40AA-8345-4D963085682D}" destId="{E0E543A8-FEB8-4BD2-999A-4E4E8FBA257D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -3111,161 +4085,252 @@
     <dgm:cxn modelId="{E8FEBD76-AC2D-44F4-B480-0DCE8BB13BB2}" type="presParOf" srcId="{A3712E13-C85D-4BF0-B97C-0613E206349A}" destId="{8A4A1206-04E9-49D7-9D18-12789D041DC4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{7E889451-E597-4759-AFAA-61656131D875}" type="presParOf" srcId="{A3712E13-C85D-4BF0-B97C-0613E206349A}" destId="{135DC469-4E1C-458E-A25A-B4C8F73040B3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{38EE2991-4382-4B76-9378-25C14E011EB3}" type="presParOf" srcId="{F38E5F58-B211-41E0-8A39-487425ADB22D}" destId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DD7D0BB3-D317-49B2-951D-255ACEE96EBC}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{4E14FB1C-6B3D-4833-9719-A987CA720A07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0DED2F92-E4A7-4CB6-91D3-27D1402980CF}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{F376B89F-7D44-4CA0-8073-7F5EBE5FC98E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2508CF4D-78AF-442B-AFC6-CEE5920323A9}" type="presParOf" srcId="{F376B89F-7D44-4CA0-8073-7F5EBE5FC98E}" destId="{3722C673-ED4E-4E75-9C60-A15F1AAB86C1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8A09354D-46DC-4D04-BE20-77A9B5B08828}" type="presParOf" srcId="{3722C673-ED4E-4E75-9C60-A15F1AAB86C1}" destId="{AB3090E0-E841-4C14-8AD8-7F9172C970AA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DBDA1F93-5AF0-40D9-B551-611FEA772966}" type="presParOf" srcId="{3722C673-ED4E-4E75-9C60-A15F1AAB86C1}" destId="{F329B41D-22CD-4343-B47A-9A688206E247}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F816ED7E-4F22-4348-8F9C-EBE6D21522AD}" type="presParOf" srcId="{F376B89F-7D44-4CA0-8073-7F5EBE5FC98E}" destId="{BDD2624E-E33B-4AF8-ACDA-137CC4B3DA4B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A8415F74-5C9D-4C78-819B-F918DB3179AA}" type="presParOf" srcId="{F376B89F-7D44-4CA0-8073-7F5EBE5FC98E}" destId="{D8DFE772-3EDC-4C07-8C6B-45041BD8DDA9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6FBEE2DA-AEAE-4A90-9E22-DA3E6C05C1CC}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{8E272E94-DF17-4B6C-8BCE-6F9C71923A10}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BC10D888-626E-4081-A162-3E1B48C6247A}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{DE79F432-D502-4698-8127-47D638EA363C}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F37E8352-1668-4A58-9D41-D31568680C2B}" type="presParOf" srcId="{DE79F432-D502-4698-8127-47D638EA363C}" destId="{371BEA68-7FEE-4FBD-850E-D60B7E22DB51}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9D3142C7-71A8-464E-BD6C-0927AC0B5511}" type="presParOf" srcId="{371BEA68-7FEE-4FBD-850E-D60B7E22DB51}" destId="{C927A751-DF32-47D0-8B31-9E3DFC4C6030}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{04CAA3E8-ABFE-43C8-8D2D-22CA8B0FF534}" type="presParOf" srcId="{371BEA68-7FEE-4FBD-850E-D60B7E22DB51}" destId="{D9417BE7-7CC8-4D8B-BAB1-FE318D2EC86F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DFF61F5B-1FA1-4E9F-88C7-DB75D168F598}" type="presParOf" srcId="{DE79F432-D502-4698-8127-47D638EA363C}" destId="{CADCF956-9740-4CEE-AB99-F593C7DBF72C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{14BF0FEC-AFD7-4780-B99D-E9BE26AEF66C}" type="presParOf" srcId="{DE79F432-D502-4698-8127-47D638EA363C}" destId="{8F854DA7-9F0A-4DAB-B59F-E44AFDCD762F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4F0D4D96-5FB0-4CE1-9D05-8CA9220D79A7}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{2B2B1C63-60F4-404A-AB64-159DDC253014}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EB12E0E3-83B1-4676-9C92-908DB6F6CF66}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{EE1AADD1-75CE-4938-B4BF-474D980585BB}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C1C3F6F9-B3BA-4AF3-A8A7-02C331165EAF}" type="presParOf" srcId="{EE1AADD1-75CE-4938-B4BF-474D980585BB}" destId="{60E09D75-6A21-4E51-BE64-BD3DFD0586BE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{785591E2-8DC2-4227-A188-1B06ACA2F9B0}" type="presParOf" srcId="{60E09D75-6A21-4E51-BE64-BD3DFD0586BE}" destId="{3CB0A418-7204-44C6-8304-90026C31C1B2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{075AE654-7FB5-47C8-83CB-3687E21F53EF}" type="presParOf" srcId="{60E09D75-6A21-4E51-BE64-BD3DFD0586BE}" destId="{F1EBA6BB-C3FE-479D-A63D-A1D2C29A0DCC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{293E82C8-6B1E-4610-9644-3ADB99AE92E8}" type="presParOf" srcId="{EE1AADD1-75CE-4938-B4BF-474D980585BB}" destId="{862AB73F-0E78-441B-935D-80BFE3C9CF21}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C3C6500B-2793-4761-810E-E96CCE07B804}" type="presParOf" srcId="{EE1AADD1-75CE-4938-B4BF-474D980585BB}" destId="{04BC1851-4351-49B3-9585-5FC2AF46572D}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9D34CD3E-C52B-4AFA-81F4-CD7E4246CE77}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{7BED290C-5CD7-473D-B4D3-B9A4CCC743D0}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1F84337B-0A35-4E1C-815A-84335B9FB284}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{DDAF6DFE-953C-4E90-823D-060355D21504}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C9A5C678-CD70-48BE-B0FF-0C35CAAF245A}" type="presParOf" srcId="{DDAF6DFE-953C-4E90-823D-060355D21504}" destId="{931B644F-3086-4E99-9614-A808C5E17C67}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4172797E-1235-447F-AB75-C93C636FEA53}" type="presParOf" srcId="{931B644F-3086-4E99-9614-A808C5E17C67}" destId="{FEE9DB09-07A6-4CD6-A2CA-FDE3E71DFBAD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2A606AB9-342F-487F-91A6-5A9F46F04910}" type="presParOf" srcId="{931B644F-3086-4E99-9614-A808C5E17C67}" destId="{5968C7B2-359C-4F60-9B07-30F151F0C20A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5D310067-C390-4B2A-8ED5-9E23875E13C1}" type="presParOf" srcId="{DDAF6DFE-953C-4E90-823D-060355D21504}" destId="{3C4C364D-6C0C-457B-9916-9D3648408D04}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9B26A1BE-2D7C-447C-AC4A-61C2CE1ABFC3}" type="presParOf" srcId="{DDAF6DFE-953C-4E90-823D-060355D21504}" destId="{B5C3A50A-B424-4023-8416-C4F22547A053}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{57273EF6-616C-4920-AC1C-1CA2949F82B7}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{DD07FEFD-0224-4DD6-9F63-1F11E2838841}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{515AA15B-12D8-456E-8691-C688C38AB802}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{53411DBB-0C9F-4C59-880F-5FD2CA8D5FA8}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A01B944F-D584-44B7-B940-187B813CA4C0}" type="presParOf" srcId="{53411DBB-0C9F-4C59-880F-5FD2CA8D5FA8}" destId="{6C88E544-B4C0-4609-A1AF-C7299BDBD7CB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9B1A5EF6-AD93-4D60-9AE2-7B94D5BE91B3}" type="presParOf" srcId="{6C88E544-B4C0-4609-A1AF-C7299BDBD7CB}" destId="{4A68206F-0940-459D-AC3D-D850D9BC067B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B134272B-F814-4BE8-BC81-35F634259AF6}" type="presParOf" srcId="{6C88E544-B4C0-4609-A1AF-C7299BDBD7CB}" destId="{8CF05AD2-8753-40BE-9143-9C258AE5ACBF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AFAF5039-D5EF-4F84-8B59-5C7B1AFA08AE}" type="presParOf" srcId="{53411DBB-0C9F-4C59-880F-5FD2CA8D5FA8}" destId="{1F72E7B2-76A3-4C99-B7E8-A5A9CD20B378}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DD388A56-1460-454F-BA88-DDBF4DA22BD1}" type="presParOf" srcId="{53411DBB-0C9F-4C59-880F-5FD2CA8D5FA8}" destId="{15C3F820-CC3B-4694-A4C1-317FEF707857}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3F280E98-A38C-42DD-A906-5241D11E1DAF}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{94290531-1910-468F-B0CE-97EF7D4A3A4B}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{891D6A63-B44C-4FAC-AA93-12F94DB4C3B4}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{F2AD44E0-622F-4F4B-B6ED-B5C1D485E799}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7016A22A-C9EB-4A57-9F87-61B9832292B8}" type="presParOf" srcId="{F2AD44E0-622F-4F4B-B6ED-B5C1D485E799}" destId="{408E018A-45E2-4CDA-B0FA-FDAEA18E5F13}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DFA9FE70-DAA5-4B08-BBDF-E83E0C21E4AE}" type="presParOf" srcId="{408E018A-45E2-4CDA-B0FA-FDAEA18E5F13}" destId="{35466965-823D-4E6A-8DEE-89E5210F9072}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D5ECE7D1-FA00-4E03-9079-398F00174599}" type="presParOf" srcId="{408E018A-45E2-4CDA-B0FA-FDAEA18E5F13}" destId="{1BC3A466-ACC6-45DC-8A4C-1F6374D44F54}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9FD0609C-A7F1-4E08-AD14-35603C8AB7F2}" type="presParOf" srcId="{F2AD44E0-622F-4F4B-B6ED-B5C1D485E799}" destId="{59467145-FE1C-48D9-9700-E9990CE5102A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E3FD7771-28D9-48C9-A7B5-3CB7AA1CAB44}" type="presParOf" srcId="{F2AD44E0-622F-4F4B-B6ED-B5C1D485E799}" destId="{77105D9C-6488-44D0-B57E-C8F5FE2D0333}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5CFCD448-1648-404A-9313-8583368460CC}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{6FF38E61-B3E2-4F0A-90A3-D62057C9CAEA}" srcOrd="12" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A8B7ED5D-F524-4E84-BC93-3A4929A51CEC}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{1FA747E4-138F-465D-B3BA-21CF7D108E78}" srcOrd="13" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4A915734-90D0-4938-B080-08EE11737184}" type="presParOf" srcId="{1FA747E4-138F-465D-B3BA-21CF7D108E78}" destId="{3A06AA8A-F435-4DA1-A1A9-0B03FEE9E49A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DAED3E4E-7494-42A1-B849-C2C389A26A74}" type="presParOf" srcId="{3A06AA8A-F435-4DA1-A1A9-0B03FEE9E49A}" destId="{620D5145-C15D-4E2D-8449-BC224938536A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{41EB1508-A83F-4633-B0FB-027377944AE8}" type="presParOf" srcId="{3A06AA8A-F435-4DA1-A1A9-0B03FEE9E49A}" destId="{E5174C63-306D-4CB3-BE44-C639AB96C012}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3046873C-630A-418B-B7BC-B92A7C22038F}" type="presParOf" srcId="{1FA747E4-138F-465D-B3BA-21CF7D108E78}" destId="{660853D3-CA1A-4446-819B-7F2B542E2ECC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{80A05D5C-BB9F-4DFD-A182-449C459F7DAD}" type="presParOf" srcId="{1FA747E4-138F-465D-B3BA-21CF7D108E78}" destId="{2A3FED38-7322-466D-B283-D014DD75DC8F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D9DF9E70-1496-4BC7-A9E8-97EC3C843B5D}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{72EF4293-06E2-4408-B42B-18EE7288EFCB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FAF6D526-F169-4EE8-B326-775637DBAEB7}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{F098AC6B-FBE7-4689-8E9F-CCCC6A5A3B58}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F826F45D-D844-458D-A2F8-FFF32BC3A54A}" type="presParOf" srcId="{F098AC6B-FBE7-4689-8E9F-CCCC6A5A3B58}" destId="{3421FDC4-EA90-4BFC-BFD6-74B769CE3317}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C5F20CA6-6FF5-4BEF-8766-F5D65D152924}" type="presParOf" srcId="{3421FDC4-EA90-4BFC-BFD6-74B769CE3317}" destId="{52A54182-1557-4757-9198-4093866FA4B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DC043F17-7BAE-480D-9DD7-43F78029B1F8}" type="presParOf" srcId="{3421FDC4-EA90-4BFC-BFD6-74B769CE3317}" destId="{AFF65883-788C-4D94-8959-3E12018561A1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{120F31F8-AF00-4DEF-AF1C-128D9FC70848}" type="presParOf" srcId="{F098AC6B-FBE7-4689-8E9F-CCCC6A5A3B58}" destId="{43742F07-2254-473D-89CA-BA75D893F803}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{55FB5A98-5525-4DA7-8185-1CA0EE6441D2}" type="presParOf" srcId="{43742F07-2254-473D-89CA-BA75D893F803}" destId="{4E14FB1C-6B3D-4833-9719-A987CA720A07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AF909B0A-88AC-4714-BD35-41691473A04D}" type="presParOf" srcId="{43742F07-2254-473D-89CA-BA75D893F803}" destId="{F376B89F-7D44-4CA0-8073-7F5EBE5FC98E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2BC9D93D-A34B-4B73-A682-F470C29BD956}" type="presParOf" srcId="{F376B89F-7D44-4CA0-8073-7F5EBE5FC98E}" destId="{3722C673-ED4E-4E75-9C60-A15F1AAB86C1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F61B657C-DD8A-41A4-9DD7-CC3544546DC1}" type="presParOf" srcId="{3722C673-ED4E-4E75-9C60-A15F1AAB86C1}" destId="{AB3090E0-E841-4C14-8AD8-7F9172C970AA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B6AEC229-0812-46B7-9DF9-A32F1802122B}" type="presParOf" srcId="{3722C673-ED4E-4E75-9C60-A15F1AAB86C1}" destId="{F329B41D-22CD-4343-B47A-9A688206E247}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FCA5FCFF-C5B4-4EAF-B4E2-0313025A0116}" type="presParOf" srcId="{F376B89F-7D44-4CA0-8073-7F5EBE5FC98E}" destId="{BDD2624E-E33B-4AF8-ACDA-137CC4B3DA4B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0F6234FC-8878-49E0-9D26-28FF8A60CC16}" type="presParOf" srcId="{F376B89F-7D44-4CA0-8073-7F5EBE5FC98E}" destId="{D8DFE772-3EDC-4C07-8C6B-45041BD8DDA9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{561143F2-188A-492E-8380-209C76047981}" type="presParOf" srcId="{43742F07-2254-473D-89CA-BA75D893F803}" destId="{8E272E94-DF17-4B6C-8BCE-6F9C71923A10}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{51BF926B-7117-4952-96C2-0ED2CBFF92E3}" type="presParOf" srcId="{43742F07-2254-473D-89CA-BA75D893F803}" destId="{DE79F432-D502-4698-8127-47D638EA363C}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{32835285-0EA5-4DCA-805C-24D8D1AB9BA1}" type="presParOf" srcId="{DE79F432-D502-4698-8127-47D638EA363C}" destId="{371BEA68-7FEE-4FBD-850E-D60B7E22DB51}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5CAB529D-B349-48B3-883F-81C90FE5FB22}" type="presParOf" srcId="{371BEA68-7FEE-4FBD-850E-D60B7E22DB51}" destId="{C927A751-DF32-47D0-8B31-9E3DFC4C6030}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{11A677B5-3FA4-4B92-8D9B-DB06075F99A4}" type="presParOf" srcId="{371BEA68-7FEE-4FBD-850E-D60B7E22DB51}" destId="{D9417BE7-7CC8-4D8B-BAB1-FE318D2EC86F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7B2E4416-419B-4431-8A6F-1BC18AE2A568}" type="presParOf" srcId="{DE79F432-D502-4698-8127-47D638EA363C}" destId="{CADCF956-9740-4CEE-AB99-F593C7DBF72C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4D6A713D-59E3-4C1D-9EC3-3ACC802A00D3}" type="presParOf" srcId="{DE79F432-D502-4698-8127-47D638EA363C}" destId="{8F854DA7-9F0A-4DAB-B59F-E44AFDCD762F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9559F204-7AED-412A-A312-5CD195CD3D2F}" type="presParOf" srcId="{43742F07-2254-473D-89CA-BA75D893F803}" destId="{2B2B1C63-60F4-404A-AB64-159DDC253014}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ABDAB281-6C28-4217-B1D3-315B0079F476}" type="presParOf" srcId="{43742F07-2254-473D-89CA-BA75D893F803}" destId="{EE1AADD1-75CE-4938-B4BF-474D980585BB}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{592E1FBD-95D3-4838-B8EE-87C2FF68BEC8}" type="presParOf" srcId="{EE1AADD1-75CE-4938-B4BF-474D980585BB}" destId="{60E09D75-6A21-4E51-BE64-BD3DFD0586BE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EE19B314-DB91-496C-B2AD-04AA01DF403D}" type="presParOf" srcId="{60E09D75-6A21-4E51-BE64-BD3DFD0586BE}" destId="{3CB0A418-7204-44C6-8304-90026C31C1B2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1B44B055-BE33-4AD9-B1BB-D07D17E52F84}" type="presParOf" srcId="{60E09D75-6A21-4E51-BE64-BD3DFD0586BE}" destId="{F1EBA6BB-C3FE-479D-A63D-A1D2C29A0DCC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A066FBC3-160D-4F7F-B13C-E3159C7E7AD9}" type="presParOf" srcId="{EE1AADD1-75CE-4938-B4BF-474D980585BB}" destId="{862AB73F-0E78-441B-935D-80BFE3C9CF21}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A47EC956-A085-4CEA-A8C4-B6BB7C305623}" type="presParOf" srcId="{EE1AADD1-75CE-4938-B4BF-474D980585BB}" destId="{04BC1851-4351-49B3-9585-5FC2AF46572D}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B02322C4-D3AC-4F61-856C-C75FCF00B8F1}" type="presParOf" srcId="{F098AC6B-FBE7-4689-8E9F-CCCC6A5A3B58}" destId="{D0490120-0AA0-436F-B49C-1BF5A9736370}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3FB48047-39BC-42A8-9399-8C8A50CB42CB}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{CEA40C88-76A1-44DE-8F6E-784CDB58EB00}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3AC5396F-4461-4ADC-9779-86A91E46DFB2}" type="presParOf" srcId="{20BAA1D1-49CC-4E54-9864-A86FD845649F}" destId="{F4D99B21-1CFB-4790-B81D-4D258D48BEE1}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B8F36B3A-6F9D-46F3-A9BA-F3333996B9DA}" type="presParOf" srcId="{F4D99B21-1CFB-4790-B81D-4D258D48BEE1}" destId="{2CAAAE91-D35D-4C2B-B94E-1B9C230A60D7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5C87E767-BE1E-4F11-8E44-32B190A4BC22}" type="presParOf" srcId="{2CAAAE91-D35D-4C2B-B94E-1B9C230A60D7}" destId="{FC7EEA8C-069E-49FB-A599-F4D87BE587FC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5AAB603E-CC4D-4E6E-8B69-78BFFAE8EA8C}" type="presParOf" srcId="{2CAAAE91-D35D-4C2B-B94E-1B9C230A60D7}" destId="{776F2418-A328-4FFB-B2A6-03E70BE4A26B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2FC06E2F-BBDC-442B-97D3-10CA2CF5D7C8}" type="presParOf" srcId="{F4D99B21-1CFB-4790-B81D-4D258D48BEE1}" destId="{7CA2FF91-B135-4702-A142-5691E3B81A5B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{013FE753-9F69-469D-B3FC-87F0D1326D9B}" type="presParOf" srcId="{7CA2FF91-B135-4702-A142-5691E3B81A5B}" destId="{866DB733-E76A-4E4F-9592-F11CC31276D9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2A5FEE10-F731-48A1-AC47-DB709E540796}" type="presParOf" srcId="{7CA2FF91-B135-4702-A142-5691E3B81A5B}" destId="{9BF62960-689A-4F04-A91C-27FC0F696D42}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2C03978C-C533-41C6-84BF-5E77A46EE6AD}" type="presParOf" srcId="{9BF62960-689A-4F04-A91C-27FC0F696D42}" destId="{4D3B691D-6E70-4CB5-B986-C51D03A0805C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F7095EBD-332F-4200-80BB-3531CB3E0341}" type="presParOf" srcId="{4D3B691D-6E70-4CB5-B986-C51D03A0805C}" destId="{566D694E-5418-4E16-9BA7-47823AAB65D0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{46B3C0E9-9FB1-46DA-953A-D7D436320F5C}" type="presParOf" srcId="{4D3B691D-6E70-4CB5-B986-C51D03A0805C}" destId="{F6A6CFC5-8A1D-40A9-97C0-AF7A1030771B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{627D169B-048D-4567-A093-EB0552C1431F}" type="presParOf" srcId="{9BF62960-689A-4F04-A91C-27FC0F696D42}" destId="{9C90BF51-BF84-44BF-A1F5-86E583205BCA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EFE132C5-D2C0-4BF3-A09F-92B0CE379798}" type="presParOf" srcId="{9C90BF51-BF84-44BF-A1F5-86E583205BCA}" destId="{DD07FEFD-0224-4DD6-9F63-1F11E2838841}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{83C51585-D540-462D-818A-25A8C1F54516}" type="presParOf" srcId="{9C90BF51-BF84-44BF-A1F5-86E583205BCA}" destId="{53411DBB-0C9F-4C59-880F-5FD2CA8D5FA8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FFF28819-AE4A-4362-A960-F00719338388}" type="presParOf" srcId="{53411DBB-0C9F-4C59-880F-5FD2CA8D5FA8}" destId="{6C88E544-B4C0-4609-A1AF-C7299BDBD7CB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DD43D2FD-1C41-465E-9979-8F7D1EBE8DC6}" type="presParOf" srcId="{6C88E544-B4C0-4609-A1AF-C7299BDBD7CB}" destId="{4A68206F-0940-459D-AC3D-D850D9BC067B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9F3FCB1D-D37E-499B-B80F-5A2F1E1A8C51}" type="presParOf" srcId="{6C88E544-B4C0-4609-A1AF-C7299BDBD7CB}" destId="{8CF05AD2-8753-40BE-9143-9C258AE5ACBF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4D5FF650-FFD7-4874-81CC-36FDBF60C035}" type="presParOf" srcId="{53411DBB-0C9F-4C59-880F-5FD2CA8D5FA8}" destId="{1F72E7B2-76A3-4C99-B7E8-A5A9CD20B378}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AEBDF920-BC89-4A98-9376-CCFF55C08BBE}" type="presParOf" srcId="{53411DBB-0C9F-4C59-880F-5FD2CA8D5FA8}" destId="{15C3F820-CC3B-4694-A4C1-317FEF707857}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{16C04C58-43D2-4FCA-9B19-59E6B4B16CBA}" type="presParOf" srcId="{9C90BF51-BF84-44BF-A1F5-86E583205BCA}" destId="{94290531-1910-468F-B0CE-97EF7D4A3A4B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{37201089-9941-4488-A11C-63225EDF2EE9}" type="presParOf" srcId="{9C90BF51-BF84-44BF-A1F5-86E583205BCA}" destId="{F2AD44E0-622F-4F4B-B6ED-B5C1D485E799}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{21815986-CFF2-47B0-AA3C-82B1FBC3E41C}" type="presParOf" srcId="{F2AD44E0-622F-4F4B-B6ED-B5C1D485E799}" destId="{408E018A-45E2-4CDA-B0FA-FDAEA18E5F13}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4D443AFB-9F30-4C94-A56A-C6BDFCEBEA9E}" type="presParOf" srcId="{408E018A-45E2-4CDA-B0FA-FDAEA18E5F13}" destId="{35466965-823D-4E6A-8DEE-89E5210F9072}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CE412E34-4FE3-4DD4-B221-B449E3E08907}" type="presParOf" srcId="{408E018A-45E2-4CDA-B0FA-FDAEA18E5F13}" destId="{1BC3A466-ACC6-45DC-8A4C-1F6374D44F54}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{412C8883-0E1A-49A7-9720-8F6CC3FAA084}" type="presParOf" srcId="{F2AD44E0-622F-4F4B-B6ED-B5C1D485E799}" destId="{59467145-FE1C-48D9-9700-E9990CE5102A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{93BE2714-0770-4B8C-B9E8-726F82E77068}" type="presParOf" srcId="{F2AD44E0-622F-4F4B-B6ED-B5C1D485E799}" destId="{77105D9C-6488-44D0-B57E-C8F5FE2D0333}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2473261E-0569-4BA7-903F-96BA5EC57DA0}" type="presParOf" srcId="{9C90BF51-BF84-44BF-A1F5-86E583205BCA}" destId="{6DA43952-88B6-48AF-810E-E7CBDE37902F}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EE051290-264B-4A97-B35A-6A15A64663CB}" type="presParOf" srcId="{9C90BF51-BF84-44BF-A1F5-86E583205BCA}" destId="{C36B3312-3C96-4455-B9D5-46D3DA8E25B1}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{95853A93-74C5-452D-9855-4DA08A326712}" type="presParOf" srcId="{C36B3312-3C96-4455-B9D5-46D3DA8E25B1}" destId="{CC662A19-8F43-4DC4-8342-35A2E6210586}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{81DCD2CD-A885-4905-9814-54442F521650}" type="presParOf" srcId="{CC662A19-8F43-4DC4-8342-35A2E6210586}" destId="{1F3594B8-7664-4F15-ACC9-C93095FC8575}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4FECFB5A-CD06-4DE6-B968-AD4BED814B8D}" type="presParOf" srcId="{CC662A19-8F43-4DC4-8342-35A2E6210586}" destId="{DE4ECF28-7D34-4080-A01A-3BB6A8D43DA7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F20D9A96-D6A0-41B6-BF31-85ED30A8D20A}" type="presParOf" srcId="{C36B3312-3C96-4455-B9D5-46D3DA8E25B1}" destId="{E4BCA7DB-E0E2-46FC-A4E4-EB69B98E249A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{01E483DC-8055-42E3-8BFB-60FAC0AA2B84}" type="presParOf" srcId="{C36B3312-3C96-4455-B9D5-46D3DA8E25B1}" destId="{943D8E79-8759-40EF-8158-F6F195CFC29F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F54CA606-5E11-4A16-9254-2CB68B4C1D00}" type="presParOf" srcId="{9C90BF51-BF84-44BF-A1F5-86E583205BCA}" destId="{4426836E-20BC-4096-ABAA-4663E865D64B}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5A3BDF4D-F921-4AEE-87B7-611192D12E46}" type="presParOf" srcId="{9C90BF51-BF84-44BF-A1F5-86E583205BCA}" destId="{00ED8C12-CC87-457F-8A84-4E844575EBC1}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F48FC59D-0F0E-454D-9674-35E87ACF7F0B}" type="presParOf" srcId="{00ED8C12-CC87-457F-8A84-4E844575EBC1}" destId="{976EBB56-7F80-4E25-86D2-DA8B7ABB8BD6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{05D25CBA-3CDC-4D22-BEF8-99D0141A7E3C}" type="presParOf" srcId="{976EBB56-7F80-4E25-86D2-DA8B7ABB8BD6}" destId="{63FEBFA0-B1AC-4BEC-97DB-33536B4F3778}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AB1F2C1C-A35F-4A7A-A762-BAB774F3DB56}" type="presParOf" srcId="{976EBB56-7F80-4E25-86D2-DA8B7ABB8BD6}" destId="{2783D103-A96C-4CB3-A745-4F157277AF32}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{998712F3-F45C-4702-9C1E-51C63C80B16B}" type="presParOf" srcId="{00ED8C12-CC87-457F-8A84-4E844575EBC1}" destId="{39845698-4CDF-43A5-AAA8-67017AFCAE44}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E599D0A7-3FAF-4DFC-A2E3-DBBF2516794A}" type="presParOf" srcId="{00ED8C12-CC87-457F-8A84-4E844575EBC1}" destId="{5845068E-A8A8-4E21-ABC0-4949C8FEBEFF}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A8AB0374-828C-4CE4-A609-6F21B9FE61C5}" type="presParOf" srcId="{9C90BF51-BF84-44BF-A1F5-86E583205BCA}" destId="{97B41E4C-91A0-468B-9A03-7B61FCEC2AF3}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ECE3E5E3-423A-4A7D-A353-C317F1376615}" type="presParOf" srcId="{9C90BF51-BF84-44BF-A1F5-86E583205BCA}" destId="{829D2712-1626-444F-B2D1-04A7D547FE3F}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5DF8EF25-ED18-4321-84C7-5945C0ED7CFF}" type="presParOf" srcId="{829D2712-1626-444F-B2D1-04A7D547FE3F}" destId="{F17565BA-4AC8-4581-A5F3-F63C30182BA5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FCA129E0-260F-484E-ABFB-A32C6A772463}" type="presParOf" srcId="{F17565BA-4AC8-4581-A5F3-F63C30182BA5}" destId="{28AFEDF9-2CBD-41AB-89BD-2AEE38B82614}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C49E8EE6-3F0B-48A5-9765-B393516E0968}" type="presParOf" srcId="{F17565BA-4AC8-4581-A5F3-F63C30182BA5}" destId="{F0BE861A-FA85-4F12-9ACC-72B5091A1B53}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D7FE28F4-D94E-4D6B-9B18-54BC2D1D07BC}" type="presParOf" srcId="{829D2712-1626-444F-B2D1-04A7D547FE3F}" destId="{F50C9D63-503D-4E71-8110-CE7EAB312446}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{56B38FF1-95C8-45F1-ACEC-5D0D74E32EDF}" type="presParOf" srcId="{829D2712-1626-444F-B2D1-04A7D547FE3F}" destId="{25E59793-3A2B-4066-9978-477BF91344A6}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F15AD9F5-F4E9-410E-AC07-D27139B4892E}" type="presParOf" srcId="{9C90BF51-BF84-44BF-A1F5-86E583205BCA}" destId="{BD74E65F-F5A0-4B70-B537-2AF16190D43C}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{28B475EA-880A-40B5-BEE4-D8092D2BA724}" type="presParOf" srcId="{9C90BF51-BF84-44BF-A1F5-86E583205BCA}" destId="{7FD43E7E-AC33-4911-BC03-A13BDF66AC1D}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D827897C-D6B1-4D47-ADAF-CC123B0EBECA}" type="presParOf" srcId="{7FD43E7E-AC33-4911-BC03-A13BDF66AC1D}" destId="{743C3B42-F5DD-4F28-A698-F761E9E07282}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4E3A2113-A17E-45C3-A30B-5F050A3993DA}" type="presParOf" srcId="{743C3B42-F5DD-4F28-A698-F761E9E07282}" destId="{D409A906-B74A-4CE0-92A7-609E826FCFDC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{20054A30-3486-4BEA-9A31-8B7AE6DA7244}" type="presParOf" srcId="{743C3B42-F5DD-4F28-A698-F761E9E07282}" destId="{63693E52-359A-4347-9440-4C024B81E5CF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{867FB6E4-6DF1-4D9F-A6D7-6EAA3259A147}" type="presParOf" srcId="{7FD43E7E-AC33-4911-BC03-A13BDF66AC1D}" destId="{21DF3E9E-C2E2-43D6-839C-61F81AF0F229}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AF9BA1C5-0DB3-4714-8DD0-27CC5ED0C3F8}" type="presParOf" srcId="{7FD43E7E-AC33-4911-BC03-A13BDF66AC1D}" destId="{5974D681-52B3-4BB2-AE01-AD4FAD4A0DD0}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4E598082-5485-458F-A573-A8B1C0C262EA}" type="presParOf" srcId="{9BF62960-689A-4F04-A91C-27FC0F696D42}" destId="{FD453BCD-7CE5-4A27-AA0C-B78D8C505C6F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{53C98B9D-F58E-4FFE-AA4F-DDD50AC91949}" type="presParOf" srcId="{7CA2FF91-B135-4702-A142-5691E3B81A5B}" destId="{6FF38E61-B3E2-4F0A-90A3-D62057C9CAEA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{42AAB0F9-FA20-4252-9CC3-4A9742207427}" type="presParOf" srcId="{7CA2FF91-B135-4702-A142-5691E3B81A5B}" destId="{1FA747E4-138F-465D-B3BA-21CF7D108E78}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{88D10A46-95B8-473D-9200-EA313D626F1E}" type="presParOf" srcId="{1FA747E4-138F-465D-B3BA-21CF7D108E78}" destId="{3A06AA8A-F435-4DA1-A1A9-0B03FEE9E49A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4405F0AC-2404-4FEC-BEED-BA99DCA51B25}" type="presParOf" srcId="{3A06AA8A-F435-4DA1-A1A9-0B03FEE9E49A}" destId="{620D5145-C15D-4E2D-8449-BC224938536A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8D2368A1-F3D5-4AA2-8691-862CE061C10A}" type="presParOf" srcId="{3A06AA8A-F435-4DA1-A1A9-0B03FEE9E49A}" destId="{E5174C63-306D-4CB3-BE44-C639AB96C012}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{664FDB3F-D9C4-43B5-A131-8725C6B16903}" type="presParOf" srcId="{1FA747E4-138F-465D-B3BA-21CF7D108E78}" destId="{660853D3-CA1A-4446-819B-7F2B542E2ECC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6CEFB89D-C095-40AC-A05B-134A7AB47843}" type="presParOf" srcId="{660853D3-CA1A-4446-819B-7F2B542E2ECC}" destId="{2AE78620-5BC6-4A2B-8220-A18D57CF0F6A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AE422CC5-090C-4377-A0F1-D1FD7C5D26AE}" type="presParOf" srcId="{660853D3-CA1A-4446-819B-7F2B542E2ECC}" destId="{32907997-8032-4741-98AD-D26340111ADE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BBB6DA88-14F2-4F3E-8149-A806DCB5DB3D}" type="presParOf" srcId="{32907997-8032-4741-98AD-D26340111ADE}" destId="{93534421-0E47-4215-B44D-6B2575E4FED9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9C95E978-2D8B-4D2A-8E70-DF459F5A7C32}" type="presParOf" srcId="{93534421-0E47-4215-B44D-6B2575E4FED9}" destId="{F98A015D-2E6E-4691-AD0A-E4E15BB913F5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9405895B-9880-414E-83BA-A29874A54EE3}" type="presParOf" srcId="{93534421-0E47-4215-B44D-6B2575E4FED9}" destId="{4F972914-B8F9-4EE2-A22D-8DEA92924F7F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{798BF79A-6878-4805-A3E0-65775045C2D1}" type="presParOf" srcId="{32907997-8032-4741-98AD-D26340111ADE}" destId="{6629BC3A-8619-4129-8FFD-E6EA19664D98}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3421426E-A2C0-40CE-A24E-15C8CA13B2B4}" type="presParOf" srcId="{32907997-8032-4741-98AD-D26340111ADE}" destId="{CA87F808-07A2-44D6-9567-3A9A0F8D6963}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FA716A69-D575-45B3-AC21-F0BED356FCC4}" type="presParOf" srcId="{660853D3-CA1A-4446-819B-7F2B542E2ECC}" destId="{729FB431-C1EC-4104-9514-2F88BF228808}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{52341C8D-E0B7-44F7-944A-CEB11B4E65B1}" type="presParOf" srcId="{660853D3-CA1A-4446-819B-7F2B542E2ECC}" destId="{B1F1A7DF-5EE1-4890-AC74-EE79B00F54F8}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{27CFBF96-8B94-4676-A734-7965ABF850DF}" type="presParOf" srcId="{B1F1A7DF-5EE1-4890-AC74-EE79B00F54F8}" destId="{EE63D761-3D7C-4577-A8CC-2FEE5BEDC2A7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1276C34C-0F5B-4992-AA3A-DC8FA1477C77}" type="presParOf" srcId="{EE63D761-3D7C-4577-A8CC-2FEE5BEDC2A7}" destId="{D400B591-6471-4822-B3DB-C7243FB1546C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C6278B8B-22C6-43D7-9BEA-E181D00C151F}" type="presParOf" srcId="{EE63D761-3D7C-4577-A8CC-2FEE5BEDC2A7}" destId="{FB67A2F1-76CA-4B9A-93FF-A0259BF12773}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{883F5287-5157-4993-91E7-E6ABD5F70AD5}" type="presParOf" srcId="{B1F1A7DF-5EE1-4890-AC74-EE79B00F54F8}" destId="{CDEFFEE8-74B4-4874-B3C4-0CD005A48A14}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{44E578DD-82A5-48EA-AF1B-ECB5DADCB15E}" type="presParOf" srcId="{B1F1A7DF-5EE1-4890-AC74-EE79B00F54F8}" destId="{2386BE57-83B6-4EAD-8B81-061E59032936}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{585FC7C4-42E5-4993-AD4A-8F7656F24D25}" type="presParOf" srcId="{660853D3-CA1A-4446-819B-7F2B542E2ECC}" destId="{F9A75840-6F61-4518-A08A-A6C3C1A0056C}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{81B8DECC-52F8-4081-B090-363C001E061F}" type="presParOf" srcId="{660853D3-CA1A-4446-819B-7F2B542E2ECC}" destId="{7C496C3E-E873-4349-A760-2F8986A285B6}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6D13E0D1-CBFE-483E-90BF-296E175B8300}" type="presParOf" srcId="{7C496C3E-E873-4349-A760-2F8986A285B6}" destId="{4DB5E644-71F7-48EA-B2EE-7070C23E4A7D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{150D86BC-6F8D-477C-99CE-EC980DDB2F60}" type="presParOf" srcId="{4DB5E644-71F7-48EA-B2EE-7070C23E4A7D}" destId="{1066A10C-7FD6-4999-9FFD-796C1B0999A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EE55D1EE-2812-44CF-A95B-66F6D4BB44B6}" type="presParOf" srcId="{4DB5E644-71F7-48EA-B2EE-7070C23E4A7D}" destId="{924C4054-9E9C-4C29-88B7-4BD4C5A58BD0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{764FA288-16FF-483C-A306-1694B144ECE3}" type="presParOf" srcId="{7C496C3E-E873-4349-A760-2F8986A285B6}" destId="{E37E7814-6C55-4706-8896-49282A36771D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AF19E61F-7AD9-4621-A78D-5702A83149FD}" type="presParOf" srcId="{7C496C3E-E873-4349-A760-2F8986A285B6}" destId="{93EF7F1C-372F-4EA3-9A71-E414F71DBF57}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BEEBD645-6E63-4463-9A46-C118C6AA485B}" type="presParOf" srcId="{660853D3-CA1A-4446-819B-7F2B542E2ECC}" destId="{200D2F73-DD79-4DF0-8C60-FC667BBFD8AF}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AC5B7CC5-1DAB-4F2A-AF27-58A95D247A8D}" type="presParOf" srcId="{660853D3-CA1A-4446-819B-7F2B542E2ECC}" destId="{A428C29C-8AB0-495E-A8D7-54A1DD43CC71}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{01F7F53A-CF37-4EE6-B1B0-1CE301CF6A87}" type="presParOf" srcId="{A428C29C-8AB0-495E-A8D7-54A1DD43CC71}" destId="{BC6FE32A-8ACC-4B89-8402-F4765E4B0B5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{565D8C49-9002-421F-B9EB-622B0DFF7547}" type="presParOf" srcId="{BC6FE32A-8ACC-4B89-8402-F4765E4B0B5C}" destId="{A2890600-11C4-445D-BC3D-C20D92B96A25}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D169C219-525A-4016-9F13-F49081F3103B}" type="presParOf" srcId="{BC6FE32A-8ACC-4B89-8402-F4765E4B0B5C}" destId="{FD7A41DE-0184-44D2-B2FD-0BFDBC59A384}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3EC2E774-2C05-4253-816B-7988BA4C364B}" type="presParOf" srcId="{A428C29C-8AB0-495E-A8D7-54A1DD43CC71}" destId="{AA98ABB7-7B44-4BD1-BA55-DE7C27581F5E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{47194141-2ABE-42C2-B08E-0AF55CA6D3A9}" type="presParOf" srcId="{A428C29C-8AB0-495E-A8D7-54A1DD43CC71}" destId="{CC2EC6C0-B8AB-4629-A47E-3DF048F41668}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B0D4D12F-AD68-4454-A335-7A11759F8980}" type="presParOf" srcId="{660853D3-CA1A-4446-819B-7F2B542E2ECC}" destId="{C8E0982C-0A26-4757-BED7-F73090520D23}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{53986034-F539-4A42-883C-07044F517DF0}" type="presParOf" srcId="{660853D3-CA1A-4446-819B-7F2B542E2ECC}" destId="{894971A4-95AF-492D-A42B-4F9AE2F6F031}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1C31A121-5D7A-4C73-BE6E-784096A31D02}" type="presParOf" srcId="{894971A4-95AF-492D-A42B-4F9AE2F6F031}" destId="{995CC593-E887-47AA-B43E-3F5E26C81361}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A3D5394D-BCE6-4F25-A030-975AA232AFAC}" type="presParOf" srcId="{995CC593-E887-47AA-B43E-3F5E26C81361}" destId="{74998690-FBCE-4B33-A71B-1FAD4E33867A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A131AF78-6ED4-425B-B71E-5D79EE570DA3}" type="presParOf" srcId="{995CC593-E887-47AA-B43E-3F5E26C81361}" destId="{A2D3262F-80BD-4BCA-BC20-F8A39D4288A3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3B051F5B-DAEE-4D73-B0A5-291DFBA776C1}" type="presParOf" srcId="{894971A4-95AF-492D-A42B-4F9AE2F6F031}" destId="{51033678-E625-4AC6-8197-6A90CCE3D9F0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{911079CE-BF7B-4A8D-B4DB-ECDCFA136C7D}" type="presParOf" srcId="{894971A4-95AF-492D-A42B-4F9AE2F6F031}" destId="{3AD1E221-732B-4C8D-967D-12DA8F841C14}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{307FA8FA-21E7-4079-98E7-DE1666E166C7}" type="presParOf" srcId="{660853D3-CA1A-4446-819B-7F2B542E2ECC}" destId="{427A2331-B94C-4B0B-82B5-B6C2480C85C7}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8FFBAF36-7FBC-4FE0-93FB-0B3034418769}" type="presParOf" srcId="{660853D3-CA1A-4446-819B-7F2B542E2ECC}" destId="{B7437546-0812-48F7-A707-5D3CB90FC71D}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C64F543D-706A-4914-BB57-4043347BE6F7}" type="presParOf" srcId="{B7437546-0812-48F7-A707-5D3CB90FC71D}" destId="{449278B4-8B3D-4394-8922-7D1D5B6C70AD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CA6166AE-A992-4D47-A310-E0381DEE025B}" type="presParOf" srcId="{449278B4-8B3D-4394-8922-7D1D5B6C70AD}" destId="{B30FF4B7-5E7E-4923-9575-57AD7E4EF46E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6D4B13A7-B495-4612-A827-55C3AF06D3F1}" type="presParOf" srcId="{449278B4-8B3D-4394-8922-7D1D5B6C70AD}" destId="{943722B4-1306-4FC6-A337-40D0F13D0B4E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{34948DFD-45D7-49A2-AE88-30AB8A95E4BD}" type="presParOf" srcId="{B7437546-0812-48F7-A707-5D3CB90FC71D}" destId="{9FF743B2-CDD4-48A0-985A-D05BB6B5AAF3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3C644BEB-D4C9-4D7E-891A-22CCD257321A}" type="presParOf" srcId="{B7437546-0812-48F7-A707-5D3CB90FC71D}" destId="{E0C00A47-5C50-4269-B311-A75BC285728E}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5CDD8CBE-6325-4AE2-9897-B08B3CB9CB78}" type="presParOf" srcId="{1FA747E4-138F-465D-B3BA-21CF7D108E78}" destId="{2A3FED38-7322-466D-B283-D014DD75DC8F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D86DFB4A-272C-49F1-B154-4F70D73DDD21}" type="presParOf" srcId="{F4D99B21-1CFB-4790-B81D-4D258D48BEE1}" destId="{29C81AC7-AA6B-4DDE-9EFA-77596CD252D8}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{036EAC38-EC71-4831-99DC-9AAEA450659A}" type="presParOf" srcId="{F38E5F58-B211-41E0-8A39-487425ADB22D}" destId="{CE6DF0BD-55D5-424F-9A6B-9704DB21498F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4F7AA24C-DB51-4E0D-95FA-111576C3232F}" type="presParOf" srcId="{7F04DC46-0B54-4BB8-B414-D4F165A6E02F}" destId="{27586A14-6521-482B-9AE1-BDB0D4168ED1}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5CA3CFC3-2D30-4286-B281-C0BFF3BB8429}" type="presParOf" srcId="{7F04DC46-0B54-4BB8-B414-D4F165A6E02F}" destId="{A53A7EB4-D6B1-44DC-87BE-FBA6B8BE4030}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D3BB421F-6E09-4777-AAA3-CA2604C0B8C6}" type="presParOf" srcId="{A53A7EB4-D6B1-44DC-87BE-FBA6B8BE4030}" destId="{51F863C3-FC22-4E84-9B36-A822536FCF52}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0FA2EAD1-4793-4E75-921F-31CEB841F2DE}" type="presParOf" srcId="{51F863C3-FC22-4E84-9B36-A822536FCF52}" destId="{825D09E6-8B11-4C46-8E59-3C5C9AFCEF58}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6F31DB33-2A4D-42A2-992D-EF425B4A9851}" type="presParOf" srcId="{51F863C3-FC22-4E84-9B36-A822536FCF52}" destId="{5F420B1B-E127-4BD0-9CDF-6D62F35B52B1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A99C5765-CFEC-4822-8256-14198EDB9A0E}" type="presParOf" srcId="{A53A7EB4-D6B1-44DC-87BE-FBA6B8BE4030}" destId="{A598236B-5B77-478F-944C-105543BCE269}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{072E628C-DB94-41D7-8ED2-D94873F4006F}" type="presParOf" srcId="{A598236B-5B77-478F-944C-105543BCE269}" destId="{12739CD6-508A-4932-98E6-F8F497FDF41F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B658A56A-DB37-4124-88D8-1EDBDA810944}" type="presParOf" srcId="{A598236B-5B77-478F-944C-105543BCE269}" destId="{3A7FE035-F106-4CFA-87F2-6EFA45356F70}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{ACFA6A34-5087-4280-B44E-6844790B3973}" type="presParOf" srcId="{3A7FE035-F106-4CFA-87F2-6EFA45356F70}" destId="{4015CC82-EAF5-4C97-8D00-A2753CAD3DA3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{81C3A10D-6AD9-4B61-BDE0-F6DD12F0C0E0}" type="presParOf" srcId="{4015CC82-EAF5-4C97-8D00-A2753CAD3DA3}" destId="{8B1BA511-364D-4E6C-A362-1B7745DC4F3E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{33DB3930-7F6B-4070-8CD7-5EF09103927D}" type="presParOf" srcId="{4015CC82-EAF5-4C97-8D00-A2753CAD3DA3}" destId="{4947493B-5DC5-401D-A622-E5DF6467E3A2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D5F82BDB-8A53-4618-A014-392B32DE8372}" type="presParOf" srcId="{3A7FE035-F106-4CFA-87F2-6EFA45356F70}" destId="{9C62A280-F340-4778-A527-C6BD69F0F028}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0EB3CFC7-A79B-4EE7-A215-D2A2BE413B5B}" type="presParOf" srcId="{3A7FE035-F106-4CFA-87F2-6EFA45356F70}" destId="{B65F4873-28BC-4D58-8516-2A4A081ABFD5}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4EFE2A44-A0AD-494D-A1F9-212A9CDD3CD4}" type="presParOf" srcId="{A598236B-5B77-478F-944C-105543BCE269}" destId="{D5D24E6B-AC13-40E2-9BE5-422B65ED839C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5A99AC13-5689-48C9-B367-233ADBBEBAAD}" type="presParOf" srcId="{A598236B-5B77-478F-944C-105543BCE269}" destId="{048A4C55-76F4-4253-860D-344FF4112822}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6B67D6BD-5606-4AE0-A16D-CEC7721719B8}" type="presParOf" srcId="{048A4C55-76F4-4253-860D-344FF4112822}" destId="{ABC3CFEB-F1D9-4DE2-A312-213D2F576101}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{21E5F8FB-D782-4934-956A-9CB3A4C8801C}" type="presParOf" srcId="{ABC3CFEB-F1D9-4DE2-A312-213D2F576101}" destId="{08BBE401-FFBE-4432-8F5B-6C1F8499C2B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{22E35FB0-82B2-4046-9FBF-388DAC5C0D0C}" type="presParOf" srcId="{ABC3CFEB-F1D9-4DE2-A312-213D2F576101}" destId="{CF7D5BCC-EEBE-4280-978D-DC8A2ACE9BB4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{07CB3DBB-1105-45A4-B27B-51F9489EE951}" type="presParOf" srcId="{048A4C55-76F4-4253-860D-344FF4112822}" destId="{847EAC92-4E15-47A7-871A-699CCCDA4D76}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B907FA9A-CE74-42AA-9C48-D891B5D9FBDC}" type="presParOf" srcId="{048A4C55-76F4-4253-860D-344FF4112822}" destId="{B0FD0E34-16F9-4482-B1A9-5BCB45872E75}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3821F1AA-E3B3-4B8B-85D5-F608194DE627}" type="presParOf" srcId="{A598236B-5B77-478F-944C-105543BCE269}" destId="{27166336-5F1D-490E-9AFE-183688D629EE}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F3902C70-228D-4304-A176-14C7A8002ADA}" type="presParOf" srcId="{A598236B-5B77-478F-944C-105543BCE269}" destId="{7019D908-511C-4F10-9B0B-F37697490352}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{674C05BE-E4A6-442C-A098-BCC57EF680EE}" type="presParOf" srcId="{7019D908-511C-4F10-9B0B-F37697490352}" destId="{E6F0C22C-26E0-4CDE-8F55-FD1247006167}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1D247C2E-9421-4AD2-95A9-EFFACEB1CDBE}" type="presParOf" srcId="{E6F0C22C-26E0-4CDE-8F55-FD1247006167}" destId="{4CB8FC9C-4E8E-4531-830A-48D6E1BD85F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4F9B6A1C-BE22-43C9-B7A0-4432EFBC180A}" type="presParOf" srcId="{E6F0C22C-26E0-4CDE-8F55-FD1247006167}" destId="{EA6709F0-2E38-43CF-B1F1-3C352234C2FA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{526819A9-AA9E-4AA0-BE28-9F1B28919E69}" type="presParOf" srcId="{7019D908-511C-4F10-9B0B-F37697490352}" destId="{F5A5B608-56B6-40F2-B317-25BC666BF7E6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1D086F5A-BC4B-4FFF-B5D0-58142E163E60}" type="presParOf" srcId="{7019D908-511C-4F10-9B0B-F37697490352}" destId="{B1FF5031-AE4E-4BCF-B852-CA78DF9F79D3}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8263EB95-E934-4022-A653-7FE2D603BE6E}" type="presParOf" srcId="{A598236B-5B77-478F-944C-105543BCE269}" destId="{947FD5DD-80C6-403D-A5CC-C2F7FE143852}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A89EA1C7-B765-490D-B690-8A2AC6DA89D8}" type="presParOf" srcId="{A598236B-5B77-478F-944C-105543BCE269}" destId="{2FA9F37D-4962-4901-A158-B2A9F1465181}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{90637F5B-67FD-435B-9C4B-0CE0079565D5}" type="presParOf" srcId="{2FA9F37D-4962-4901-A158-B2A9F1465181}" destId="{301020D2-C91C-405F-A11C-E6E329F16715}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7526DB8E-70A0-4EE3-92CA-75F16A6A0DF3}" type="presParOf" srcId="{301020D2-C91C-405F-A11C-E6E329F16715}" destId="{32F12FED-C7F7-492D-BBDD-57C948D21A9E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0DFEB823-D0B5-4074-9A0A-E2200B972729}" type="presParOf" srcId="{301020D2-C91C-405F-A11C-E6E329F16715}" destId="{788E2445-8325-487F-859D-B967A8595816}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{379B6EC2-62B8-45C8-A52F-1B5555973C1F}" type="presParOf" srcId="{2FA9F37D-4962-4901-A158-B2A9F1465181}" destId="{6AA164E5-C16E-4E46-9E2C-5EF96FE3CA4F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E4E5C297-7DBE-4215-92CC-8B133FF873A7}" type="presParOf" srcId="{2FA9F37D-4962-4901-A158-B2A9F1465181}" destId="{CF376270-4B28-4516-BF6A-659EFCA82FB5}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D379DEF6-8E8C-4950-8BC8-C3A55BDBFC87}" type="presParOf" srcId="{A598236B-5B77-478F-944C-105543BCE269}" destId="{CF3A6BED-DA23-45A5-927F-492BECB20BF1}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{57AF271D-D56B-4EA8-BCB2-C9EA507DF09A}" type="presParOf" srcId="{A598236B-5B77-478F-944C-105543BCE269}" destId="{E7213548-A30A-47B8-88A6-BDE68066D809}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{168070BF-747A-438C-84A6-796091EA6F5D}" type="presParOf" srcId="{E7213548-A30A-47B8-88A6-BDE68066D809}" destId="{4CC072CA-1833-4EAF-9756-3B50FC1B2400}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4F9CD359-4D09-40DB-A852-76852BE6D5B1}" type="presParOf" srcId="{4CC072CA-1833-4EAF-9756-3B50FC1B2400}" destId="{666C3FA4-73CF-416F-B185-D165FA22646F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F19F3E0A-A68E-4D25-89A1-B8A2D73B49EE}" type="presParOf" srcId="{4CC072CA-1833-4EAF-9756-3B50FC1B2400}" destId="{5514013A-36AA-49CD-AD13-9FE9DA0855FC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D5AEC447-0184-4AD7-AAB9-0813B71A4D6B}" type="presParOf" srcId="{E7213548-A30A-47B8-88A6-BDE68066D809}" destId="{BD44EC62-B39A-4989-B1E3-8E47C4D87BF5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{931B6CDD-E947-4AB0-8439-5AAD6EAECDF2}" type="presParOf" srcId="{E7213548-A30A-47B8-88A6-BDE68066D809}" destId="{B458A643-F3A6-4FAD-B37A-59061C935637}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D7AA959D-64F1-4C7D-9827-EBA24C00976C}" type="presParOf" srcId="{A53A7EB4-D6B1-44DC-87BE-FBA6B8BE4030}" destId="{BE9660A3-4BC9-4AEE-A208-6230CB30BBA7}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{01D3BBF9-D0A2-42F7-887A-D9A603A8FBD4}" type="presParOf" srcId="{7F04DC46-0B54-4BB8-B414-D4F165A6E02F}" destId="{96F9CE1E-394E-41D0-B714-F956A27CCAFC}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A7BD7FB1-B869-4B58-9C87-0B32EB7ABF26}" type="presParOf" srcId="{7F04DC46-0B54-4BB8-B414-D4F165A6E02F}" destId="{87440C1A-C70F-4E06-B7C1-B18A3BD34A7B}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7D87A79E-0022-4A0B-9408-3E14F8F04C2B}" type="presParOf" srcId="{87440C1A-C70F-4E06-B7C1-B18A3BD34A7B}" destId="{81C62E83-84DA-49C3-883E-B845462CCAF3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{15EA1D4A-EDE7-474C-B681-B646DAA5E499}" type="presParOf" srcId="{81C62E83-84DA-49C3-883E-B845462CCAF3}" destId="{94D8271F-3BE6-491D-B73E-6FD55E62D45A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{32AA5647-53FD-467E-8F3B-471703591423}" type="presParOf" srcId="{81C62E83-84DA-49C3-883E-B845462CCAF3}" destId="{5DC16AF1-E34F-4CA1-B968-9F93645567DB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EB553877-227F-45F4-B8F0-809E5E09EBFA}" type="presParOf" srcId="{87440C1A-C70F-4E06-B7C1-B18A3BD34A7B}" destId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8D2FF3AD-C9CC-4D4F-9CDE-9F6E7CA001FF}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{FAD50408-6556-4404-9E09-756E82E115AD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6C8DEE7F-63C6-478B-B8C7-CDEDBFCBF609}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{D236872F-FC1C-4DA5-A86F-D72F968ECD90}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D1DADD1C-C77A-4C19-A6DD-1EB17B7AAD3B}" type="presParOf" srcId="{D236872F-FC1C-4DA5-A86F-D72F968ECD90}" destId="{19EA7E20-4FD7-4D77-9158-46D46E5E3666}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6160594E-00BE-4AB0-8367-E0A2F8DAEC52}" type="presParOf" srcId="{19EA7E20-4FD7-4D77-9158-46D46E5E3666}" destId="{E64D60CA-5F55-4C3C-9AD5-9C65DCECB7A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{884B3931-8FF6-4EFA-AD94-AAD450E78DFB}" type="presParOf" srcId="{19EA7E20-4FD7-4D77-9158-46D46E5E3666}" destId="{5E2E63A2-EB8E-4A65-8622-D5F89D86327D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{01415210-74C5-409A-86BE-BB0D375A2ECB}" type="presParOf" srcId="{D236872F-FC1C-4DA5-A86F-D72F968ECD90}" destId="{D801FAC7-3BF6-4D1A-B5CB-FF0DC78AFF2C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{601CF0D4-7776-4A54-BE75-3947406C0DF2}" type="presParOf" srcId="{D236872F-FC1C-4DA5-A86F-D72F968ECD90}" destId="{B3270F16-9575-431B-A1DA-8DF216723605}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5D7FC113-4CDD-4F6D-8512-1469D8EFB346}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{542905B1-C562-4D74-BC4D-F2A72C40D629}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5546A143-02F0-4203-9BB3-541D7C991B40}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{7A03229D-14AB-45ED-876B-69C710AEAA5C}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6714F1E1-0F7C-45C5-A639-9696DDD0040D}" type="presParOf" srcId="{7A03229D-14AB-45ED-876B-69C710AEAA5C}" destId="{62ED9A6C-AEEE-4494-87DC-A2FE30999BDD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5705E9C1-9FFF-40CB-ADFF-31A8B39FAC74}" type="presParOf" srcId="{62ED9A6C-AEEE-4494-87DC-A2FE30999BDD}" destId="{E457BD99-B1A3-407D-8063-040D15DC5ECB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D1C2C7CC-DD7A-404F-B910-01B5A6AC215E}" type="presParOf" srcId="{62ED9A6C-AEEE-4494-87DC-A2FE30999BDD}" destId="{A6293774-94F6-4610-A233-F0625B454A8D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2277A929-F756-4D55-946C-B628A772B263}" type="presParOf" srcId="{7A03229D-14AB-45ED-876B-69C710AEAA5C}" destId="{128C37E3-57DE-4BC8-AD90-2FF104A9AB7D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{008F3EE3-02EC-4DF8-9A32-ED5422F642B2}" type="presParOf" srcId="{7A03229D-14AB-45ED-876B-69C710AEAA5C}" destId="{7BC0BBF3-449B-481E-9191-0C0D316829FA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C499BBD8-D4EB-4127-9CCA-F9BC3825DA6F}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{16D0A96D-5947-4316-979D-83BD4B809E68}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2796A192-A08C-480C-9BAB-4D5D214DE152}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{8FEB9A00-20ED-4A8D-98F7-995E342CC645}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F05C74B6-9045-42CC-AA94-EA9C1F9D7F9F}" type="presParOf" srcId="{8FEB9A00-20ED-4A8D-98F7-995E342CC645}" destId="{06093229-FE8E-4CD9-915E-CCF1A1CE21F4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7421727C-C9A6-40B2-98B9-100BC71C755A}" type="presParOf" srcId="{06093229-FE8E-4CD9-915E-CCF1A1CE21F4}" destId="{22606EB7-9099-43D6-9995-CC5321CFD6B7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4541E3B4-234B-4B35-8B86-6C847520D660}" type="presParOf" srcId="{06093229-FE8E-4CD9-915E-CCF1A1CE21F4}" destId="{94BC82E4-6E43-41F2-8FBA-143A7A763568}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9707B734-7B45-49BE-B22C-1748990D3BE2}" type="presParOf" srcId="{8FEB9A00-20ED-4A8D-98F7-995E342CC645}" destId="{A572874A-D004-4C59-BE2A-FD4E06B5DB1F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{29E09941-2D6E-4651-89DE-E8F7BDB4E165}" type="presParOf" srcId="{8FEB9A00-20ED-4A8D-98F7-995E342CC645}" destId="{3466EEAA-15FB-4696-B6AE-7156693FA41D}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{588B4DCD-F9F2-4421-BD56-5BA6C45AA6F7}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{539CD19F-B507-43F8-8B69-696757B8AEE1}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{666BBB93-FB75-475B-BBC2-F30BE527F46F}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{4D68A8A4-19C6-45AC-97BB-3E582B903251}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{101DCA6B-C285-4FAC-8CFF-D6E16A061A17}" type="presParOf" srcId="{4D68A8A4-19C6-45AC-97BB-3E582B903251}" destId="{B62A0E69-9F8F-420F-B7BE-3DC69CDCAD1A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{ABB62E2B-FE5A-404C-9B06-C27FC3D477A4}" type="presParOf" srcId="{B62A0E69-9F8F-420F-B7BE-3DC69CDCAD1A}" destId="{D00A2B2B-163D-4C7F-874A-2B6FC6AD6098}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8BF52FD1-F4BA-44F0-B915-72D0AA5BBCC7}" type="presParOf" srcId="{B62A0E69-9F8F-420F-B7BE-3DC69CDCAD1A}" destId="{DADA450E-2A00-4026-81FE-8FA18B9FE4A8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9589119F-83CF-4C58-81AF-74A89149BD76}" type="presParOf" srcId="{4D68A8A4-19C6-45AC-97BB-3E582B903251}" destId="{2DCBAC3C-FCDE-41CF-8EC3-69BDE7661B0D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1E105451-EBF1-473A-A979-416167C34057}" type="presParOf" srcId="{4D68A8A4-19C6-45AC-97BB-3E582B903251}" destId="{4F5D5462-6C6E-446B-84A3-3758430C45C2}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{10E29AF7-62F7-4FB3-96F6-1E04CCCBA079}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{8E924C6E-6BEF-404C-A57E-3A3F1A179C9F}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{189CCBFB-3C3D-4365-A9B9-0EE92F047A4F}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{5B0864A9-4F63-45C8-AAFF-0D7514AF024D}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{24A25497-6DC0-4F09-9728-6B7F755C5D64}" type="presParOf" srcId="{5B0864A9-4F63-45C8-AAFF-0D7514AF024D}" destId="{901845BB-EF47-4C48-BECA-B51F06DE723D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8297B197-48F5-47C9-BDE5-B98EF7CB1E60}" type="presParOf" srcId="{901845BB-EF47-4C48-BECA-B51F06DE723D}" destId="{E390B133-2936-4014-B597-9BC47D24BE6B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D0FEDA7D-0B32-4902-AC2C-0D84AD0B2030}" type="presParOf" srcId="{901845BB-EF47-4C48-BECA-B51F06DE723D}" destId="{50B22FFD-9308-47D6-8900-FF832AF0B49C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8851518E-60B1-494C-8AE7-1D9DC7025DE7}" type="presParOf" srcId="{5B0864A9-4F63-45C8-AAFF-0D7514AF024D}" destId="{7589B095-3EB0-450A-8C71-C1338B23BD24}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5AFBBDDB-BB80-4C77-8C5B-AF89E0692E17}" type="presParOf" srcId="{5B0864A9-4F63-45C8-AAFF-0D7514AF024D}" destId="{0AFD3E39-B8F6-455E-BEE7-FEA9C49789F9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EE2340CF-C328-41CB-967F-30D2BA1445F6}" type="presParOf" srcId="{87440C1A-C70F-4E06-B7C1-B18A3BD34A7B}" destId="{54F0A297-076D-48E4-900E-7ADCAB744FA1}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5F5DD028-AE6B-4AE1-A995-C03B4FD065DE}" type="presParOf" srcId="{7F04DC46-0B54-4BB8-B414-D4F165A6E02F}" destId="{6F433DDF-7859-4E30-A0E4-52B9C0E0E6CE}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E47E2C7F-D7C8-4EDC-8F99-033FACE7A90A}" type="presParOf" srcId="{7F04DC46-0B54-4BB8-B414-D4F165A6E02F}" destId="{6CDA32E0-F6CB-4099-AC77-49586A923A18}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{400CBF61-91AB-470C-8333-D860686CAFD2}" type="presParOf" srcId="{6CDA32E0-F6CB-4099-AC77-49586A923A18}" destId="{B658460A-B90B-4BAD-979D-CC093BF02385}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{ABD4C1BB-2077-4143-9E28-05D852C9CEDA}" type="presParOf" srcId="{B658460A-B90B-4BAD-979D-CC093BF02385}" destId="{7B47C914-72BE-4F62-9C2E-12CF21A8E83A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BCAD3ED5-3205-440C-84CF-F7185C13EDA7}" type="presParOf" srcId="{B658460A-B90B-4BAD-979D-CC093BF02385}" destId="{4D8F30DD-D9FC-4B03-AEEF-58C80353DCFF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{51E6E631-9CDA-4939-A750-4B40AB0F3706}" type="presParOf" srcId="{6CDA32E0-F6CB-4099-AC77-49586A923A18}" destId="{FFE7EC31-4A10-4C4C-92C3-C776B2D8716F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B9F35911-19E3-4A3C-A7EE-096825E4C2FA}" type="presParOf" srcId="{FFE7EC31-4A10-4C4C-92C3-C776B2D8716F}" destId="{2F1F425F-805D-4C91-AEE2-686E6CD761B0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F141BE3F-300E-4BB0-A50C-E4883FD10EFE}" type="presParOf" srcId="{FFE7EC31-4A10-4C4C-92C3-C776B2D8716F}" destId="{C18DBB65-3689-43A6-AF90-4D87DDC9AED1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4FABB9B3-5921-4370-B397-E681C5AA45CB}" type="presParOf" srcId="{C18DBB65-3689-43A6-AF90-4D87DDC9AED1}" destId="{3A8E54F0-B106-4173-922D-C93882969D07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3A8CD1A7-7D8F-4985-B2B8-9C5A6FC73E73}" type="presParOf" srcId="{3A8E54F0-B106-4173-922D-C93882969D07}" destId="{7966E939-933F-4975-B334-EFA0AE682776}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A28F9CBC-0AB8-4CE8-A571-6EDA7A668A42}" type="presParOf" srcId="{3A8E54F0-B106-4173-922D-C93882969D07}" destId="{63968E93-8C6B-49AC-801D-02363D753B51}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{285E3F38-D1E8-432D-BB2B-555B2E100C77}" type="presParOf" srcId="{C18DBB65-3689-43A6-AF90-4D87DDC9AED1}" destId="{84D18496-8D0A-4D50-8800-C0A7D05E8D41}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4B68CECA-32D1-4B79-BBE1-17CBEB87C0D0}" type="presParOf" srcId="{C18DBB65-3689-43A6-AF90-4D87DDC9AED1}" destId="{B4572EB7-B43E-49C8-9B1E-DEA551CD0399}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AEFE084F-CDCC-40E8-8021-51C68F15611E}" type="presParOf" srcId="{FFE7EC31-4A10-4C4C-92C3-C776B2D8716F}" destId="{CDF1389A-B2CD-4C46-B243-34E3ADB34998}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{083B40EE-EEB6-4B1A-8E58-8B45D3BB8AE6}" type="presParOf" srcId="{FFE7EC31-4A10-4C4C-92C3-C776B2D8716F}" destId="{0D7042D2-3242-4F3C-9D6F-CB828D97F9C2}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{29637FB2-8034-4730-ADF9-2943BAD2FDDD}" type="presParOf" srcId="{0D7042D2-3242-4F3C-9D6F-CB828D97F9C2}" destId="{6DBD010D-4BD4-4BBA-90EC-26A642EC815A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EE6E9A1D-8BA8-436F-8834-8ED94EF6FE78}" type="presParOf" srcId="{6DBD010D-4BD4-4BBA-90EC-26A642EC815A}" destId="{7A787200-72FA-4966-BEF2-D11DA95DBBB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3E6C35C3-E64F-4E65-9DD6-A4A1D6FF91D1}" type="presParOf" srcId="{6DBD010D-4BD4-4BBA-90EC-26A642EC815A}" destId="{A2D97956-ADB7-4357-B6E6-2255C823E4D6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7A77114F-6E20-4FD8-BAB4-F0113AFE7BF1}" type="presParOf" srcId="{0D7042D2-3242-4F3C-9D6F-CB828D97F9C2}" destId="{215CD9D6-4605-4618-A531-553D711FB77D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{73183869-D676-4E64-8587-EF8D4EC2E59C}" type="presParOf" srcId="{0D7042D2-3242-4F3C-9D6F-CB828D97F9C2}" destId="{B39A3FAF-B5BC-408C-AC41-CEC06C6D9E45}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C03EFA7B-94CC-410A-A79C-FFF071EBAF08}" type="presParOf" srcId="{6CDA32E0-F6CB-4099-AC77-49586A923A18}" destId="{3E612B33-4121-4F8C-9375-40434BAEF932}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{21ED3201-A504-49F9-BF56-3653C64EE1B9}" type="presParOf" srcId="{7F04DC46-0B54-4BB8-B414-D4F165A6E02F}" destId="{EB19449F-7B18-4773-A67B-B0247C8D04B5}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{943EE061-BB20-49DE-ABE4-BE204A2D4AF3}" type="presParOf" srcId="{7F04DC46-0B54-4BB8-B414-D4F165A6E02F}" destId="{36F5FA0F-8878-4EF4-9319-859614006231}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D0526226-43E3-41FD-B22A-6D587D48AEF4}" type="presParOf" srcId="{36F5FA0F-8878-4EF4-9319-859614006231}" destId="{CA68DAC6-D4B6-4010-A535-B0468E2247E1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{15C6AB33-4FC0-4849-ADFF-ABEFAFE63906}" type="presParOf" srcId="{CA68DAC6-D4B6-4010-A535-B0468E2247E1}" destId="{1CE6E7D6-2A83-4C01-A9CD-672A0460654E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{41334B76-4576-4DD5-8A4D-E4DB8E5CCDE5}" type="presParOf" srcId="{CA68DAC6-D4B6-4010-A535-B0468E2247E1}" destId="{07FCE7E0-4FF0-4A2A-947F-6D3E585184D5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{15811C02-C9CD-4CD1-8503-783A9E2B1AA7}" type="presParOf" srcId="{36F5FA0F-8878-4EF4-9319-859614006231}" destId="{4DDF7B5E-CFC1-434E-81A6-58623B6A5E32}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1497BE30-EB7B-465A-9EA5-74EFE09E2D04}" type="presParOf" srcId="{4DDF7B5E-CFC1-434E-81A6-58623B6A5E32}" destId="{14BBBBFF-E420-48B5-B54E-752DDA56D31F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{74192E4F-F58C-444B-8805-C8BB3C81B075}" type="presParOf" srcId="{4DDF7B5E-CFC1-434E-81A6-58623B6A5E32}" destId="{F8C42685-6C5F-4AC9-8AC9-C7282AB9D503}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2BF5AA7F-CF37-4BA6-991B-B7C06CE94136}" type="presParOf" srcId="{F8C42685-6C5F-4AC9-8AC9-C7282AB9D503}" destId="{F7807827-5AA8-4EFE-967A-209160D8F749}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E3FAF859-5D5F-4CCC-B6FA-569BEDA6C3BE}" type="presParOf" srcId="{F7807827-5AA8-4EFE-967A-209160D8F749}" destId="{2996539B-C8CA-43F1-B4B8-E3B752A31A52}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{878C5835-19C2-42D5-BFD8-1751DAE16541}" type="presParOf" srcId="{F7807827-5AA8-4EFE-967A-209160D8F749}" destId="{2F55A733-92E1-4BC0-B18D-F76400EED0D5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B23DC626-76DB-4266-B60D-5C7DC53CC8B5}" type="presParOf" srcId="{F8C42685-6C5F-4AC9-8AC9-C7282AB9D503}" destId="{4B2FFB6B-C23D-433D-BA02-1029F85E3864}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8209BEDD-ECEA-49F9-91A2-AD8CAE1AABE3}" type="presParOf" srcId="{4B2FFB6B-C23D-433D-BA02-1029F85E3864}" destId="{12739CD6-508A-4932-98E6-F8F497FDF41F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C27E961C-21CD-434E-ADEB-BB29B4FFABEF}" type="presParOf" srcId="{4B2FFB6B-C23D-433D-BA02-1029F85E3864}" destId="{3A7FE035-F106-4CFA-87F2-6EFA45356F70}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5D7D0785-F8AF-4DCA-BEEC-FB24476F6791}" type="presParOf" srcId="{3A7FE035-F106-4CFA-87F2-6EFA45356F70}" destId="{4015CC82-EAF5-4C97-8D00-A2753CAD3DA3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{69570D00-04F5-439F-9DB6-F3C473A77D0C}" type="presParOf" srcId="{4015CC82-EAF5-4C97-8D00-A2753CAD3DA3}" destId="{8B1BA511-364D-4E6C-A362-1B7745DC4F3E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{88D82239-CFB4-4D49-9B42-29926E4A3312}" type="presParOf" srcId="{4015CC82-EAF5-4C97-8D00-A2753CAD3DA3}" destId="{4947493B-5DC5-401D-A622-E5DF6467E3A2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E295CD56-FBEE-4586-8ED1-355E05D14B93}" type="presParOf" srcId="{3A7FE035-F106-4CFA-87F2-6EFA45356F70}" destId="{9C62A280-F340-4778-A527-C6BD69F0F028}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{419938CF-0F3D-4D07-89A0-1372FB2142B8}" type="presParOf" srcId="{3A7FE035-F106-4CFA-87F2-6EFA45356F70}" destId="{B65F4873-28BC-4D58-8516-2A4A081ABFD5}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A92D98B6-32A2-4D75-B87E-CAC9074F3FC5}" type="presParOf" srcId="{4B2FFB6B-C23D-433D-BA02-1029F85E3864}" destId="{D5D24E6B-AC13-40E2-9BE5-422B65ED839C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{374363F7-70A8-4CD5-BBC9-93ED268A2B88}" type="presParOf" srcId="{4B2FFB6B-C23D-433D-BA02-1029F85E3864}" destId="{048A4C55-76F4-4253-860D-344FF4112822}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EEA590B8-4FDC-4015-A05A-3131C6D4A2AB}" type="presParOf" srcId="{048A4C55-76F4-4253-860D-344FF4112822}" destId="{ABC3CFEB-F1D9-4DE2-A312-213D2F576101}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{795B2CFF-F886-4FD5-8E54-8244A649FD50}" type="presParOf" srcId="{ABC3CFEB-F1D9-4DE2-A312-213D2F576101}" destId="{08BBE401-FFBE-4432-8F5B-6C1F8499C2B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5EAD7BAA-BA6D-4DB3-969F-6A8620AFA1B8}" type="presParOf" srcId="{ABC3CFEB-F1D9-4DE2-A312-213D2F576101}" destId="{CF7D5BCC-EEBE-4280-978D-DC8A2ACE9BB4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0C717224-4364-4F25-B625-DB1106EA256B}" type="presParOf" srcId="{048A4C55-76F4-4253-860D-344FF4112822}" destId="{847EAC92-4E15-47A7-871A-699CCCDA4D76}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F1B4D6BB-A1F6-4C8F-8398-50618F05CD04}" type="presParOf" srcId="{048A4C55-76F4-4253-860D-344FF4112822}" destId="{B0FD0E34-16F9-4482-B1A9-5BCB45872E75}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{92D09150-9623-4E53-A473-414F2E5D3BFA}" type="presParOf" srcId="{4B2FFB6B-C23D-433D-BA02-1029F85E3864}" destId="{27166336-5F1D-490E-9AFE-183688D629EE}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{702E11BB-ED84-4E8D-830E-DE41A50458A9}" type="presParOf" srcId="{4B2FFB6B-C23D-433D-BA02-1029F85E3864}" destId="{7019D908-511C-4F10-9B0B-F37697490352}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A51137D7-3F5E-4D0D-AAF5-BB18E1387B49}" type="presParOf" srcId="{7019D908-511C-4F10-9B0B-F37697490352}" destId="{E6F0C22C-26E0-4CDE-8F55-FD1247006167}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1C09E04E-4BCB-4B01-822F-6A0288555279}" type="presParOf" srcId="{E6F0C22C-26E0-4CDE-8F55-FD1247006167}" destId="{4CB8FC9C-4E8E-4531-830A-48D6E1BD85F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9FF4F92C-DD92-44F7-AF62-EA13A5E5DED8}" type="presParOf" srcId="{E6F0C22C-26E0-4CDE-8F55-FD1247006167}" destId="{EA6709F0-2E38-43CF-B1F1-3C352234C2FA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5AC907C6-F4C7-49DF-B804-B5E6CA3DD449}" type="presParOf" srcId="{7019D908-511C-4F10-9B0B-F37697490352}" destId="{F5A5B608-56B6-40F2-B317-25BC666BF7E6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{000DAA4B-9DFE-49C8-B7B4-15B6EFFBBEC0}" type="presParOf" srcId="{7019D908-511C-4F10-9B0B-F37697490352}" destId="{B1FF5031-AE4E-4BCF-B852-CA78DF9F79D3}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2F2B5D99-7E2D-4CC8-A1FC-A0ECE6D643F9}" type="presParOf" srcId="{4B2FFB6B-C23D-433D-BA02-1029F85E3864}" destId="{947FD5DD-80C6-403D-A5CC-C2F7FE143852}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FD35588A-6C41-4F21-B55A-62EBED364756}" type="presParOf" srcId="{4B2FFB6B-C23D-433D-BA02-1029F85E3864}" destId="{2FA9F37D-4962-4901-A158-B2A9F1465181}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5BF7D526-A8B8-451D-A094-C1D0E1B941C3}" type="presParOf" srcId="{2FA9F37D-4962-4901-A158-B2A9F1465181}" destId="{301020D2-C91C-405F-A11C-E6E329F16715}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8A2C7A80-A954-48BB-9BD6-25DF86B1F3D9}" type="presParOf" srcId="{301020D2-C91C-405F-A11C-E6E329F16715}" destId="{32F12FED-C7F7-492D-BBDD-57C948D21A9E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DF48FB97-5306-45CC-B838-79A263155053}" type="presParOf" srcId="{301020D2-C91C-405F-A11C-E6E329F16715}" destId="{788E2445-8325-487F-859D-B967A8595816}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A02FB6BE-E61D-472B-B462-D9F985E48617}" type="presParOf" srcId="{2FA9F37D-4962-4901-A158-B2A9F1465181}" destId="{6AA164E5-C16E-4E46-9E2C-5EF96FE3CA4F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0E1BFDCC-E0F4-49D9-9411-BED8AB705D83}" type="presParOf" srcId="{2FA9F37D-4962-4901-A158-B2A9F1465181}" destId="{CF376270-4B28-4516-BF6A-659EFCA82FB5}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0E8A55D9-8917-429F-BA1D-2EAAD04DD1D8}" type="presParOf" srcId="{F8C42685-6C5F-4AC9-8AC9-C7282AB9D503}" destId="{B559EB28-6A19-4115-B461-60AD44493A20}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FA84F45A-19A7-45D9-A420-5ADE14EE942A}" type="presParOf" srcId="{4DDF7B5E-CFC1-434E-81A6-58623B6A5E32}" destId="{CF3A6BED-DA23-45A5-927F-492BECB20BF1}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{614C4A85-96F2-478B-9D13-D4DCD4D6FBDD}" type="presParOf" srcId="{4DDF7B5E-CFC1-434E-81A6-58623B6A5E32}" destId="{E7213548-A30A-47B8-88A6-BDE68066D809}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7E472B0B-0D2B-44AC-B1F9-221B8D1356EB}" type="presParOf" srcId="{E7213548-A30A-47B8-88A6-BDE68066D809}" destId="{4CC072CA-1833-4EAF-9756-3B50FC1B2400}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DE9EB56B-625D-4A3D-8348-B0F0966D04A0}" type="presParOf" srcId="{4CC072CA-1833-4EAF-9756-3B50FC1B2400}" destId="{666C3FA4-73CF-416F-B185-D165FA22646F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AB67C2BF-6F10-4A97-9E14-64BBB46B9C58}" type="presParOf" srcId="{4CC072CA-1833-4EAF-9756-3B50FC1B2400}" destId="{5514013A-36AA-49CD-AD13-9FE9DA0855FC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{99816C66-E4B0-4509-A1A0-026A8452AF0D}" type="presParOf" srcId="{E7213548-A30A-47B8-88A6-BDE68066D809}" destId="{BD44EC62-B39A-4989-B1E3-8E47C4D87BF5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C0E284E5-94BA-4512-BB07-7B7C7E3D8987}" type="presParOf" srcId="{E7213548-A30A-47B8-88A6-BDE68066D809}" destId="{B458A643-F3A6-4FAD-B37A-59061C935637}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{467DCDA2-E0FD-41BE-92CC-4AAEAD9B2754}" type="presParOf" srcId="{36F5FA0F-8878-4EF4-9319-859614006231}" destId="{4C167D7B-9A7F-4C79-BC31-1526A15CB213}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EA5E8293-DFE7-4101-B757-4E8AB51A33F7}" type="presParOf" srcId="{7F04DC46-0B54-4BB8-B414-D4F165A6E02F}" destId="{96F9CE1E-394E-41D0-B714-F956A27CCAFC}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{772FD562-DEAC-4824-A304-1EAF08E12B29}" type="presParOf" srcId="{7F04DC46-0B54-4BB8-B414-D4F165A6E02F}" destId="{87440C1A-C70F-4E06-B7C1-B18A3BD34A7B}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{42473D77-CF43-4821-96ED-BC7FA3C1455E}" type="presParOf" srcId="{87440C1A-C70F-4E06-B7C1-B18A3BD34A7B}" destId="{81C62E83-84DA-49C3-883E-B845462CCAF3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7BAF0F91-7387-4F50-ADD6-A8EF5D7FA91F}" type="presParOf" srcId="{81C62E83-84DA-49C3-883E-B845462CCAF3}" destId="{94D8271F-3BE6-491D-B73E-6FD55E62D45A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1BBD57E5-5FE8-42EA-A2E6-D5DEDCFD0A6D}" type="presParOf" srcId="{81C62E83-84DA-49C3-883E-B845462CCAF3}" destId="{5DC16AF1-E34F-4CA1-B968-9F93645567DB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F8F929BF-6FB3-4960-9930-F19EE85BC662}" type="presParOf" srcId="{87440C1A-C70F-4E06-B7C1-B18A3BD34A7B}" destId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{142EB298-3124-4508-A774-729C17BB3365}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{FAD50408-6556-4404-9E09-756E82E115AD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8EA10051-5D30-4178-9B14-623BEEEC493D}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{D236872F-FC1C-4DA5-A86F-D72F968ECD90}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{20FC1260-4D59-460D-A3AB-877D2BD0408F}" type="presParOf" srcId="{D236872F-FC1C-4DA5-A86F-D72F968ECD90}" destId="{19EA7E20-4FD7-4D77-9158-46D46E5E3666}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3434EE22-D48A-4758-803D-45AA90534CC7}" type="presParOf" srcId="{19EA7E20-4FD7-4D77-9158-46D46E5E3666}" destId="{E64D60CA-5F55-4C3C-9AD5-9C65DCECB7A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C457B7CA-1B4F-42C9-B942-955C5031CD3F}" type="presParOf" srcId="{19EA7E20-4FD7-4D77-9158-46D46E5E3666}" destId="{5E2E63A2-EB8E-4A65-8622-D5F89D86327D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{712A25DC-EA76-4524-8FFB-2BDE99E50243}" type="presParOf" srcId="{D236872F-FC1C-4DA5-A86F-D72F968ECD90}" destId="{D801FAC7-3BF6-4D1A-B5CB-FF0DC78AFF2C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6DDC39DA-B560-4222-8519-1D634B339B6E}" type="presParOf" srcId="{D236872F-FC1C-4DA5-A86F-D72F968ECD90}" destId="{B3270F16-9575-431B-A1DA-8DF216723605}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{14BFFEF3-2595-407F-8809-0AC6F9155DCB}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{542905B1-C562-4D74-BC4D-F2A72C40D629}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9F056EDC-2E8C-4739-820E-3C1852CC5356}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{7A03229D-14AB-45ED-876B-69C710AEAA5C}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7F8E46ED-3B25-465F-AC11-736047929701}" type="presParOf" srcId="{7A03229D-14AB-45ED-876B-69C710AEAA5C}" destId="{62ED9A6C-AEEE-4494-87DC-A2FE30999BDD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6E2506BD-67E0-4508-B977-7235690BF562}" type="presParOf" srcId="{62ED9A6C-AEEE-4494-87DC-A2FE30999BDD}" destId="{E457BD99-B1A3-407D-8063-040D15DC5ECB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0AB8D151-DD94-4DB3-8A31-46570E32F5DB}" type="presParOf" srcId="{62ED9A6C-AEEE-4494-87DC-A2FE30999BDD}" destId="{A6293774-94F6-4610-A233-F0625B454A8D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B2DA92A4-FEA0-4DB8-B994-61904CAD6549}" type="presParOf" srcId="{7A03229D-14AB-45ED-876B-69C710AEAA5C}" destId="{128C37E3-57DE-4BC8-AD90-2FF104A9AB7D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CDD59781-7C10-4365-9A21-689F29E9AD7B}" type="presParOf" srcId="{7A03229D-14AB-45ED-876B-69C710AEAA5C}" destId="{7BC0BBF3-449B-481E-9191-0C0D316829FA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6C6372D5-C2FF-46A5-BC63-4595ED795A8A}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{16D0A96D-5947-4316-979D-83BD4B809E68}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{252A9C83-B67C-4165-967B-D47A8527A94C}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{8FEB9A00-20ED-4A8D-98F7-995E342CC645}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ACDB07FD-B7E0-4C38-9506-28040F3FB102}" type="presParOf" srcId="{8FEB9A00-20ED-4A8D-98F7-995E342CC645}" destId="{06093229-FE8E-4CD9-915E-CCF1A1CE21F4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A1E7A8F0-7ACC-427A-AD1B-C756844925C2}" type="presParOf" srcId="{06093229-FE8E-4CD9-915E-CCF1A1CE21F4}" destId="{22606EB7-9099-43D6-9995-CC5321CFD6B7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F3974450-171E-4816-8BA6-B765661DF482}" type="presParOf" srcId="{06093229-FE8E-4CD9-915E-CCF1A1CE21F4}" destId="{94BC82E4-6E43-41F2-8FBA-143A7A763568}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7AEB83F0-7436-43EF-BC4A-8A04B8385240}" type="presParOf" srcId="{8FEB9A00-20ED-4A8D-98F7-995E342CC645}" destId="{A572874A-D004-4C59-BE2A-FD4E06B5DB1F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5A917D19-767A-49C8-A4E5-5BBF5E8B9426}" type="presParOf" srcId="{8FEB9A00-20ED-4A8D-98F7-995E342CC645}" destId="{3466EEAA-15FB-4696-B6AE-7156693FA41D}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D8574948-1FE5-424C-AB28-883E546310A4}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{539CD19F-B507-43F8-8B69-696757B8AEE1}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D2789126-9FF3-4D4D-8446-4A2DD79A46AF}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{4D68A8A4-19C6-45AC-97BB-3E582B903251}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8574AB9C-B76D-44BC-8FE3-B0198849D285}" type="presParOf" srcId="{4D68A8A4-19C6-45AC-97BB-3E582B903251}" destId="{B62A0E69-9F8F-420F-B7BE-3DC69CDCAD1A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{88CDC869-2122-415E-AC14-20357DEEBC9D}" type="presParOf" srcId="{B62A0E69-9F8F-420F-B7BE-3DC69CDCAD1A}" destId="{D00A2B2B-163D-4C7F-874A-2B6FC6AD6098}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{39A9DFDC-512F-4103-8AE1-F725805A7D37}" type="presParOf" srcId="{B62A0E69-9F8F-420F-B7BE-3DC69CDCAD1A}" destId="{DADA450E-2A00-4026-81FE-8FA18B9FE4A8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B1484667-19C5-4FDE-BFFA-E94AF99AD3A3}" type="presParOf" srcId="{4D68A8A4-19C6-45AC-97BB-3E582B903251}" destId="{2DCBAC3C-FCDE-41CF-8EC3-69BDE7661B0D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FAD9590B-68F6-4B84-B85F-FA9EA4664F35}" type="presParOf" srcId="{4D68A8A4-19C6-45AC-97BB-3E582B903251}" destId="{4F5D5462-6C6E-446B-84A3-3758430C45C2}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4064F721-22D0-4E7A-B1BB-D223E56D8EEB}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{8E924C6E-6BEF-404C-A57E-3A3F1A179C9F}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D6399494-067C-4B16-98E4-231F8EB790B4}" type="presParOf" srcId="{F26BA9F2-ECCE-44C4-B31E-02A909B81517}" destId="{5B0864A9-4F63-45C8-AAFF-0D7514AF024D}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4EAC5C2F-6AA6-4AA3-B57E-0F916809B9FF}" type="presParOf" srcId="{5B0864A9-4F63-45C8-AAFF-0D7514AF024D}" destId="{901845BB-EF47-4C48-BECA-B51F06DE723D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A199E31A-971C-445C-934E-55F30BA5F8D1}" type="presParOf" srcId="{901845BB-EF47-4C48-BECA-B51F06DE723D}" destId="{E390B133-2936-4014-B597-9BC47D24BE6B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BBF3B0AB-2A4B-4FDB-B0A6-6501FA8D9E4C}" type="presParOf" srcId="{901845BB-EF47-4C48-BECA-B51F06DE723D}" destId="{50B22FFD-9308-47D6-8900-FF832AF0B49C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2BE4B47D-EBFA-4D77-8FA9-523C5756ACEF}" type="presParOf" srcId="{5B0864A9-4F63-45C8-AAFF-0D7514AF024D}" destId="{7589B095-3EB0-450A-8C71-C1338B23BD24}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4478A1B5-C9C7-48C5-A7D9-846A95064459}" type="presParOf" srcId="{5B0864A9-4F63-45C8-AAFF-0D7514AF024D}" destId="{0AFD3E39-B8F6-455E-BEE7-FEA9C49789F9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7C2C62DB-F6DF-460D-911F-1CB2E04286C0}" type="presParOf" srcId="{87440C1A-C70F-4E06-B7C1-B18A3BD34A7B}" destId="{54F0A297-076D-48E4-900E-7ADCAB744FA1}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F42E988A-B3F5-4EA0-A3A0-61532591421D}" type="presParOf" srcId="{7F04DC46-0B54-4BB8-B414-D4F165A6E02F}" destId="{6F433DDF-7859-4E30-A0E4-52B9C0E0E6CE}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DB1536ED-FB58-4D34-96AC-CDDE070319D8}" type="presParOf" srcId="{7F04DC46-0B54-4BB8-B414-D4F165A6E02F}" destId="{6CDA32E0-F6CB-4099-AC77-49586A923A18}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{01F57C4B-BD28-448C-9D06-C4230AC5B2F3}" type="presParOf" srcId="{6CDA32E0-F6CB-4099-AC77-49586A923A18}" destId="{B658460A-B90B-4BAD-979D-CC093BF02385}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1056295A-E66F-4E4E-86A1-0EFEFA88F401}" type="presParOf" srcId="{B658460A-B90B-4BAD-979D-CC093BF02385}" destId="{7B47C914-72BE-4F62-9C2E-12CF21A8E83A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{084842CF-B528-4B60-BC93-105C365594CD}" type="presParOf" srcId="{B658460A-B90B-4BAD-979D-CC093BF02385}" destId="{4D8F30DD-D9FC-4B03-AEEF-58C80353DCFF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EBF62A59-B53A-4B47-9F25-5AE42A39787B}" type="presParOf" srcId="{6CDA32E0-F6CB-4099-AC77-49586A923A18}" destId="{FFE7EC31-4A10-4C4C-92C3-C776B2D8716F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EEE2F807-3AF9-4326-ABC6-CF6E0C477B82}" type="presParOf" srcId="{FFE7EC31-4A10-4C4C-92C3-C776B2D8716F}" destId="{2F1F425F-805D-4C91-AEE2-686E6CD761B0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2AF191BB-BA42-4A98-92E8-AA28BC5B59AD}" type="presParOf" srcId="{FFE7EC31-4A10-4C4C-92C3-C776B2D8716F}" destId="{C18DBB65-3689-43A6-AF90-4D87DDC9AED1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{96C936DE-F910-4B40-9CDA-19E4103F369B}" type="presParOf" srcId="{C18DBB65-3689-43A6-AF90-4D87DDC9AED1}" destId="{3A8E54F0-B106-4173-922D-C93882969D07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3E820344-60E7-487F-81AC-0EB1DE9B2D13}" type="presParOf" srcId="{3A8E54F0-B106-4173-922D-C93882969D07}" destId="{7966E939-933F-4975-B334-EFA0AE682776}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E6D07A48-BD69-4BF8-B97D-6D8C5EAF23E0}" type="presParOf" srcId="{3A8E54F0-B106-4173-922D-C93882969D07}" destId="{63968E93-8C6B-49AC-801D-02363D753B51}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C2956A6B-942E-4887-BC9B-B8F9DCA312A5}" type="presParOf" srcId="{C18DBB65-3689-43A6-AF90-4D87DDC9AED1}" destId="{84D18496-8D0A-4D50-8800-C0A7D05E8D41}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FA7D7904-A65A-4F9A-8BA5-A08507BAEE14}" type="presParOf" srcId="{C18DBB65-3689-43A6-AF90-4D87DDC9AED1}" destId="{B4572EB7-B43E-49C8-9B1E-DEA551CD0399}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1F58ADAC-2D64-4B9D-AABC-D30243D85633}" type="presParOf" srcId="{FFE7EC31-4A10-4C4C-92C3-C776B2D8716F}" destId="{CDF1389A-B2CD-4C46-B243-34E3ADB34998}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CE586D6C-E822-42A7-B89C-E2F8EE72CC59}" type="presParOf" srcId="{FFE7EC31-4A10-4C4C-92C3-C776B2D8716F}" destId="{0D7042D2-3242-4F3C-9D6F-CB828D97F9C2}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C5A6956D-8AF6-409E-9AD5-8AB96CD89755}" type="presParOf" srcId="{0D7042D2-3242-4F3C-9D6F-CB828D97F9C2}" destId="{6DBD010D-4BD4-4BBA-90EC-26A642EC815A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B668595A-E206-463B-BE20-3EC00F4089EA}" type="presParOf" srcId="{6DBD010D-4BD4-4BBA-90EC-26A642EC815A}" destId="{7A787200-72FA-4966-BEF2-D11DA95DBBB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{954A2E4B-1070-4849-B972-DA36518B8187}" type="presParOf" srcId="{6DBD010D-4BD4-4BBA-90EC-26A642EC815A}" destId="{A2D97956-ADB7-4357-B6E6-2255C823E4D6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8D295414-D921-42D4-A6E4-89E5FDBE183C}" type="presParOf" srcId="{0D7042D2-3242-4F3C-9D6F-CB828D97F9C2}" destId="{215CD9D6-4605-4618-A531-553D711FB77D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{347C3791-31C2-4C9D-9C45-796BD3B80F8A}" type="presParOf" srcId="{0D7042D2-3242-4F3C-9D6F-CB828D97F9C2}" destId="{B39A3FAF-B5BC-408C-AC41-CEC06C6D9E45}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{78469B97-420C-43CE-BAF1-26C8D9BAF395}" type="presParOf" srcId="{6CDA32E0-F6CB-4099-AC77-49586A923A18}" destId="{3E612B33-4121-4F8C-9375-40434BAEF932}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{16918A74-28BA-4C37-B8E0-812FF5B17AD4}" type="presParOf" srcId="{C7F9638F-03B5-483A-B1F7-D914CD8E793A}" destId="{2C32A463-5FCD-4752-8B38-4320620810C9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
   </dgm:cxnLst>
   <dgm:bg/>
@@ -3293,8 +4358,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5117302" y="1012976"/>
-          <a:ext cx="91440" cy="709996"/>
+          <a:off x="7288772" y="904666"/>
+          <a:ext cx="91440" cy="632836"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3308,10 +4373,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="709996"/>
+                <a:pt x="45720" y="632836"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="709996"/>
+                <a:pt x="126852" y="632836"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3352,8 +4417,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5117302" y="1012976"/>
-          <a:ext cx="91440" cy="279144"/>
+          <a:off x="7288772" y="904666"/>
+          <a:ext cx="91440" cy="248807"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3367,10 +4432,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="279144"/>
+                <a:pt x="45720" y="248807"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="279144"/>
+                <a:pt x="126852" y="248807"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3411,8 +4476,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3937216" y="582123"/>
-          <a:ext cx="1468540" cy="127435"/>
+          <a:off x="4107594" y="520637"/>
+          <a:ext cx="3443252" cy="113586"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3426,13 +4491,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="63717"/>
+                <a:pt x="0" y="56793"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1468540" y="63717"/>
+                <a:pt x="3443252" y="56793"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1468540" y="127435"/>
+                <a:pt x="3443252" y="113586"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3473,8 +4538,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4383032" y="1012976"/>
-          <a:ext cx="91440" cy="2002555"/>
+          <a:off x="6452929" y="904666"/>
+          <a:ext cx="308223" cy="1784923"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3485,13 +4550,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="2002555"/>
+                <a:pt x="0" y="1784923"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="2002555"/>
+                <a:pt x="308223" y="1784923"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3532,8 +4597,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4383032" y="1012976"/>
-          <a:ext cx="91440" cy="1571702"/>
+          <a:off x="6452929" y="904666"/>
+          <a:ext cx="298130" cy="1400894"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3544,13 +4609,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1571702"/>
+                <a:pt x="0" y="1400894"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="1571702"/>
+                <a:pt x="298130" y="1400894"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3591,8 +4656,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4383032" y="1012976"/>
-          <a:ext cx="91440" cy="1140849"/>
+          <a:off x="6452929" y="904666"/>
+          <a:ext cx="313270" cy="1006772"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3603,13 +4668,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1140849"/>
+                <a:pt x="0" y="1006772"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="1140849"/>
+                <a:pt x="313270" y="1006772"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3650,8 +4715,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4383032" y="1012976"/>
-          <a:ext cx="91440" cy="709996"/>
+          <a:off x="6452929" y="904666"/>
+          <a:ext cx="313270" cy="622743"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3662,13 +4727,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="709996"/>
+                <a:pt x="0" y="622743"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="709996"/>
+                <a:pt x="313270" y="622743"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3709,8 +4774,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4383032" y="1012976"/>
-          <a:ext cx="91440" cy="279144"/>
+          <a:off x="6452929" y="904666"/>
+          <a:ext cx="313270" cy="248807"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3721,13 +4786,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="279144"/>
+                <a:pt x="0" y="248807"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="279144"/>
+                <a:pt x="313270" y="248807"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3768,8 +4833,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3937216" y="582123"/>
-          <a:ext cx="734270" cy="127435"/>
+          <a:off x="4107594" y="520637"/>
+          <a:ext cx="2561689" cy="113586"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3783,13 +4848,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="63717"/>
+                <a:pt x="0" y="56793"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="734270" y="63717"/>
+                <a:pt x="2561689" y="56793"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="734270" y="127435"/>
+                <a:pt x="2561689" y="113586"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3830,8 +4895,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3648762" y="1012976"/>
-          <a:ext cx="91440" cy="2002555"/>
+          <a:off x="4985084" y="904666"/>
+          <a:ext cx="307050" cy="113586"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3842,13 +4907,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="2002555"/>
+                <a:pt x="0" y="56793"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="2002555"/>
+                <a:pt x="307050" y="56793"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="307050" y="113586"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3889,8 +4957,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3648762" y="1012976"/>
-          <a:ext cx="91440" cy="1571702"/>
+          <a:off x="4375588" y="1288695"/>
+          <a:ext cx="91440" cy="1400894"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3904,10 +4972,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1571702"/>
+                <a:pt x="45720" y="1400894"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="1571702"/>
+                <a:pt x="126852" y="1400894"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3948,8 +5016,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3648762" y="1012976"/>
-          <a:ext cx="91440" cy="1140849"/>
+          <a:off x="4375588" y="1288695"/>
+          <a:ext cx="91440" cy="1016865"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3963,10 +5031,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1140849"/>
+                <a:pt x="45720" y="1016865"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="1140849"/>
+                <a:pt x="126852" y="1016865"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4007,8 +5075,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3648762" y="1012976"/>
-          <a:ext cx="91440" cy="709996"/>
+          <a:off x="4375588" y="1288695"/>
+          <a:ext cx="91440" cy="632836"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4022,10 +5090,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="709996"/>
+                <a:pt x="45720" y="632836"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="709996"/>
+                <a:pt x="126852" y="632836"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4066,8 +5134,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3648762" y="1012976"/>
-          <a:ext cx="91440" cy="279144"/>
+          <a:off x="4375588" y="1288695"/>
+          <a:ext cx="91440" cy="248807"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4081,10 +5149,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="279144"/>
+                <a:pt x="45720" y="248807"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="279144"/>
+                <a:pt x="126852" y="248807"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4118,15 +5186,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{27586A14-6521-482B-9AE1-BDB0D4168ED1}">
+    <dsp:sp modelId="{14BBBBFF-E420-48B5-B54E-752DDA56D31F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3891496" y="582123"/>
-          <a:ext cx="91440" cy="127435"/>
+          <a:off x="4637662" y="904666"/>
+          <a:ext cx="347421" cy="113586"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4137,10 +5205,78 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="347421" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="127435"/>
+                <a:pt x="347421" y="56793"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="56793"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="113586"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{EB19449F-7B18-4773-A67B-B0247C8D04B5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4107594" y="520637"/>
+          <a:ext cx="877489" cy="113586"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="56793"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="877489" y="56793"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="877489" y="113586"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4174,15 +5310,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{6FF38E61-B3E2-4F0A-90A3-D62057C9CAEA}">
+    <dsp:sp modelId="{427A2331-B94C-4B0B-82B5-B6C2480C85C7}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2914492" y="1012976"/>
-          <a:ext cx="91440" cy="2864260"/>
+          <a:off x="3667448" y="1670779"/>
+          <a:ext cx="108880" cy="2166120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4193,13 +5329,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="2864260"/>
+                <a:pt x="0" y="2166120"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="2864260"/>
+                <a:pt x="108880" y="2166120"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4233,15 +5369,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{94290531-1910-468F-B0CE-97EF7D4A3A4B}">
+    <dsp:sp modelId="{C8E0982C-0A26-4757-BED7-F73090520D23}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2914492" y="1012976"/>
-          <a:ext cx="91440" cy="1984371"/>
+          <a:off x="3667448" y="1670779"/>
+          <a:ext cx="108880" cy="1782091"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4252,13 +5388,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1984371"/>
+                <a:pt x="0" y="1782091"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="129936" y="1984371"/>
+                <a:pt x="108880" y="1782091"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4292,15 +5428,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{DD07FEFD-0224-4DD6-9F63-1F11E2838841}">
+    <dsp:sp modelId="{200D2F73-DD79-4DF0-8C60-FC667BBFD8AF}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2914492" y="1012976"/>
-          <a:ext cx="91440" cy="2431180"/>
+          <a:off x="3667448" y="1670779"/>
+          <a:ext cx="108880" cy="1398062"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4311,13 +5447,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="2431180"/>
+                <a:pt x="0" y="1398062"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="116331" y="2431180"/>
+                <a:pt x="108880" y="1398062"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4351,15 +5487,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{7BED290C-5CD7-473D-B4D3-B9A4CCC743D0}">
+    <dsp:sp modelId="{F9A75840-6F61-4518-A08A-A6C3C1A0056C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2914492" y="1012976"/>
-          <a:ext cx="91440" cy="1558093"/>
+          <a:off x="3667448" y="1670779"/>
+          <a:ext cx="108880" cy="1014033"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4370,13 +5506,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1558093"/>
+                <a:pt x="0" y="1014033"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="1558093"/>
+                <a:pt x="108880" y="1014033"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4410,15 +5546,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{2B2B1C63-60F4-404A-AB64-159DDC253014}">
+    <dsp:sp modelId="{729FB431-C1EC-4104-9514-2F88BF228808}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2914492" y="1012976"/>
-          <a:ext cx="91440" cy="1140849"/>
+          <a:off x="3667448" y="1670779"/>
+          <a:ext cx="108880" cy="630004"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4429,13 +5565,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1140849"/>
+                <a:pt x="0" y="630004"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="1140849"/>
+                <a:pt x="108880" y="630004"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4469,15 +5605,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{8E272E94-DF17-4B6C-8BCE-6F9C71923A10}">
+    <dsp:sp modelId="{2AE78620-5BC6-4A2B-8220-A18D57CF0F6A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2914492" y="1012976"/>
-          <a:ext cx="91440" cy="709996"/>
+          <a:off x="3667448" y="1670779"/>
+          <a:ext cx="108880" cy="245975"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4488,13 +5624,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="709996"/>
+                <a:pt x="0" y="245975"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="709996"/>
+                <a:pt x="108880" y="245975"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4528,15 +5664,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{4E14FB1C-6B3D-4833-9719-A987CA720A07}">
+    <dsp:sp modelId="{6FF38E61-B3E2-4F0A-90A3-D62057C9CAEA}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2914492" y="1012976"/>
-          <a:ext cx="91440" cy="279144"/>
+          <a:off x="3441850" y="1288695"/>
+          <a:ext cx="441952" cy="111641"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4547,13 +5683,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="279144"/>
+                <a:pt x="0" y="54848"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="279144"/>
+                <a:pt x="441952" y="54848"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="441952" y="111641"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4587,15 +5726,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{20440F1C-A067-443E-8FD2-615CB4CF0B9B}">
+    <dsp:sp modelId="{BD74E65F-F5A0-4B70-B537-2AF16190D43C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3202945" y="582123"/>
-          <a:ext cx="734270" cy="127435"/>
+          <a:off x="2817463" y="1672723"/>
+          <a:ext cx="123722" cy="2161974"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4606,16 +5745,733 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="734270" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="734270" y="63717"/>
+                <a:pt x="0" y="2161974"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="63717"/>
+                <a:pt x="123722" y="2161974"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{97B41E4C-91A0-468B-9A03-7B61FCEC2AF3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2817463" y="1672723"/>
+          <a:ext cx="123722" cy="1799251"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1799251"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="127435"/>
+                <a:pt x="123722" y="1799251"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{4426836E-20BC-4096-ABAA-4663E865D64B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2817463" y="1672723"/>
+          <a:ext cx="123722" cy="1415222"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1415222"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="123722" y="1415222"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{6DA43952-88B6-48AF-810E-E7CBDE37902F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2817463" y="1672723"/>
+          <a:ext cx="102995" cy="614908"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="614908"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="102995" y="614908"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{94290531-1910-468F-B0CE-97EF7D4A3A4B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2817463" y="1672723"/>
+          <a:ext cx="103433" cy="243376"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="243376"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="103433" y="243376"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{DD07FEFD-0224-4DD6-9F63-1F11E2838841}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2817463" y="1672723"/>
+          <a:ext cx="105526" cy="1022698"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1022698"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="105526" y="1022698"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{866DB733-E76A-4E4F-9592-F11CC31276D9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3033817" y="1288695"/>
+          <a:ext cx="408033" cy="113586"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="408033" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="408033" y="56793"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="56793"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="113586"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{CEA40C88-76A1-44DE-8F6E-784CDB58EB00}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3097490" y="904666"/>
+          <a:ext cx="344360" cy="113586"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="56793"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="344360" y="56793"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="344360" y="113586"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{2B2B1C63-60F4-404A-AB64-159DDC253014}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1913995" y="1288695"/>
+          <a:ext cx="91440" cy="1020849"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="1020849"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="126852" y="1020849"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{8E272E94-DF17-4B6C-8BCE-6F9C71923A10}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1913995" y="1288695"/>
+          <a:ext cx="91440" cy="636820"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="636820"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="126852" y="636820"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{4E14FB1C-6B3D-4833-9719-A987CA720A07}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1913995" y="1288695"/>
+          <a:ext cx="91440" cy="252791"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="252791"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="126852" y="252791"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{72EF4293-06E2-4408-B42B-18EE7288EFCB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2176069" y="904666"/>
+          <a:ext cx="921420" cy="113586"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="921420" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="921420" y="56793"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="56793"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="113586"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{20440F1C-A067-443E-8FD2-615CB4CF0B9B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3097490" y="520637"/>
+          <a:ext cx="1010104" cy="113586"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="1010104" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1010104" y="56793"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="56793"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="113586"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4656,8 +6512,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2180221" y="1012976"/>
-          <a:ext cx="91440" cy="1571702"/>
+          <a:off x="1124302" y="904666"/>
+          <a:ext cx="91440" cy="1400894"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4671,10 +6527,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1571702"/>
+                <a:pt x="45720" y="1400894"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="1571702"/>
+                <a:pt x="126852" y="1400894"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4715,8 +6571,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2180221" y="1012976"/>
-          <a:ext cx="91440" cy="1140849"/>
+          <a:off x="1124302" y="904666"/>
+          <a:ext cx="91440" cy="1016865"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4730,10 +6586,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1140849"/>
+                <a:pt x="45720" y="1016865"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="1140849"/>
+                <a:pt x="126852" y="1016865"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4774,8 +6630,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2180221" y="1012976"/>
-          <a:ext cx="91440" cy="709996"/>
+          <a:off x="1124302" y="904666"/>
+          <a:ext cx="91440" cy="632836"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4789,10 +6645,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="709996"/>
+                <a:pt x="45720" y="632836"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="709996"/>
+                <a:pt x="126852" y="632836"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4833,8 +6689,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2180221" y="1012976"/>
-          <a:ext cx="91440" cy="279144"/>
+          <a:off x="1124302" y="904666"/>
+          <a:ext cx="91440" cy="248807"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4848,10 +6704,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="279144"/>
+                <a:pt x="45720" y="248807"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="136745" y="279144"/>
+                <a:pt x="126852" y="248807"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4892,8 +6748,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2468675" y="582123"/>
-          <a:ext cx="1468540" cy="127435"/>
+          <a:off x="1386376" y="520637"/>
+          <a:ext cx="2721218" cy="113586"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4904,16 +6760,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1468540" y="0"/>
+                <a:pt x="2721218" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1468540" y="63717"/>
+                <a:pt x="2721218" y="56793"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="63717"/>
+                <a:pt x="0" y="56793"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="127435"/>
+                <a:pt x="0" y="113586"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4954,8 +6810,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3531349" y="469"/>
-          <a:ext cx="811732" cy="581654"/>
+          <a:off x="3745836" y="2195"/>
+          <a:ext cx="723515" cy="518441"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5020,13 +6876,13 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Dietary Metrics App Project</a:t>
+            <a:t>NutriMate App Project</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3531349" y="469"/>
-        <a:ext cx="811732" cy="581654"/>
+        <a:off x="3745836" y="2195"/>
+        <a:ext cx="723515" cy="518441"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{29FC3390-B3AF-4AE1-A130-989C60AA96EE}">
@@ -5036,8 +6892,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2165258" y="709558"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="1115933" y="634223"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5079,12 +6935,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5097,14 +6953,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
             <a:t>Initiating</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2165258" y="709558"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="1115933" y="634223"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4D6CB506-1FAC-475E-A501-165D0169C82F}">
@@ -5114,8 +6970,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2316967" y="1140411"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="1251154" y="1018252"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5157,12 +7013,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5175,14 +7031,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
             <a:t>Project Background and Overview</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2316967" y="1140411"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="1251154" y="1018252"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FB725D6A-3E91-4E22-833D-4F5634C72367}">
@@ -5192,8 +7048,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2316967" y="1571264"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="1251154" y="1402281"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5235,12 +7091,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5253,14 +7109,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Assign Project Manager</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Define Project Objectives</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2316967" y="1571264"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="1251154" y="1402281"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5D4D05C5-677C-40D0-BE29-0A617215BED6}">
@@ -5270,8 +7126,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2316967" y="2002117"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="1251154" y="1786309"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5313,12 +7169,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5331,14 +7187,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Develop Project Charter</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Identify Project Stakeholders</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2316967" y="2002117"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="1251154" y="1786309"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2A7CC2BA-0FC9-4CD9-BB35-A0667BC55DAF}">
@@ -5348,8 +7204,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2316967" y="2432969"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="1251154" y="2170338"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5391,12 +7247,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5409,14 +7265,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Meet Stakeholders</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Define Project Scope</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2316967" y="2432969"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="1251154" y="2170338"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8A4A1206-04E9-49D7-9D18-12789D041DC4}">
@@ -5426,8 +7282,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2899528" y="709558"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="2827047" y="634223"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5469,12 +7325,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5487,25 +7343,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
             <a:t>Planning</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2899528" y="709558"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="2827047" y="634223"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{AB3090E0-E841-4C14-8AD8-7F9172C970AA}">
+    <dsp:sp modelId="{52A54182-1557-4757-9198-4093866FA4B5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3051237" y="1140411"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="1905626" y="1018252"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5547,12 +7403,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5565,25 +7421,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Collect Requirement</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Project Planning</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3051237" y="1140411"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="1905626" y="1018252"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{C927A751-DF32-47D0-8B31-9E3DFC4C6030}">
+    <dsp:sp modelId="{AB3090E0-E841-4C14-8AD8-7F9172C970AA}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3051237" y="1571264"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="2040848" y="1406264"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5625,12 +7481,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5643,25 +7499,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Create Use Case Diagram</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Develop Work Breakdown Structure</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3051237" y="1571264"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="2040848" y="1406264"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{3CB0A418-7204-44C6-8304-90026C31C1B2}">
+    <dsp:sp modelId="{C927A751-DF32-47D0-8B31-9E3DFC4C6030}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3051237" y="2002117"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="2040848" y="1790293"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5703,12 +7559,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5721,25 +7577,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Establish Scope Plan</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Define Activity and Estimation</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3051237" y="2002117"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="2040848" y="1790293"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{FEE9DB09-07A6-4CD6-A2CA-FDE3E71DFBAD}">
+    <dsp:sp modelId="{3CB0A418-7204-44C6-8304-90026C31C1B2}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3051237" y="2419361"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="2040848" y="2174322"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5781,12 +7637,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5799,25 +7655,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Create WBS</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Create Gantt Chart</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3051237" y="2419361"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="2040848" y="2174322"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{4A68206F-0940-459D-AC3D-D850D9BC067B}">
+    <dsp:sp modelId="{FC7EEA8C-069E-49FB-A599-F4D87BE587FC}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3030823" y="3292448"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="3171407" y="1018252"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5859,12 +7715,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5877,25 +7733,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Software Design &amp; System Components</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>System Design Planning</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3030823" y="3292448"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="3171407" y="1018252"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{35466965-823D-4E6A-8DEE-89E5210F9072}">
+    <dsp:sp modelId="{566D694E-5418-4E16-9BA7-47823AAB65D0}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3044428" y="2845638"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="2763374" y="1402281"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5937,12 +7793,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5955,25 +7811,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Create Gantt Chart</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Develop System Design Document (SDD)</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3044428" y="2845638"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="2763374" y="1402281"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{620D5145-C15D-4E2D-8449-BC224938536A}">
+    <dsp:sp modelId="{4A68206F-0940-459D-AC3D-D850D9BC067B}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3051237" y="3725528"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="2922989" y="2560201"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6015,12 +7871,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6033,25 +7889,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Design User Interface</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Problem Background</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3051237" y="3725528"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="2922989" y="2560201"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{825D09E6-8B11-4C46-8E59-3C5C9AFCEF58}">
+    <dsp:sp modelId="{35466965-823D-4E6A-8DEE-89E5210F9072}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3633798" y="709558"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="2920896" y="1780879"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6093,12 +7949,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6111,25 +7967,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Executing</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>System Capabilities and Overview</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3633798" y="709558"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="2920896" y="1780879"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{8B1BA511-364D-4E6C-A362-1B7745DC4F3E}">
+    <dsp:sp modelId="{1F3594B8-7664-4F15-ACC9-C93095FC8575}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3785507" y="1140411"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="2920458" y="2152411"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6171,12 +8027,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6189,25 +8045,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Develop Front-End Interface</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Benefit Analysis</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3785507" y="1140411"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="2920458" y="2152411"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{08BBE401-FFBE-4432-8F5B-6C1F8499C2B5}">
+    <dsp:sp modelId="{63FEBFA0-B1AC-4BEC-97DB-33536B4F3778}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3785507" y="1571264"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="2941185" y="2952724"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6249,12 +8105,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6267,25 +8123,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Develop Back-End Systems</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>User Requirement</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3785507" y="1571264"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="2941185" y="2952724"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{4CB8FC9C-4E8E-4531-830A-48D6E1BD85F9}">
+    <dsp:sp modelId="{28AFEDF9-2CBD-41AB-89BD-2AEE38B82614}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3785507" y="2002117"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="2941185" y="3336753"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6327,12 +8183,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6345,25 +8201,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Integrate Features</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Software Requirement</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3785507" y="2002117"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="2941185" y="3336753"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{32F12FED-C7F7-492D-BBDD-57C948D21A9E}">
+    <dsp:sp modelId="{D409A906-B74A-4CE0-92A7-609E826FCFDC}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3785507" y="2432969"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="2941185" y="3699477"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6405,12 +8261,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6423,25 +8279,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Quality Assurance &amp; Testing</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Create Use Case Diagram</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3785507" y="2432969"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="2941185" y="3699477"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{666C3FA4-73CF-416F-B185-D165FA22646F}">
+    <dsp:sp modelId="{620D5145-C15D-4E2D-8449-BC224938536A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3785507" y="2863822"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="3613360" y="1400336"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6483,12 +8339,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6501,25 +8357,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Deployment</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Software Design</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3785507" y="2863822"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="3613360" y="1400336"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{94D8271F-3BE6-491D-B73E-6FD55E62D45A}">
+    <dsp:sp modelId="{F98A015D-2E6E-4691-AD0A-E4E15BB913F5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4368068" y="709558"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="3776329" y="1781533"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6561,12 +8417,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6579,25 +8435,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Controlling</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Create Flowchart</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4368068" y="709558"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="3776329" y="1781533"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{E64D60CA-5F55-4C3C-9AD5-9C65DCECB7A3}">
+    <dsp:sp modelId="{D400B591-6471-4822-B3DB-C7243FB1546C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4519777" y="1140411"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="3776329" y="2165562"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6639,12 +8495,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6657,25 +8513,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Monitor Project Work</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Define Functions</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4519777" y="1140411"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="3776329" y="2165562"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{E457BD99-B1A3-407D-8063-040D15DC5ECB}">
+    <dsp:sp modelId="{1066A10C-7FD6-4999-9FFD-796C1B0999A3}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4519777" y="1571264"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="3776329" y="2549591"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6717,12 +8573,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6735,25 +8591,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Control Scope</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Define Data Structure / Data Sources</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4519777" y="1571264"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="3776329" y="2549591"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{22606EB7-9099-43D6-9995-CC5321CFD6B7}">
+    <dsp:sp modelId="{A2890600-11C4-445D-BC3D-C20D92B96A25}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4519777" y="2002117"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="3776329" y="2933620"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6795,12 +8651,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6813,25 +8669,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Control Schedule</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Detailed Design</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4519777" y="2002117"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="3776329" y="2933620"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{D00A2B2B-163D-4C7F-874A-2B6FC6AD6098}">
+    <dsp:sp modelId="{74998690-FBCE-4B33-A71B-1FAD4E33867A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4519777" y="2432969"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="3776329" y="3317649"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6873,12 +8729,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6891,25 +8747,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Perform Quality Control</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Structural Design</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4519777" y="2432969"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="3776329" y="3317649"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{E390B133-2936-4014-B597-9BC47D24BE6B}">
+    <dsp:sp modelId="{B30FF4B7-5E7E-4923-9575-57AD7E4EF46E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4519777" y="2863822"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="3776329" y="3701678"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6951,12 +8807,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6969,25 +8825,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Report Performance</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Visual Design</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4519777" y="2863822"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="3776329" y="3701678"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{7B47C914-72BE-4F62-9C2E-12CF21A8E83A}">
+    <dsp:sp modelId="{1CE6E7D6-2A83-4C01-A9CD-672A0460654E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5102339" y="709558"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="4714641" y="634223"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7029,12 +8885,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7047,25 +8903,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Closing</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Executing</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5102339" y="709558"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="4714641" y="634223"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{7966E939-933F-4975-B334-EFA0AE682776}">
+    <dsp:sp modelId="{2996539B-C8CA-43F1-B4B8-E3B752A31A52}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5254047" y="1140411"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="4367219" y="1018252"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7107,12 +8963,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7125,25 +8981,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
-            <a:t>Final Performance Review</a:t>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Software Development and Implementation</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5254047" y="1140411"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="4367219" y="1018252"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{7A787200-72FA-4966-BEF2-D11DA95DBBB6}">
+    <dsp:sp modelId="{8B1BA511-364D-4E6C-A362-1B7745DC4F3E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5254047" y="1571264"/>
-          <a:ext cx="606834" cy="303417"/>
+          <a:off x="4502441" y="1402281"/>
+          <a:ext cx="540885" cy="270442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7185,12 +9041,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="4445" tIns="4445" rIns="4445" bIns="4445" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7203,14 +9059,1028 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-ID" sz="700" kern="1200"/>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Develop Front-End Interface</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4502441" y="1402281"/>
+        <a:ext cx="540885" cy="270442"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{08BBE401-FFBE-4432-8F5B-6C1F8499C2B5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4502441" y="1786309"/>
+          <a:ext cx="540885" cy="270442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Develop Back-End Systems</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4502441" y="1786309"/>
+        <a:ext cx="540885" cy="270442"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{4CB8FC9C-4E8E-4531-830A-48D6E1BD85F9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4502441" y="2170338"/>
+          <a:ext cx="540885" cy="270442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Integrate Features</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4502441" y="2170338"/>
+        <a:ext cx="540885" cy="270442"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{32F12FED-C7F7-492D-BBDD-57C948D21A9E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4502441" y="2554367"/>
+          <a:ext cx="540885" cy="270442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Quality Assurance &amp; Testing</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4502441" y="2554367"/>
+        <a:ext cx="540885" cy="270442"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{666C3FA4-73CF-416F-B185-D165FA22646F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5021691" y="1018252"/>
+          <a:ext cx="540885" cy="270442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Testing &amp; Deployment</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5021691" y="1018252"/>
+        <a:ext cx="540885" cy="270442"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{94D8271F-3BE6-491D-B73E-6FD55E62D45A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6398841" y="634223"/>
+          <a:ext cx="540885" cy="270442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Controlling</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6398841" y="634223"/>
+        <a:ext cx="540885" cy="270442"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E64D60CA-5F55-4C3C-9AD5-9C65DCECB7A3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6766200" y="1018252"/>
+          <a:ext cx="540885" cy="270442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Monitor Project Work</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6766200" y="1018252"/>
+        <a:ext cx="540885" cy="270442"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E457BD99-B1A3-407D-8063-040D15DC5ECB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6766200" y="1392188"/>
+          <a:ext cx="540885" cy="270442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Control Scope</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6766200" y="1392188"/>
+        <a:ext cx="540885" cy="270442"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{22606EB7-9099-43D6-9995-CC5321CFD6B7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6766200" y="1776217"/>
+          <a:ext cx="540885" cy="270442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Control Schedule</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6766200" y="1776217"/>
+        <a:ext cx="540885" cy="270442"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D00A2B2B-163D-4C7F-874A-2B6FC6AD6098}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6751060" y="2170338"/>
+          <a:ext cx="540885" cy="270442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Perform Quality Control</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6751060" y="2170338"/>
+        <a:ext cx="540885" cy="270442"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E390B133-2936-4014-B597-9BC47D24BE6B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6761153" y="2554367"/>
+          <a:ext cx="540885" cy="270442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Report Performance</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6761153" y="2554367"/>
+        <a:ext cx="540885" cy="270442"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7B47C914-72BE-4F62-9C2E-12CF21A8E83A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7280404" y="634223"/>
+          <a:ext cx="540885" cy="270442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Closing</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7280404" y="634223"/>
+        <a:ext cx="540885" cy="270442"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7966E939-933F-4975-B334-EFA0AE682776}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7415625" y="1018252"/>
+          <a:ext cx="540885" cy="270442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
+            <a:t>Final Performance Review</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7415625" y="1018252"/>
+        <a:ext cx="540885" cy="270442"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7A787200-72FA-4966-BEF2-D11DA95DBBB6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7415625" y="1402281"/>
+          <a:ext cx="540885" cy="270442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ID" sz="500" kern="1200"/>
             <a:t>Prepare Final Report</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5254047" y="1571264"/>
-        <a:ext cx="606834" cy="303417"/>
+        <a:off x="7415625" y="1402281"/>
+        <a:ext cx="540885" cy="270442"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -9407,8 +12277,8 @@
       <xdr:rowOff>148589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>601266</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>130967</xdr:rowOff>
     </xdr:to>
@@ -9757,8 +12627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29AB4BB-9EB6-43D3-B2B4-C2553795E443}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I10" zoomScale="151" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
